--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE18E131-A124-4DD7-811C-69CA062C9A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFC800-E738-49EB-ADA6-5D2B0A15DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -585,18 +585,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -890,10 +892,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:FZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,64 +924,73 @@
     <col min="24" max="24" width="6" style="35" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="3"/>
+    <col min="27" max="27" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="37">
         <v>44791</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37">
         <v>44796</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37">
         <v>44798</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="40">
+      <c r="N1" s="38">
         <v>44819</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37">
         <v>44825</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40">
         <v>44826</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37">
         <v>44832</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39">
+      <c r="V1" s="37"/>
+      <c r="W1" s="37">
         <v>44833</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40">
         <v>44838</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="37">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40">
         <v>44840</v>
       </c>
-      <c r="AB1" s="39"/>
-    </row>
-    <row r="2" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="41">
+        <v>44846</v>
+      </c>
+      <c r="AD1" s="42">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="2" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -998,8 +1009,10 @@
       <c r="V2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Z2" s="18"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1012,7 +1025,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1028,7 +1041,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1056,8 +1069,10 @@
       <c r="V5" s="18"/>
       <c r="X5" s="18"/>
       <c r="Z5" s="18"/>
-    </row>
-    <row r="6" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+    </row>
+    <row r="6" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1083,8 +1098,10 @@
       <c r="V6" s="18"/>
       <c r="X6" s="18"/>
       <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="2:28" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+    </row>
+    <row r="7" spans="2:30" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1103,8 +1120,10 @@
       <c r="V7" s="18"/>
       <c r="X7" s="34"/>
       <c r="Z7" s="34"/>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1117,7 +1136,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1145,7 +1164,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1165,8 +1184,10 @@
       <c r="V10" s="18"/>
       <c r="X10" s="34"/>
       <c r="Z10" s="34"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1181,14 +1202,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1222,11 +1243,15 @@
       <c r="V13" s="18"/>
       <c r="X13" s="34"/>
       <c r="Z13" s="34"/>
-      <c r="AA13" s="2">
+      <c r="AA13" s="33">
         <v>47246</v>
       </c>
-    </row>
-    <row r="14" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="19">
+        <v>47404</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1245,13 +1270,15 @@
       <c r="V14" s="18"/>
       <c r="X14" s="34"/>
       <c r="Z14" s="34"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1287,7 @@
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1305,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1298,8 +1325,10 @@
       <c r="V18" s="18"/>
       <c r="X18" s="34"/>
       <c r="Z18" s="34"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1337,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1334,8 +1363,11 @@
         <v>46966</v>
       </c>
       <c r="Z20" s="22"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AC20" s="21">
+        <v>47212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1397,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1395,8 +1427,10 @@
       <c r="V22" s="18"/>
       <c r="X22" s="18"/>
       <c r="Z22" s="18"/>
-    </row>
-    <row r="23" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+    </row>
+    <row r="23" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1419,8 +1453,10 @@
       <c r="V23" s="18"/>
       <c r="X23" s="34"/>
       <c r="Z23" s="34"/>
-    </row>
-    <row r="24" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+    </row>
+    <row r="24" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1440,8 +1476,10 @@
       <c r="V24" s="18"/>
       <c r="X24" s="34"/>
       <c r="Z24" s="34"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1457,7 +1495,7 @@
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1473,7 +1511,7 @@
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1501,8 +1539,10 @@
       <c r="V27" s="18"/>
       <c r="X27" s="34"/>
       <c r="Z27" s="34"/>
-    </row>
-    <row r="28" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+    </row>
+    <row r="28" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1522,8 +1562,10 @@
       <c r="V28" s="18"/>
       <c r="X28" s="34"/>
       <c r="Z28" s="34"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1533,7 +1575,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1546,7 +1588,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1559,7 +1601,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1599,6 +1641,10 @@
       <c r="V33" s="18"/>
       <c r="X33" s="34"/>
       <c r="Z33" s="34"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="20">
+        <v>47218</v>
+      </c>
     </row>
     <row r="34" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1619,6 +1665,8 @@
       <c r="V34" s="18"/>
       <c r="X34" s="34"/>
       <c r="Z34" s="34"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
     </row>
     <row r="35" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1641,8 +1689,8 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="36"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
@@ -1813,8 +1861,8 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
@@ -1988,8 +2036,8 @@
       </c>
       <c r="Z37" s="36"/>
       <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
@@ -2160,8 +2208,8 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
@@ -2335,6 +2383,8 @@
       <c r="V39" s="18"/>
       <c r="X39" s="34"/>
       <c r="Z39" s="34"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
     </row>
     <row r="40" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -2402,6 +2452,8 @@
       </c>
       <c r="X43" s="18"/>
       <c r="Z43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
     </row>
     <row r="44" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -2432,6 +2484,8 @@
         <v>38593</v>
       </c>
       <c r="Z44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
     </row>
     <row r="45" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
@@ -2452,6 +2506,8 @@
       <c r="V45" s="18"/>
       <c r="X45" s="18"/>
       <c r="Z45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
     </row>
     <row r="46" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -2492,22 +2548,24 @@
       <c r="V48" s="18"/>
       <c r="X48" s="34"/>
       <c r="Z48" s="34"/>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="22"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="22"/>
     </row>
-    <row r="51" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>21</v>
       </c>
@@ -2526,8 +2584,10 @@
       <c r="V51" s="18"/>
       <c r="X51" s="34"/>
       <c r="Z51" s="34"/>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -2535,7 +2595,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -2543,7 +2603,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>22</v>
       </c>
@@ -2567,8 +2627,13 @@
       <c r="Z54" s="21">
         <v>47616</v>
       </c>
-    </row>
-    <row r="55" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="1">
+        <v>47614</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>23</v>
       </c>
@@ -2587,32 +2652,34 @@
       <c r="V55" s="18"/>
       <c r="X55" s="34"/>
       <c r="Z55" s="34"/>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>24</v>
       </c>
@@ -2634,11 +2701,12 @@
       <c r="AA60" s="33">
         <v>27421</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AB60" s="21">
         <v>27686</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC60" s="18"/>
+    </row>
+    <row r="61" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>25</v>
       </c>
@@ -2657,8 +2725,10 @@
       <c r="V61" s="18"/>
       <c r="X61" s="34"/>
       <c r="Z61" s="34"/>
-    </row>
-    <row r="62" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB61" s="18"/>
+      <c r="AC61" s="18"/>
+    </row>
+    <row r="62" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>26</v>
       </c>
@@ -2677,8 +2747,10 @@
       <c r="V62" s="18"/>
       <c r="X62" s="34"/>
       <c r="Z62" s="34"/>
-    </row>
-    <row r="63" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+    </row>
+    <row r="63" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>27</v>
       </c>
@@ -2697,8 +2769,10 @@
       <c r="V63" s="18"/>
       <c r="X63" s="34"/>
       <c r="Z63" s="34"/>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -2806,9 +2880,13 @@
     <hyperlink ref="AB60" r:id="rId77" display="https://inf-ege.sdamgia.ru/problem?id=27686" xr:uid="{344F748B-9A0F-4E74-B619-BB2FB37B2E7C}"/>
     <hyperlink ref="AA60" r:id="rId78" display="https://inf-ege.sdamgia.ru/problem?id=27421" xr:uid="{D07C35AF-F82A-4564-8F1F-D511EC4202A5}"/>
     <hyperlink ref="AA13" r:id="rId79" display="https://inf-ege.sdamgia.ru/problem?id=47246" xr:uid="{5391451B-8A06-4553-A308-74A23DD8AF52}"/>
+    <hyperlink ref="AC13" r:id="rId80" display="https://inf-ege.sdamgia.ru/problem?id=47404" xr:uid="{E3DD0ADA-FD0D-43D7-B353-B38C605F82C6}"/>
+    <hyperlink ref="AC20" r:id="rId81" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{4E58EFF6-B7D9-4891-B6ED-57D2E0559445}"/>
+    <hyperlink ref="AC33" r:id="rId82" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{9D387AED-5925-47B2-9734-FC1E136736A8}"/>
+    <hyperlink ref="AD54" r:id="rId83" display="https://inf-ege.sdamgia.ru/problem?id=47614" xr:uid="{FCD2BC7E-4A42-49AC-BB09-4FAA1B153DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFC800-E738-49EB-ADA6-5D2B0A15DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248949B-7A79-42B5-B1D9-DCD0C3046E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -526,6 +526,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,7 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -585,20 +596,21 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -895,7 +907,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
+      <selection pane="topRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,71 +938,74 @@
     <col min="26" max="26" width="6" style="35" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="30" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="37">
+      <c r="E1" s="39">
         <v>44791</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39">
         <v>44796</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39">
         <v>44798</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="41">
         <v>44819</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39">
         <v>44825</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="38">
         <v>44826</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37">
+      <c r="T1" s="39"/>
+      <c r="U1" s="39">
         <v>44832</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39">
         <v>44833</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="38">
         <v>44838</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="38">
         <v>44840</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="41">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="42">
         <v>44847</v>
       </c>
-    </row>
-    <row r="2" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE1" s="43">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="2" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1011,8 +1026,9 @@
       <c r="Z2" s="18"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD2" s="18"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1025,7 +1041,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1041,7 +1057,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1071,8 +1087,9 @@
       <c r="Z5" s="18"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
-    </row>
-    <row r="6" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1100,8 +1117,9 @@
       <c r="Z6" s="18"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
-    </row>
-    <row r="7" spans="2:30" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="18"/>
+    </row>
+    <row r="7" spans="2:31" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1122,8 +1140,9 @@
       <c r="Z7" s="34"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD7" s="18"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1136,7 +1155,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1164,7 +1183,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1186,8 +1205,9 @@
       <c r="Z10" s="34"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD10" s="18"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1202,14 +1222,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1250,8 +1270,9 @@
       <c r="AC13" s="19">
         <v>47404</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD13" s="18"/>
+    </row>
+    <row r="14" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1272,13 +1293,14 @@
       <c r="Z14" s="34"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD14" s="18"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1309,7 @@
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1327,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1327,8 +1349,9 @@
       <c r="Z18" s="34"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AD18" s="18"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1360,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1390,7 @@
         <v>47212</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1420,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1429,8 +1452,9 @@
       <c r="Z22" s="18"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
-    </row>
-    <row r="23" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD22" s="18"/>
+    </row>
+    <row r="23" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1455,8 +1479,9 @@
       <c r="Z23" s="34"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
-    </row>
-    <row r="24" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD23" s="18"/>
+    </row>
+    <row r="24" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1478,8 +1503,9 @@
       <c r="Z24" s="34"/>
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AD24" s="18"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1495,7 +1521,7 @@
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1511,7 +1537,7 @@
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1541,8 +1567,9 @@
       <c r="Z27" s="34"/>
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
-    </row>
-    <row r="28" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD27" s="18"/>
+    </row>
+    <row r="28" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1564,8 +1591,9 @@
       <c r="Z28" s="34"/>
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AD28" s="18"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1575,7 +1603,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1588,7 +1616,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1601,7 +1629,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1645,6 +1673,7 @@
       <c r="AC33" s="20">
         <v>47218</v>
       </c>
+      <c r="AD33" s="18"/>
     </row>
     <row r="34" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1667,6 +1696,7 @@
       <c r="Z34" s="34"/>
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
     </row>
     <row r="35" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1691,7 +1721,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="36"/>
       <c r="AC35" s="36"/>
-      <c r="AD35" s="2"/>
+      <c r="AD35" s="36"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -1863,7 +1893,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="36"/>
       <c r="AC36" s="36"/>
-      <c r="AD36" s="2"/>
+      <c r="AD36" s="36"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -2038,7 +2068,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="36"/>
       <c r="AC37" s="36"/>
-      <c r="AD37" s="2"/>
+      <c r="AD37" s="36"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -2210,7 +2240,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="36"/>
       <c r="AC38" s="36"/>
-      <c r="AD38" s="2"/>
+      <c r="AD38" s="36"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -2385,6 +2415,7 @@
       <c r="Z39" s="34"/>
       <c r="AB39" s="18"/>
       <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
     </row>
     <row r="40" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -2454,6 +2485,7 @@
       <c r="Z43" s="18"/>
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
     </row>
     <row r="44" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -2486,6 +2518,7 @@
       <c r="Z44" s="18"/>
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
     </row>
     <row r="45" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
@@ -2508,6 +2541,7 @@
       <c r="Z45" s="18"/>
       <c r="AB45" s="18"/>
       <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
     </row>
     <row r="46" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -2550,6 +2584,7 @@
       <c r="Z48" s="34"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
@@ -2586,6 +2621,7 @@
       <c r="Z51" s="34"/>
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
@@ -2629,7 +2665,7 @@
       </c>
       <c r="AB54" s="18"/>
       <c r="AC54" s="18"/>
-      <c r="AD54" s="1">
+      <c r="AD54" s="19">
         <v>47614</v>
       </c>
     </row>
@@ -2654,6 +2690,7 @@
       <c r="Z55" s="34"/>
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
@@ -2705,6 +2742,7 @@
         <v>27686</v>
       </c>
       <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
     </row>
     <row r="61" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2727,6 +2765,7 @@
       <c r="Z61" s="34"/>
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
+      <c r="AD61" s="18"/>
     </row>
     <row r="62" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2749,6 +2788,7 @@
       <c r="Z62" s="34"/>
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
     </row>
     <row r="63" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2771,6 +2811,7 @@
       <c r="Z63" s="34"/>
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
@@ -2789,16 +2830,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=10279" xr:uid="{14373AB1-311C-432C-9786-979AC0659BEF}"/>

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F248949B-7A79-42B5-B1D9-DCD0C3046E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A49FD73-8582-41A7-93DC-4E4003E01D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,10 +607,9 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -904,10 +904,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:FZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="topRight" activeCell="AH60" sqref="AH60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -939,73 +939,83 @@
     <col min="27" max="27" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="22" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="3"/>
+    <col min="31" max="31" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="40">
         <v>44791</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40">
         <v>44796</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40">
         <v>44798</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="41">
+      <c r="N1" s="39">
         <v>44819</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40">
         <v>44825</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="38">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42">
         <v>44826</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40">
         <v>44832</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40">
         <v>44833</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="38">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42">
         <v>44838</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="38">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42">
         <v>44840</v>
       </c>
-      <c r="AB1" s="39"/>
+      <c r="AB1" s="40"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
-      <c r="AD1" s="42">
+      <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="43">
+      <c r="AE1" s="39">
         <v>44854</v>
       </c>
-    </row>
-    <row r="2" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="17">
+        <v>44860</v>
+      </c>
+      <c r="AH1" s="43">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1027,8 +1037,10 @@
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1041,7 +1053,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1057,7 +1069,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1088,8 +1100,10 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
-    </row>
-    <row r="6" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+    </row>
+    <row r="6" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1118,8 +1132,10 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18"/>
-    </row>
-    <row r="7" spans="2:31" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+    </row>
+    <row r="7" spans="2:34" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1141,8 +1157,10 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1155,7 +1173,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1183,7 +1201,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1206,8 +1224,10 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1222,14 +1242,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1271,8 +1291,10 @@
         <v>47404</v>
       </c>
       <c r="AD13" s="18"/>
-    </row>
-    <row r="14" spans="2:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1294,13 +1316,15 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1333,7 @@
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1327,7 +1351,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1350,8 +1374,10 @@
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
       <c r="AD18" s="18"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1386,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1416,7 @@
         <v>47212</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1446,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1453,8 +1479,10 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
-    </row>
-    <row r="23" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+    </row>
+    <row r="23" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1480,8 +1508,10 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
       <c r="AD23" s="18"/>
-    </row>
-    <row r="24" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+    </row>
+    <row r="24" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1504,8 +1534,10 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="18"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1521,7 +1553,7 @@
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1537,7 +1569,7 @@
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1568,8 +1600,10 @@
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
-    </row>
-    <row r="28" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+    </row>
+    <row r="28" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1592,8 +1626,10 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1603,7 +1639,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1616,7 +1652,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1629,7 +1665,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1674,6 +1710,8 @@
         <v>47218</v>
       </c>
       <c r="AD33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
     </row>
     <row r="34" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1697,6 +1735,8 @@
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
     </row>
     <row r="35" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1723,8 +1763,8 @@
       <c r="AC35" s="36"/>
       <c r="AD35" s="36"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
@@ -1895,8 +1935,8 @@
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
@@ -2070,8 +2110,8 @@
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
@@ -2242,8 +2282,8 @@
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
       <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
@@ -2416,6 +2456,8 @@
       <c r="AB39" s="18"/>
       <c r="AC39" s="18"/>
       <c r="AD39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -2486,6 +2528,8 @@
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
     </row>
     <row r="44" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -2519,6 +2563,8 @@
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
       <c r="AD44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
     </row>
     <row r="45" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
@@ -2542,6 +2588,8 @@
       <c r="AB45" s="18"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
     </row>
     <row r="46" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -2552,6 +2600,13 @@
       <c r="R46" s="22"/>
       <c r="X46" s="22"/>
       <c r="Z46" s="22"/>
+      <c r="AE46" s="33">
+        <v>47223</v>
+      </c>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="20">
+        <v>40735</v>
+      </c>
     </row>
     <row r="47" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
@@ -2585,22 +2640,31 @@
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
       <c r="AD48" s="18"/>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="22"/>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AE49" s="33">
+        <v>47224</v>
+      </c>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36">
+        <v>40736</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="22"/>
     </row>
-    <row r="51" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>21</v>
       </c>
@@ -2622,16 +2686,25 @@
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
       <c r="AD51" s="18"/>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="22"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AE52" s="33">
+        <v>47225</v>
+      </c>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="36">
+        <v>40737</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -2639,7 +2712,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>22</v>
       </c>
@@ -2668,8 +2741,10 @@
       <c r="AD54" s="19">
         <v>47614</v>
       </c>
-    </row>
-    <row r="55" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+    </row>
+    <row r="55" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>23</v>
       </c>
@@ -2691,32 +2766,34 @@
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
       <c r="AD55" s="18"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+    </row>
+    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>24</v>
       </c>
@@ -2743,8 +2820,13 @@
       </c>
       <c r="AC60" s="18"/>
       <c r="AD60" s="18"/>
-    </row>
-    <row r="61" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="2">
+        <v>33494</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>25</v>
       </c>
@@ -2766,8 +2848,10 @@
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
-    </row>
-    <row r="62" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+    </row>
+    <row r="62" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>26</v>
       </c>
@@ -2789,8 +2873,10 @@
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
       <c r="AD62" s="18"/>
-    </row>
-    <row r="63" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+    </row>
+    <row r="63" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>27</v>
       </c>
@@ -2812,8 +2898,10 @@
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
       <c r="AD63" s="18"/>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+    </row>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -2829,7 +2917,8 @@
       <c r="B68" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -2925,9 +3014,16 @@
     <hyperlink ref="AC20" r:id="rId81" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{4E58EFF6-B7D9-4891-B6ED-57D2E0559445}"/>
     <hyperlink ref="AC33" r:id="rId82" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{9D387AED-5925-47B2-9734-FC1E136736A8}"/>
     <hyperlink ref="AD54" r:id="rId83" display="https://inf-ege.sdamgia.ru/problem?id=47614" xr:uid="{FCD2BC7E-4A42-49AC-BB09-4FAA1B153DD4}"/>
+    <hyperlink ref="AE46" r:id="rId84" display="https://inf-ege.sdamgia.ru/problem?id=47223" xr:uid="{919D90EF-BD4E-4C80-8264-8C5EB6108368}"/>
+    <hyperlink ref="AE49" r:id="rId85" display="https://inf-ege.sdamgia.ru/problem?id=47224" xr:uid="{CF65E69C-61CA-4298-A1F8-1657FAFBA1AE}"/>
+    <hyperlink ref="AE52" r:id="rId86" display="https://inf-ege.sdamgia.ru/problem?id=47225" xr:uid="{661BAB13-3AB1-4A90-AC50-CED2234C625D}"/>
+    <hyperlink ref="AG46" r:id="rId87" display="https://inf-ege.sdamgia.ru/problem?id=40735" xr:uid="{05752EF1-5155-4632-86A3-772803541DF5}"/>
+    <hyperlink ref="AG49" r:id="rId88" display="https://inf-ege.sdamgia.ru/problem?id=40736" xr:uid="{0DFC92A6-372B-4F1C-BC3D-B141D75034B9}"/>
+    <hyperlink ref="AG52" r:id="rId89" display="https://inf-ege.sdamgia.ru/problem?id=40737" xr:uid="{0DEE22FA-B5B1-4464-9E75-8EE30ACF4CC2}"/>
+    <hyperlink ref="AH60" r:id="rId90" display="https://inf-ege.sdamgia.ru/problem?id=33494" xr:uid="{AA6E2A8D-6B03-4576-A849-36F02364D92E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A49FD73-8582-41A7-93DC-4E4003E01D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78E65E-DC0E-496E-98E6-499ABED475DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -598,6 +598,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,7 +611,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -904,10 +905,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:FZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AH60" sqref="AH60"/>
+      <selection pane="topRight" activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,80 +943,84 @@
     <col min="31" max="31" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6" style="22" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="3"/>
+    <col min="34" max="34" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="41">
         <v>44791</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41">
         <v>44796</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41">
         <v>44798</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="39">
+      <c r="N1" s="40">
         <v>44819</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41">
         <v>44825</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43">
         <v>44826</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41">
         <v>44832</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41">
         <v>44833</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43">
         <v>44838</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="42">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="43">
         <v>44840</v>
       </c>
-      <c r="AB1" s="40"/>
+      <c r="AB1" s="41"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="39">
+      <c r="AE1" s="40">
         <v>44854</v>
       </c>
-      <c r="AF1" s="40"/>
+      <c r="AF1" s="41"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
-      <c r="AH1" s="43">
+      <c r="AH1" s="26">
         <v>44861</v>
       </c>
-    </row>
-    <row r="2" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AI1" s="39">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="2" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1039,8 +1044,9 @@
       <c r="AD2" s="18"/>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH2" s="27"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1053,7 +1059,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1069,7 +1075,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1102,8 +1108,9 @@
       <c r="AD5" s="18"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH5" s="27"/>
+    </row>
+    <row r="6" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1134,8 +1141,9 @@
       <c r="AD6" s="18"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="2:34" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH6" s="27"/>
+    </row>
+    <row r="7" spans="2:35" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1159,8 +1167,9 @@
       <c r="AD7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH7" s="27"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1173,7 +1182,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1201,7 +1210,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1226,8 +1235,9 @@
       <c r="AD10" s="18"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH10" s="27"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1242,14 +1252,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1293,8 +1303,9 @@
       <c r="AD13" s="18"/>
       <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH13" s="27"/>
+    </row>
+    <row r="14" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1318,13 +1329,14 @@
       <c r="AD14" s="18"/>
       <c r="AF14" s="18"/>
       <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH14" s="27"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1345,7 @@
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1363,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1376,8 +1388,9 @@
       <c r="AD18" s="18"/>
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AH18" s="27"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +1399,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>47212</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1459,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1481,8 +1494,9 @@
       <c r="AD22" s="18"/>
       <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
-    </row>
-    <row r="23" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH22" s="27"/>
+    </row>
+    <row r="23" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1510,8 +1524,9 @@
       <c r="AD23" s="18"/>
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
-    </row>
-    <row r="24" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH23" s="27"/>
+    </row>
+    <row r="24" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1536,8 +1551,9 @@
       <c r="AD24" s="18"/>
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AH24" s="27"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1553,7 +1569,7 @@
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1569,7 +1585,7 @@
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1602,8 +1618,9 @@
       <c r="AD27" s="18"/>
       <c r="AF27" s="18"/>
       <c r="AG27" s="18"/>
-    </row>
-    <row r="28" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH27" s="27"/>
+    </row>
+    <row r="28" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1628,8 +1645,9 @@
       <c r="AD28" s="18"/>
       <c r="AF28" s="18"/>
       <c r="AG28" s="18"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AH28" s="27"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1639,7 +1657,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1652,7 +1670,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1665,7 +1683,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1712,6 +1730,7 @@
       <c r="AD33" s="18"/>
       <c r="AF33" s="18"/>
       <c r="AG33" s="18"/>
+      <c r="AH33" s="27"/>
     </row>
     <row r="34" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1737,6 +1756,7 @@
       <c r="AD34" s="18"/>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
+      <c r="AH34" s="27"/>
     </row>
     <row r="35" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1765,7 +1785,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="36"/>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="44"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
@@ -1937,7 +1957,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="36"/>
       <c r="AG36" s="36"/>
-      <c r="AH36" s="2"/>
+      <c r="AH36" s="44"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
@@ -2112,7 +2132,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="36"/>
       <c r="AG37" s="36"/>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="44"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
@@ -2284,7 +2304,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="44"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
@@ -2458,6 +2478,7 @@
       <c r="AD39" s="18"/>
       <c r="AF39" s="18"/>
       <c r="AG39" s="18"/>
+      <c r="AH39" s="27"/>
     </row>
     <row r="40" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -2530,6 +2551,7 @@
       <c r="AD43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
+      <c r="AH43" s="27"/>
     </row>
     <row r="44" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -2565,6 +2587,7 @@
       <c r="AD44" s="18"/>
       <c r="AF44" s="18"/>
       <c r="AG44" s="18"/>
+      <c r="AH44" s="27"/>
     </row>
     <row r="45" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
@@ -2590,6 +2613,7 @@
       <c r="AD45" s="18"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="18"/>
+      <c r="AH45" s="27"/>
     </row>
     <row r="46" spans="2:182" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
@@ -2642,8 +2666,9 @@
       <c r="AD48" s="18"/>
       <c r="AF48" s="18"/>
       <c r="AG48" s="18"/>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH48" s="27"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>44</v>
       </c>
@@ -2657,14 +2682,14 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="22"/>
     </row>
-    <row r="51" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>21</v>
       </c>
@@ -2688,8 +2713,9 @@
       <c r="AD51" s="18"/>
       <c r="AF51" s="18"/>
       <c r="AG51" s="18"/>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH51" s="27"/>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -2704,7 +2730,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -2712,7 +2738,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>22</v>
       </c>
@@ -2743,8 +2769,9 @@
       </c>
       <c r="AF54" s="18"/>
       <c r="AG54" s="18"/>
-    </row>
-    <row r="55" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH54" s="27"/>
+    </row>
+    <row r="55" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>23</v>
       </c>
@@ -2768,32 +2795,42 @@
       <c r="AD55" s="18"/>
       <c r="AF55" s="18"/>
       <c r="AG55" s="18"/>
-    </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH55" s="27"/>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AI56" s="33">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AI58" s="2">
+        <v>35912</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AI59" s="33">
+        <v>47020</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>24</v>
       </c>
@@ -2822,11 +2859,11 @@
       <c r="AD60" s="18"/>
       <c r="AF60" s="18"/>
       <c r="AG60" s="18"/>
-      <c r="AH60" s="2">
+      <c r="AH60" s="30">
         <v>33494</v>
       </c>
     </row>
-    <row r="61" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>25</v>
       </c>
@@ -2850,8 +2887,9 @@
       <c r="AD61" s="18"/>
       <c r="AF61" s="18"/>
       <c r="AG61" s="18"/>
-    </row>
-    <row r="62" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH61" s="27"/>
+    </row>
+    <row r="62" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>26</v>
       </c>
@@ -2875,8 +2913,9 @@
       <c r="AD62" s="18"/>
       <c r="AF62" s="18"/>
       <c r="AG62" s="18"/>
-    </row>
-    <row r="63" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH62" s="27"/>
+    </row>
+    <row r="63" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>27</v>
       </c>
@@ -2900,8 +2939,9 @@
       <c r="AD63" s="18"/>
       <c r="AF63" s="18"/>
       <c r="AG63" s="18"/>
-    </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AH63" s="27"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -3021,9 +3061,12 @@
     <hyperlink ref="AG49" r:id="rId88" display="https://inf-ege.sdamgia.ru/problem?id=40736" xr:uid="{0DFC92A6-372B-4F1C-BC3D-B141D75034B9}"/>
     <hyperlink ref="AG52" r:id="rId89" display="https://inf-ege.sdamgia.ru/problem?id=40737" xr:uid="{0DEE22FA-B5B1-4464-9E75-8EE30ACF4CC2}"/>
     <hyperlink ref="AH60" r:id="rId90" display="https://inf-ege.sdamgia.ru/problem?id=33494" xr:uid="{AA6E2A8D-6B03-4576-A849-36F02364D92E}"/>
+    <hyperlink ref="AI59" r:id="rId91" display="https://inf-ege.sdamgia.ru/problem?id=47020" xr:uid="{C5F0EDEE-4D6F-4BE0-96A0-A7BD1541FEF1}"/>
+    <hyperlink ref="AI56" r:id="rId92" display="https://inf-ege.sdamgia.ru/problem?id=45257" xr:uid="{016B32A8-02A4-45EC-B01E-ADEFBD37E4C8}"/>
+    <hyperlink ref="AI58" r:id="rId93" display="https://inf-ege.sdamgia.ru/problem?id=35912" xr:uid="{CFD776C7-3758-4A32-8786-7915D04668A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78E65E-DC0E-496E-98E6-499ABED475DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CC2885-340F-4366-94E2-5EB66D3EDBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -598,7 +598,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,10 +904,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:FZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AI58" sqref="AI58"/>
+      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,72 +943,72 @@
     <col min="32" max="32" width="6" style="22" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="3"/>
+    <col min="35" max="36" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="40">
         <v>44791</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40">
         <v>44796</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40">
         <v>44798</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="40">
+      <c r="N1" s="39">
         <v>44819</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40">
         <v>44825</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42">
         <v>44826</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40">
         <v>44832</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40">
         <v>44833</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="43">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42">
         <v>44838</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="43">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42">
         <v>44840</v>
       </c>
-      <c r="AB1" s="41"/>
+      <c r="AB1" s="40"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="40">
+      <c r="AE1" s="39">
         <v>44854</v>
       </c>
-      <c r="AF1" s="41"/>
+      <c r="AF1" s="40"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
@@ -1019,8 +1018,9 @@
       <c r="AI1" s="39">
         <v>44868</v>
       </c>
-    </row>
-    <row r="2" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="40"/>
+    </row>
+    <row r="2" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="AG2" s="18"/>
       <c r="AH2" s="27"/>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1059,7 +1059,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1075,7 +1075,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="AG5" s="18"/>
       <c r="AH5" s="27"/>
     </row>
-    <row r="6" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="AG6" s="18"/>
       <c r="AH6" s="27"/>
     </row>
-    <row r="7" spans="2:35" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="AG7" s="18"/>
       <c r="AH7" s="27"/>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1182,7 +1182,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1210,7 +1210,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="AG10" s="18"/>
       <c r="AH10" s="27"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1252,14 +1252,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="27"/>
     </row>
-    <row r="14" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1331,12 +1331,12 @@
       <c r="AG14" s="18"/>
       <c r="AH14" s="27"/>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="36"/>
       <c r="AG35" s="36"/>
-      <c r="AH35" s="44"/>
+      <c r="AH35" s="43"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
@@ -1957,7 +1957,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="36"/>
       <c r="AG36" s="36"/>
-      <c r="AH36" s="44"/>
+      <c r="AH36" s="43"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
@@ -2132,7 +2132,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="36"/>
       <c r="AG37" s="36"/>
-      <c r="AH37" s="44"/>
+      <c r="AH37" s="43"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
@@ -2304,7 +2304,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
-      <c r="AH38" s="44"/>
+      <c r="AH38" s="43"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
@@ -2668,7 +2668,7 @@
       <c r="AG48" s="18"/>
       <c r="AH48" s="27"/>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>44</v>
       </c>
@@ -2682,14 +2682,14 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="22"/>
     </row>
-    <row r="51" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>21</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="AG51" s="18"/>
       <c r="AH51" s="27"/>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -2730,7 +2730,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -2738,7 +2738,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>22</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AG54" s="18"/>
       <c r="AH54" s="27"/>
     </row>
-    <row r="55" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>23</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="AG55" s="18"/>
       <c r="AH55" s="27"/>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>50</v>
@@ -2806,22 +2806,25 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AI58" s="2">
+      <c r="AI58" s="33">
         <v>35912</v>
       </c>
-    </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="2">
+        <v>47227</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
       <c r="C59" s="9" t="s">
         <v>53</v>
@@ -2830,7 +2833,7 @@
         <v>47020</v>
       </c>
     </row>
-    <row r="60" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>24</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>33494</v>
       </c>
     </row>
-    <row r="61" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>25</v>
       </c>
@@ -2889,7 +2892,7 @@
       <c r="AG61" s="18"/>
       <c r="AH61" s="27"/>
     </row>
-    <row r="62" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>26</v>
       </c>
@@ -2915,7 +2918,7 @@
       <c r="AG62" s="18"/>
       <c r="AH62" s="27"/>
     </row>
-    <row r="63" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>27</v>
       </c>
@@ -2941,7 +2944,7 @@
       <c r="AG63" s="18"/>
       <c r="AH63" s="27"/>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2960,8 @@
       <c r="B68" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -3064,9 +3068,10 @@
     <hyperlink ref="AI59" r:id="rId91" display="https://inf-ege.sdamgia.ru/problem?id=47020" xr:uid="{C5F0EDEE-4D6F-4BE0-96A0-A7BD1541FEF1}"/>
     <hyperlink ref="AI56" r:id="rId92" display="https://inf-ege.sdamgia.ru/problem?id=45257" xr:uid="{016B32A8-02A4-45EC-B01E-ADEFBD37E4C8}"/>
     <hyperlink ref="AI58" r:id="rId93" display="https://inf-ege.sdamgia.ru/problem?id=35912" xr:uid="{CFD776C7-3758-4A32-8786-7915D04668A4}"/>
+    <hyperlink ref="AJ58" r:id="rId94" display="https://inf-ege.sdamgia.ru/problem?id=47227" xr:uid="{06936BDF-3323-45C4-ABD8-C7D09819823B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId94"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CC2885-340F-4366-94E2-5EB66D3EDBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31935771-BDA3-4B66-993C-2041BC5F06BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Анализ информационных моделей</t>
   </si>
@@ -208,13 +208,25 @@
   </si>
   <si>
     <t>Определение результатов работы простейших алгоритмов</t>
+  </si>
+  <si>
+    <t>Операции в разных СС с двумя переменными</t>
+  </si>
+  <si>
+    <t>Операции в разных СС с одной переменной</t>
+  </si>
+  <si>
+    <t>Операции в одной СС</t>
+  </si>
+  <si>
+    <t>Прямое сложение в СС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +297,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +340,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -537,16 +563,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -598,6 +640,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="6"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,11 +654,12 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -902,12 +947,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:FZ68"/>
+  <dimension ref="A1:FZ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="topRight" activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,83 +989,89 @@
     <col min="33" max="33" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="3"/>
+    <col min="37" max="37" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="42">
         <v>44791</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42">
         <v>44796</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42">
         <v>44798</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="39">
+      <c r="N1" s="41">
         <v>44819</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42">
         <v>44825</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44">
         <v>44826</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42">
         <v>44832</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42">
         <v>44833</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44">
         <v>44838</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="42">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44">
         <v>44840</v>
       </c>
-      <c r="AB1" s="40"/>
+      <c r="AB1" s="42"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="39">
+      <c r="AE1" s="41">
         <v>44854</v>
       </c>
-      <c r="AF1" s="40"/>
+      <c r="AF1" s="42"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
       <c r="AH1" s="26">
         <v>44861</v>
       </c>
-      <c r="AI1" s="39">
+      <c r="AI1" s="41">
         <v>44868</v>
       </c>
-      <c r="AJ1" s="40"/>
-    </row>
-    <row r="2" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="45">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1045,8 +1096,9 @@
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
       <c r="AH2" s="27"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AK2" s="18"/>
+    </row>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1059,7 +1111,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1075,7 +1127,7 @@
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1109,8 +1161,9 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="27"/>
-    </row>
-    <row r="6" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="18"/>
+    </row>
+    <row r="6" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1142,8 +1195,9 @@
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="27"/>
-    </row>
-    <row r="7" spans="2:36" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK6" s="18"/>
+    </row>
+    <row r="7" spans="2:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1168,8 +1222,9 @@
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
       <c r="AH7" s="27"/>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AK7" s="18"/>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1182,7 +1237,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1210,7 +1265,7 @@
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1236,8 +1291,9 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="27"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AK10" s="18"/>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1252,14 +1308,14 @@
         <v>29653</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1304,8 +1360,9 @@
       <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
       <c r="AH13" s="27"/>
-    </row>
-    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AK13" s="18"/>
+    </row>
+    <row r="14" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1330,13 +1387,14 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="18"/>
       <c r="AH14" s="27"/>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AK14" s="18"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1403,7 @@
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1421,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1389,8 +1447,9 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
       <c r="AH18" s="27"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AK18" s="18"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1458,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +1488,7 @@
         <v>47212</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1518,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1495,8 +1554,9 @@
       <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
       <c r="AH22" s="27"/>
-    </row>
-    <row r="23" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AK22" s="18"/>
+    </row>
+    <row r="23" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1525,8 +1585,9 @@
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
       <c r="AH23" s="27"/>
-    </row>
-    <row r="24" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AK23" s="18"/>
+    </row>
+    <row r="24" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1552,8 +1613,9 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="27"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AK24" s="18"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1569,7 +1631,7 @@
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1585,7 +1647,7 @@
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1619,8 +1681,9 @@
       <c r="AF27" s="18"/>
       <c r="AG27" s="18"/>
       <c r="AH27" s="27"/>
-    </row>
-    <row r="28" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AK27" s="18"/>
+    </row>
+    <row r="28" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1646,8 +1709,9 @@
       <c r="AF28" s="18"/>
       <c r="AG28" s="18"/>
       <c r="AH28" s="27"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AK28" s="18"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1657,7 +1721,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1670,7 +1734,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1683,7 +1747,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1763,7 @@
       <c r="X32" s="22"/>
       <c r="Z32" s="22"/>
     </row>
-    <row r="33" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>14</v>
       </c>
@@ -1731,13 +1795,13 @@
       <c r="AF33" s="18"/>
       <c r="AG33" s="18"/>
       <c r="AH33" s="27"/>
-    </row>
-    <row r="34" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
-        <v>15</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>32</v>
+      <c r="AK33" s="18"/>
+    </row>
+    <row r="34" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D34" s="18"/>
       <c r="F34" s="18"/>
@@ -1746,785 +1810,946 @@
       <c r="L34" s="18"/>
       <c r="M34" s="27"/>
       <c r="O34" s="18"/>
-      <c r="R34" s="34"/>
-      <c r="T34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="X34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="27"/>
-    </row>
-    <row r="35" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="1">
+        <v>48384</v>
+      </c>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+    </row>
+    <row r="35" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="27"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="33">
+        <v>48394</v>
+      </c>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+    </row>
+    <row r="36" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="27"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+    </row>
+    <row r="37" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="27"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+    </row>
+    <row r="38" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>15</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="27"/>
+      <c r="O38" s="18"/>
+      <c r="R38" s="34"/>
+      <c r="T38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="X38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="27"/>
+      <c r="AK38" s="18"/>
+    </row>
+    <row r="39" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="33">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="33">
         <v>9804</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T39" s="19">
         <v>34522</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="2"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35" s="2"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
-      <c r="BW35" s="2"/>
-      <c r="BX35" s="2"/>
-      <c r="BY35" s="2"/>
-      <c r="BZ35" s="2"/>
-      <c r="CA35" s="2"/>
-      <c r="CB35" s="2"/>
-      <c r="CC35" s="2"/>
-      <c r="CD35" s="2"/>
-      <c r="CE35" s="2"/>
-      <c r="CF35" s="2"/>
-      <c r="CG35" s="2"/>
-      <c r="CH35" s="2"/>
-      <c r="CI35" s="2"/>
-      <c r="CJ35" s="2"/>
-      <c r="CK35" s="2"/>
-      <c r="CL35" s="2"/>
-      <c r="CM35" s="2"/>
-      <c r="CN35" s="2"/>
-      <c r="CO35" s="2"/>
-      <c r="CP35" s="2"/>
-      <c r="CQ35" s="2"/>
-      <c r="CR35" s="2"/>
-      <c r="CS35" s="2"/>
-      <c r="CT35" s="2"/>
-      <c r="CU35" s="2"/>
-      <c r="CV35" s="2"/>
-      <c r="CW35" s="2"/>
-      <c r="CX35" s="2"/>
-      <c r="CY35" s="2"/>
-      <c r="CZ35" s="2"/>
-      <c r="DA35" s="2"/>
-      <c r="DB35" s="2"/>
-      <c r="DC35" s="2"/>
-      <c r="DD35" s="2"/>
-      <c r="DE35" s="2"/>
-      <c r="DF35" s="2"/>
-      <c r="DG35" s="2"/>
-      <c r="DH35" s="2"/>
-      <c r="DI35" s="2"/>
-      <c r="DJ35" s="2"/>
-      <c r="DK35" s="2"/>
-      <c r="DL35" s="2"/>
-      <c r="DM35" s="2"/>
-      <c r="DN35" s="2"/>
-      <c r="DO35" s="2"/>
-      <c r="DP35" s="2"/>
-      <c r="DQ35" s="2"/>
-      <c r="DR35" s="2"/>
-      <c r="DS35" s="2"/>
-      <c r="DT35" s="2"/>
-      <c r="DU35" s="2"/>
-      <c r="DV35" s="2"/>
-      <c r="DW35" s="2"/>
-      <c r="DX35" s="2"/>
-      <c r="DY35" s="2"/>
-      <c r="DZ35" s="2"/>
-      <c r="EA35" s="2"/>
-      <c r="EB35" s="2"/>
-      <c r="EC35" s="2"/>
-      <c r="ED35" s="2"/>
-      <c r="EE35" s="2"/>
-      <c r="EF35" s="2"/>
-      <c r="EG35" s="2"/>
-      <c r="EH35" s="2"/>
-      <c r="EI35" s="2"/>
-      <c r="EJ35" s="2"/>
-      <c r="EK35" s="2"/>
-      <c r="EL35" s="2"/>
-      <c r="EM35" s="2"/>
-      <c r="EN35" s="2"/>
-      <c r="EO35" s="2"/>
-      <c r="EP35" s="2"/>
-      <c r="EQ35" s="2"/>
-      <c r="ER35" s="2"/>
-      <c r="ES35" s="2"/>
-      <c r="ET35" s="2"/>
-      <c r="EU35" s="2"/>
-      <c r="EV35" s="2"/>
-      <c r="EW35" s="2"/>
-      <c r="EX35" s="2"/>
-      <c r="EY35" s="2"/>
-      <c r="EZ35" s="2"/>
-      <c r="FA35" s="2"/>
-      <c r="FB35" s="2"/>
-      <c r="FC35" s="2"/>
-      <c r="FD35" s="2"/>
-      <c r="FE35" s="2"/>
-      <c r="FF35" s="2"/>
-      <c r="FG35" s="2"/>
-      <c r="FH35" s="2"/>
-      <c r="FI35" s="2"/>
-      <c r="FJ35" s="2"/>
-      <c r="FK35" s="2"/>
-      <c r="FL35" s="2"/>
-      <c r="FM35" s="2"/>
-      <c r="FN35" s="2"/>
-      <c r="FO35" s="2"/>
-      <c r="FP35" s="2"/>
-      <c r="FQ35" s="2"/>
-      <c r="FR35" s="2"/>
-      <c r="FS35" s="2"/>
-      <c r="FT35" s="2"/>
-      <c r="FU35" s="2"/>
-      <c r="FV35" s="2"/>
-      <c r="FW35" s="2"/>
-      <c r="FX35" s="2"/>
-      <c r="FY35" s="2"/>
-      <c r="FZ35" s="2"/>
-    </row>
-    <row r="36" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7" t="s">
+      <c r="U39" s="2"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="2"/>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="2"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="2"/>
+      <c r="CY39" s="2"/>
+      <c r="CZ39" s="2"/>
+      <c r="DA39" s="2"/>
+      <c r="DB39" s="2"/>
+      <c r="DC39" s="2"/>
+      <c r="DD39" s="2"/>
+      <c r="DE39" s="2"/>
+      <c r="DF39" s="2"/>
+      <c r="DG39" s="2"/>
+      <c r="DH39" s="2"/>
+      <c r="DI39" s="2"/>
+      <c r="DJ39" s="2"/>
+      <c r="DK39" s="2"/>
+      <c r="DL39" s="2"/>
+      <c r="DM39" s="2"/>
+      <c r="DN39" s="2"/>
+      <c r="DO39" s="2"/>
+      <c r="DP39" s="2"/>
+      <c r="DQ39" s="2"/>
+      <c r="DR39" s="2"/>
+      <c r="DS39" s="2"/>
+      <c r="DT39" s="2"/>
+      <c r="DU39" s="2"/>
+      <c r="DV39" s="2"/>
+      <c r="DW39" s="2"/>
+      <c r="DX39" s="2"/>
+      <c r="DY39" s="2"/>
+      <c r="DZ39" s="2"/>
+      <c r="EA39" s="2"/>
+      <c r="EB39" s="2"/>
+      <c r="EC39" s="2"/>
+      <c r="ED39" s="2"/>
+      <c r="EE39" s="2"/>
+      <c r="EF39" s="2"/>
+      <c r="EG39" s="2"/>
+      <c r="EH39" s="2"/>
+      <c r="EI39" s="2"/>
+      <c r="EJ39" s="2"/>
+      <c r="EK39" s="2"/>
+      <c r="EL39" s="2"/>
+      <c r="EM39" s="2"/>
+      <c r="EN39" s="2"/>
+      <c r="EO39" s="2"/>
+      <c r="EP39" s="2"/>
+      <c r="EQ39" s="2"/>
+      <c r="ER39" s="2"/>
+      <c r="ES39" s="2"/>
+      <c r="ET39" s="2"/>
+      <c r="EU39" s="2"/>
+      <c r="EV39" s="2"/>
+      <c r="EW39" s="2"/>
+      <c r="EX39" s="2"/>
+      <c r="EY39" s="2"/>
+      <c r="EZ39" s="2"/>
+      <c r="FA39" s="2"/>
+      <c r="FB39" s="2"/>
+      <c r="FC39" s="2"/>
+      <c r="FD39" s="2"/>
+      <c r="FE39" s="2"/>
+      <c r="FF39" s="2"/>
+      <c r="FG39" s="2"/>
+      <c r="FH39" s="2"/>
+      <c r="FI39" s="2"/>
+      <c r="FJ39" s="2"/>
+      <c r="FK39" s="2"/>
+      <c r="FL39" s="2"/>
+      <c r="FM39" s="2"/>
+      <c r="FN39" s="2"/>
+      <c r="FO39" s="2"/>
+      <c r="FP39" s="2"/>
+      <c r="FQ39" s="2"/>
+      <c r="FR39" s="2"/>
+      <c r="FS39" s="2"/>
+      <c r="FT39" s="2"/>
+      <c r="FU39" s="2"/>
+      <c r="FV39" s="2"/>
+      <c r="FW39" s="2"/>
+      <c r="FX39" s="2"/>
+      <c r="FY39" s="2"/>
+      <c r="FZ39" s="2"/>
+    </row>
+    <row r="40" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="2"/>
-      <c r="BK36" s="2"/>
-      <c r="BL36" s="2"/>
-      <c r="BM36" s="2"/>
-      <c r="BN36" s="2"/>
-      <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
-      <c r="BQ36" s="2"/>
-      <c r="BR36" s="2"/>
-      <c r="BS36" s="2"/>
-      <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
-      <c r="BV36" s="2"/>
-      <c r="BW36" s="2"/>
-      <c r="BX36" s="2"/>
-      <c r="BY36" s="2"/>
-      <c r="BZ36" s="2"/>
-      <c r="CA36" s="2"/>
-      <c r="CB36" s="2"/>
-      <c r="CC36" s="2"/>
-      <c r="CD36" s="2"/>
-      <c r="CE36" s="2"/>
-      <c r="CF36" s="2"/>
-      <c r="CG36" s="2"/>
-      <c r="CH36" s="2"/>
-      <c r="CI36" s="2"/>
-      <c r="CJ36" s="2"/>
-      <c r="CK36" s="2"/>
-      <c r="CL36" s="2"/>
-      <c r="CM36" s="2"/>
-      <c r="CN36" s="2"/>
-      <c r="CO36" s="2"/>
-      <c r="CP36" s="2"/>
-      <c r="CQ36" s="2"/>
-      <c r="CR36" s="2"/>
-      <c r="CS36" s="2"/>
-      <c r="CT36" s="2"/>
-      <c r="CU36" s="2"/>
-      <c r="CV36" s="2"/>
-      <c r="CW36" s="2"/>
-      <c r="CX36" s="2"/>
-      <c r="CY36" s="2"/>
-      <c r="CZ36" s="2"/>
-      <c r="DA36" s="2"/>
-      <c r="DB36" s="2"/>
-      <c r="DC36" s="2"/>
-      <c r="DD36" s="2"/>
-      <c r="DE36" s="2"/>
-      <c r="DF36" s="2"/>
-      <c r="DG36" s="2"/>
-      <c r="DH36" s="2"/>
-      <c r="DI36" s="2"/>
-      <c r="DJ36" s="2"/>
-      <c r="DK36" s="2"/>
-      <c r="DL36" s="2"/>
-      <c r="DM36" s="2"/>
-      <c r="DN36" s="2"/>
-      <c r="DO36" s="2"/>
-      <c r="DP36" s="2"/>
-      <c r="DQ36" s="2"/>
-      <c r="DR36" s="2"/>
-      <c r="DS36" s="2"/>
-      <c r="DT36" s="2"/>
-      <c r="DU36" s="2"/>
-      <c r="DV36" s="2"/>
-      <c r="DW36" s="2"/>
-      <c r="DX36" s="2"/>
-      <c r="DY36" s="2"/>
-      <c r="DZ36" s="2"/>
-      <c r="EA36" s="2"/>
-      <c r="EB36" s="2"/>
-      <c r="EC36" s="2"/>
-      <c r="ED36" s="2"/>
-      <c r="EE36" s="2"/>
-      <c r="EF36" s="2"/>
-      <c r="EG36" s="2"/>
-      <c r="EH36" s="2"/>
-      <c r="EI36" s="2"/>
-      <c r="EJ36" s="2"/>
-      <c r="EK36" s="2"/>
-      <c r="EL36" s="2"/>
-      <c r="EM36" s="2"/>
-      <c r="EN36" s="2"/>
-      <c r="EO36" s="2"/>
-      <c r="EP36" s="2"/>
-      <c r="EQ36" s="2"/>
-      <c r="ER36" s="2"/>
-      <c r="ES36" s="2"/>
-      <c r="ET36" s="2"/>
-      <c r="EU36" s="2"/>
-      <c r="EV36" s="2"/>
-      <c r="EW36" s="2"/>
-      <c r="EX36" s="2"/>
-      <c r="EY36" s="2"/>
-      <c r="EZ36" s="2"/>
-      <c r="FA36" s="2"/>
-      <c r="FB36" s="2"/>
-      <c r="FC36" s="2"/>
-      <c r="FD36" s="2"/>
-      <c r="FE36" s="2"/>
-      <c r="FF36" s="2"/>
-      <c r="FG36" s="2"/>
-      <c r="FH36" s="2"/>
-      <c r="FI36" s="2"/>
-      <c r="FJ36" s="2"/>
-      <c r="FK36" s="2"/>
-      <c r="FL36" s="2"/>
-      <c r="FM36" s="2"/>
-      <c r="FN36" s="2"/>
-      <c r="FO36" s="2"/>
-      <c r="FP36" s="2"/>
-      <c r="FQ36" s="2"/>
-      <c r="FR36" s="2"/>
-      <c r="FS36" s="2"/>
-      <c r="FT36" s="2"/>
-      <c r="FU36" s="2"/>
-      <c r="FV36" s="2"/>
-      <c r="FW36" s="2"/>
-      <c r="FX36" s="2"/>
-      <c r="FY36" s="2"/>
-      <c r="FZ36" s="2"/>
-    </row>
-    <row r="37" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="14">
-        <v>14704</v>
-      </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="14">
-        <v>37150</v>
-      </c>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
-      <c r="BE37" s="2"/>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37" s="2"/>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="2"/>
-      <c r="BR37" s="2"/>
-      <c r="BS37" s="2"/>
-      <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
-      <c r="BW37" s="2"/>
-      <c r="BX37" s="2"/>
-      <c r="BY37" s="2"/>
-      <c r="BZ37" s="2"/>
-      <c r="CA37" s="2"/>
-      <c r="CB37" s="2"/>
-      <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
-      <c r="CE37" s="2"/>
-      <c r="CF37" s="2"/>
-      <c r="CG37" s="2"/>
-      <c r="CH37" s="2"/>
-      <c r="CI37" s="2"/>
-      <c r="CJ37" s="2"/>
-      <c r="CK37" s="2"/>
-      <c r="CL37" s="2"/>
-      <c r="CM37" s="2"/>
-      <c r="CN37" s="2"/>
-      <c r="CO37" s="2"/>
-      <c r="CP37" s="2"/>
-      <c r="CQ37" s="2"/>
-      <c r="CR37" s="2"/>
-      <c r="CS37" s="2"/>
-      <c r="CT37" s="2"/>
-      <c r="CU37" s="2"/>
-      <c r="CV37" s="2"/>
-      <c r="CW37" s="2"/>
-      <c r="CX37" s="2"/>
-      <c r="CY37" s="2"/>
-      <c r="CZ37" s="2"/>
-      <c r="DA37" s="2"/>
-      <c r="DB37" s="2"/>
-      <c r="DC37" s="2"/>
-      <c r="DD37" s="2"/>
-      <c r="DE37" s="2"/>
-      <c r="DF37" s="2"/>
-      <c r="DG37" s="2"/>
-      <c r="DH37" s="2"/>
-      <c r="DI37" s="2"/>
-      <c r="DJ37" s="2"/>
-      <c r="DK37" s="2"/>
-      <c r="DL37" s="2"/>
-      <c r="DM37" s="2"/>
-      <c r="DN37" s="2"/>
-      <c r="DO37" s="2"/>
-      <c r="DP37" s="2"/>
-      <c r="DQ37" s="2"/>
-      <c r="DR37" s="2"/>
-      <c r="DS37" s="2"/>
-      <c r="DT37" s="2"/>
-      <c r="DU37" s="2"/>
-      <c r="DV37" s="2"/>
-      <c r="DW37" s="2"/>
-      <c r="DX37" s="2"/>
-      <c r="DY37" s="2"/>
-      <c r="DZ37" s="2"/>
-      <c r="EA37" s="2"/>
-      <c r="EB37" s="2"/>
-      <c r="EC37" s="2"/>
-      <c r="ED37" s="2"/>
-      <c r="EE37" s="2"/>
-      <c r="EF37" s="2"/>
-      <c r="EG37" s="2"/>
-      <c r="EH37" s="2"/>
-      <c r="EI37" s="2"/>
-      <c r="EJ37" s="2"/>
-      <c r="EK37" s="2"/>
-      <c r="EL37" s="2"/>
-      <c r="EM37" s="2"/>
-      <c r="EN37" s="2"/>
-      <c r="EO37" s="2"/>
-      <c r="EP37" s="2"/>
-      <c r="EQ37" s="2"/>
-      <c r="ER37" s="2"/>
-      <c r="ES37" s="2"/>
-      <c r="ET37" s="2"/>
-      <c r="EU37" s="2"/>
-      <c r="EV37" s="2"/>
-      <c r="EW37" s="2"/>
-      <c r="EX37" s="2"/>
-      <c r="EY37" s="2"/>
-      <c r="EZ37" s="2"/>
-      <c r="FA37" s="2"/>
-      <c r="FB37" s="2"/>
-      <c r="FC37" s="2"/>
-      <c r="FD37" s="2"/>
-      <c r="FE37" s="2"/>
-      <c r="FF37" s="2"/>
-      <c r="FG37" s="2"/>
-      <c r="FH37" s="2"/>
-      <c r="FI37" s="2"/>
-      <c r="FJ37" s="2"/>
-      <c r="FK37" s="2"/>
-      <c r="FL37" s="2"/>
-      <c r="FM37" s="2"/>
-      <c r="FN37" s="2"/>
-      <c r="FO37" s="2"/>
-      <c r="FP37" s="2"/>
-      <c r="FQ37" s="2"/>
-      <c r="FR37" s="2"/>
-      <c r="FS37" s="2"/>
-      <c r="FT37" s="2"/>
-      <c r="FU37" s="2"/>
-      <c r="FV37" s="2"/>
-      <c r="FW37" s="2"/>
-      <c r="FX37" s="2"/>
-      <c r="FY37" s="2"/>
-      <c r="FZ37" s="2"/>
-    </row>
-    <row r="38" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
-      <c r="BM38" s="2"/>
-      <c r="BN38" s="2"/>
-      <c r="BO38" s="2"/>
-      <c r="BP38" s="2"/>
-      <c r="BQ38" s="2"/>
-      <c r="BR38" s="2"/>
-      <c r="BS38" s="2"/>
-      <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
-      <c r="BV38" s="2"/>
-      <c r="BW38" s="2"/>
-      <c r="BX38" s="2"/>
-      <c r="BY38" s="2"/>
-      <c r="BZ38" s="2"/>
-      <c r="CA38" s="2"/>
-      <c r="CB38" s="2"/>
-      <c r="CC38" s="2"/>
-      <c r="CD38" s="2"/>
-      <c r="CE38" s="2"/>
-      <c r="CF38" s="2"/>
-      <c r="CG38" s="2"/>
-      <c r="CH38" s="2"/>
-      <c r="CI38" s="2"/>
-      <c r="CJ38" s="2"/>
-      <c r="CK38" s="2"/>
-      <c r="CL38" s="2"/>
-      <c r="CM38" s="2"/>
-      <c r="CN38" s="2"/>
-      <c r="CO38" s="2"/>
-      <c r="CP38" s="2"/>
-      <c r="CQ38" s="2"/>
-      <c r="CR38" s="2"/>
-      <c r="CS38" s="2"/>
-      <c r="CT38" s="2"/>
-      <c r="CU38" s="2"/>
-      <c r="CV38" s="2"/>
-      <c r="CW38" s="2"/>
-      <c r="CX38" s="2"/>
-      <c r="CY38" s="2"/>
-      <c r="CZ38" s="2"/>
-      <c r="DA38" s="2"/>
-      <c r="DB38" s="2"/>
-      <c r="DC38" s="2"/>
-      <c r="DD38" s="2"/>
-      <c r="DE38" s="2"/>
-      <c r="DF38" s="2"/>
-      <c r="DG38" s="2"/>
-      <c r="DH38" s="2"/>
-      <c r="DI38" s="2"/>
-      <c r="DJ38" s="2"/>
-      <c r="DK38" s="2"/>
-      <c r="DL38" s="2"/>
-      <c r="DM38" s="2"/>
-      <c r="DN38" s="2"/>
-      <c r="DO38" s="2"/>
-      <c r="DP38" s="2"/>
-      <c r="DQ38" s="2"/>
-      <c r="DR38" s="2"/>
-      <c r="DS38" s="2"/>
-      <c r="DT38" s="2"/>
-      <c r="DU38" s="2"/>
-      <c r="DV38" s="2"/>
-      <c r="DW38" s="2"/>
-      <c r="DX38" s="2"/>
-      <c r="DY38" s="2"/>
-      <c r="DZ38" s="2"/>
-      <c r="EA38" s="2"/>
-      <c r="EB38" s="2"/>
-      <c r="EC38" s="2"/>
-      <c r="ED38" s="2"/>
-      <c r="EE38" s="2"/>
-      <c r="EF38" s="2"/>
-      <c r="EG38" s="2"/>
-      <c r="EH38" s="2"/>
-      <c r="EI38" s="2"/>
-      <c r="EJ38" s="2"/>
-      <c r="EK38" s="2"/>
-      <c r="EL38" s="2"/>
-      <c r="EM38" s="2"/>
-      <c r="EN38" s="2"/>
-      <c r="EO38" s="2"/>
-      <c r="EP38" s="2"/>
-      <c r="EQ38" s="2"/>
-      <c r="ER38" s="2"/>
-      <c r="ES38" s="2"/>
-      <c r="ET38" s="2"/>
-      <c r="EU38" s="2"/>
-      <c r="EV38" s="2"/>
-      <c r="EW38" s="2"/>
-      <c r="EX38" s="2"/>
-      <c r="EY38" s="2"/>
-      <c r="EZ38" s="2"/>
-      <c r="FA38" s="2"/>
-      <c r="FB38" s="2"/>
-      <c r="FC38" s="2"/>
-      <c r="FD38" s="2"/>
-      <c r="FE38" s="2"/>
-      <c r="FF38" s="2"/>
-      <c r="FG38" s="2"/>
-      <c r="FH38" s="2"/>
-      <c r="FI38" s="2"/>
-      <c r="FJ38" s="2"/>
-      <c r="FK38" s="2"/>
-      <c r="FL38" s="2"/>
-      <c r="FM38" s="2"/>
-      <c r="FN38" s="2"/>
-      <c r="FO38" s="2"/>
-      <c r="FP38" s="2"/>
-      <c r="FQ38" s="2"/>
-      <c r="FR38" s="2"/>
-      <c r="FS38" s="2"/>
-      <c r="FT38" s="2"/>
-      <c r="FU38" s="2"/>
-      <c r="FV38" s="2"/>
-      <c r="FW38" s="2"/>
-      <c r="FX38" s="2"/>
-      <c r="FY38" s="2"/>
-      <c r="FZ38" s="2"/>
-    </row>
-    <row r="39" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
-        <v>16</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="27"/>
-      <c r="O39" s="18"/>
-      <c r="R39" s="34"/>
-      <c r="T39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="X39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="27"/>
-    </row>
-    <row r="40" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Z40" s="22"/>
-    </row>
-    <row r="41" spans="2:182" x14ac:dyDescent="0.3">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
+      <c r="BW40" s="2"/>
+      <c r="BX40" s="2"/>
+      <c r="BY40" s="2"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="2"/>
+      <c r="CG40" s="2"/>
+      <c r="CH40" s="2"/>
+      <c r="CI40" s="2"/>
+      <c r="CJ40" s="2"/>
+      <c r="CK40" s="2"/>
+      <c r="CL40" s="2"/>
+      <c r="CM40" s="2"/>
+      <c r="CN40" s="2"/>
+      <c r="CO40" s="2"/>
+      <c r="CP40" s="2"/>
+      <c r="CQ40" s="2"/>
+      <c r="CR40" s="2"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CX40" s="2"/>
+      <c r="CY40" s="2"/>
+      <c r="CZ40" s="2"/>
+      <c r="DA40" s="2"/>
+      <c r="DB40" s="2"/>
+      <c r="DC40" s="2"/>
+      <c r="DD40" s="2"/>
+      <c r="DE40" s="2"/>
+      <c r="DF40" s="2"/>
+      <c r="DG40" s="2"/>
+      <c r="DH40" s="2"/>
+      <c r="DI40" s="2"/>
+      <c r="DJ40" s="2"/>
+      <c r="DK40" s="2"/>
+      <c r="DL40" s="2"/>
+      <c r="DM40" s="2"/>
+      <c r="DN40" s="2"/>
+      <c r="DO40" s="2"/>
+      <c r="DP40" s="2"/>
+      <c r="DQ40" s="2"/>
+      <c r="DR40" s="2"/>
+      <c r="DS40" s="2"/>
+      <c r="DT40" s="2"/>
+      <c r="DU40" s="2"/>
+      <c r="DV40" s="2"/>
+      <c r="DW40" s="2"/>
+      <c r="DX40" s="2"/>
+      <c r="DY40" s="2"/>
+      <c r="DZ40" s="2"/>
+      <c r="EA40" s="2"/>
+      <c r="EB40" s="2"/>
+      <c r="EC40" s="2"/>
+      <c r="ED40" s="2"/>
+      <c r="EE40" s="2"/>
+      <c r="EF40" s="2"/>
+      <c r="EG40" s="2"/>
+      <c r="EH40" s="2"/>
+      <c r="EI40" s="2"/>
+      <c r="EJ40" s="2"/>
+      <c r="EK40" s="2"/>
+      <c r="EL40" s="2"/>
+      <c r="EM40" s="2"/>
+      <c r="EN40" s="2"/>
+      <c r="EO40" s="2"/>
+      <c r="EP40" s="2"/>
+      <c r="EQ40" s="2"/>
+      <c r="ER40" s="2"/>
+      <c r="ES40" s="2"/>
+      <c r="ET40" s="2"/>
+      <c r="EU40" s="2"/>
+      <c r="EV40" s="2"/>
+      <c r="EW40" s="2"/>
+      <c r="EX40" s="2"/>
+      <c r="EY40" s="2"/>
+      <c r="EZ40" s="2"/>
+      <c r="FA40" s="2"/>
+      <c r="FB40" s="2"/>
+      <c r="FC40" s="2"/>
+      <c r="FD40" s="2"/>
+      <c r="FE40" s="2"/>
+      <c r="FF40" s="2"/>
+      <c r="FG40" s="2"/>
+      <c r="FH40" s="2"/>
+      <c r="FI40" s="2"/>
+      <c r="FJ40" s="2"/>
+      <c r="FK40" s="2"/>
+      <c r="FL40" s="2"/>
+      <c r="FM40" s="2"/>
+      <c r="FN40" s="2"/>
+      <c r="FO40" s="2"/>
+      <c r="FP40" s="2"/>
+      <c r="FQ40" s="2"/>
+      <c r="FR40" s="2"/>
+      <c r="FS40" s="2"/>
+      <c r="FT40" s="2"/>
+      <c r="FU40" s="2"/>
+      <c r="FV40" s="2"/>
+      <c r="FW40" s="2"/>
+      <c r="FX40" s="2"/>
+      <c r="FY40" s="2"/>
+      <c r="FZ40" s="2"/>
+    </row>
+    <row r="41" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="22"/>
-      <c r="U41" s="33">
-        <v>33095</v>
-      </c>
-      <c r="V41" s="21">
-        <v>35905</v>
-      </c>
-      <c r="W41" s="1">
-        <v>39245</v>
-      </c>
-      <c r="X41" s="22"/>
-      <c r="Z41" s="22"/>
-    </row>
-    <row r="42" spans="2:182" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="14">
+        <v>14704</v>
+      </c>
+      <c r="T41" s="36"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="14">
+        <v>37150</v>
+      </c>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
+      <c r="BW41" s="2"/>
+      <c r="BX41" s="2"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="2"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="2"/>
+      <c r="CK41" s="2"/>
+      <c r="CL41" s="2"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="2"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="2"/>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="2"/>
+      <c r="CY41" s="2"/>
+      <c r="CZ41" s="2"/>
+      <c r="DA41" s="2"/>
+      <c r="DB41" s="2"/>
+      <c r="DC41" s="2"/>
+      <c r="DD41" s="2"/>
+      <c r="DE41" s="2"/>
+      <c r="DF41" s="2"/>
+      <c r="DG41" s="2"/>
+      <c r="DH41" s="2"/>
+      <c r="DI41" s="2"/>
+      <c r="DJ41" s="2"/>
+      <c r="DK41" s="2"/>
+      <c r="DL41" s="2"/>
+      <c r="DM41" s="2"/>
+      <c r="DN41" s="2"/>
+      <c r="DO41" s="2"/>
+      <c r="DP41" s="2"/>
+      <c r="DQ41" s="2"/>
+      <c r="DR41" s="2"/>
+      <c r="DS41" s="2"/>
+      <c r="DT41" s="2"/>
+      <c r="DU41" s="2"/>
+      <c r="DV41" s="2"/>
+      <c r="DW41" s="2"/>
+      <c r="DX41" s="2"/>
+      <c r="DY41" s="2"/>
+      <c r="DZ41" s="2"/>
+      <c r="EA41" s="2"/>
+      <c r="EB41" s="2"/>
+      <c r="EC41" s="2"/>
+      <c r="ED41" s="2"/>
+      <c r="EE41" s="2"/>
+      <c r="EF41" s="2"/>
+      <c r="EG41" s="2"/>
+      <c r="EH41" s="2"/>
+      <c r="EI41" s="2"/>
+      <c r="EJ41" s="2"/>
+      <c r="EK41" s="2"/>
+      <c r="EL41" s="2"/>
+      <c r="EM41" s="2"/>
+      <c r="EN41" s="2"/>
+      <c r="EO41" s="2"/>
+      <c r="EP41" s="2"/>
+      <c r="EQ41" s="2"/>
+      <c r="ER41" s="2"/>
+      <c r="ES41" s="2"/>
+      <c r="ET41" s="2"/>
+      <c r="EU41" s="2"/>
+      <c r="EV41" s="2"/>
+      <c r="EW41" s="2"/>
+      <c r="EX41" s="2"/>
+      <c r="EY41" s="2"/>
+      <c r="EZ41" s="2"/>
+      <c r="FA41" s="2"/>
+      <c r="FB41" s="2"/>
+      <c r="FC41" s="2"/>
+      <c r="FD41" s="2"/>
+      <c r="FE41" s="2"/>
+      <c r="FF41" s="2"/>
+      <c r="FG41" s="2"/>
+      <c r="FH41" s="2"/>
+      <c r="FI41" s="2"/>
+      <c r="FJ41" s="2"/>
+      <c r="FK41" s="2"/>
+      <c r="FL41" s="2"/>
+      <c r="FM41" s="2"/>
+      <c r="FN41" s="2"/>
+      <c r="FO41" s="2"/>
+      <c r="FP41" s="2"/>
+      <c r="FQ41" s="2"/>
+      <c r="FR41" s="2"/>
+      <c r="FS41" s="2"/>
+      <c r="FT41" s="2"/>
+      <c r="FU41" s="2"/>
+      <c r="FV41" s="2"/>
+      <c r="FW41" s="2"/>
+      <c r="FX41" s="2"/>
+      <c r="FY41" s="2"/>
+      <c r="FZ41" s="2"/>
+    </row>
+    <row r="42" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
-      <c r="C42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Z42" s="22"/>
-    </row>
-    <row r="43" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
+      <c r="CG42" s="2"/>
+      <c r="CH42" s="2"/>
+      <c r="CI42" s="2"/>
+      <c r="CJ42" s="2"/>
+      <c r="CK42" s="2"/>
+      <c r="CL42" s="2"/>
+      <c r="CM42" s="2"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="2"/>
+      <c r="CY42" s="2"/>
+      <c r="CZ42" s="2"/>
+      <c r="DA42" s="2"/>
+      <c r="DB42" s="2"/>
+      <c r="DC42" s="2"/>
+      <c r="DD42" s="2"/>
+      <c r="DE42" s="2"/>
+      <c r="DF42" s="2"/>
+      <c r="DG42" s="2"/>
+      <c r="DH42" s="2"/>
+      <c r="DI42" s="2"/>
+      <c r="DJ42" s="2"/>
+      <c r="DK42" s="2"/>
+      <c r="DL42" s="2"/>
+      <c r="DM42" s="2"/>
+      <c r="DN42" s="2"/>
+      <c r="DO42" s="2"/>
+      <c r="DP42" s="2"/>
+      <c r="DQ42" s="2"/>
+      <c r="DR42" s="2"/>
+      <c r="DS42" s="2"/>
+      <c r="DT42" s="2"/>
+      <c r="DU42" s="2"/>
+      <c r="DV42" s="2"/>
+      <c r="DW42" s="2"/>
+      <c r="DX42" s="2"/>
+      <c r="DY42" s="2"/>
+      <c r="DZ42" s="2"/>
+      <c r="EA42" s="2"/>
+      <c r="EB42" s="2"/>
+      <c r="EC42" s="2"/>
+      <c r="ED42" s="2"/>
+      <c r="EE42" s="2"/>
+      <c r="EF42" s="2"/>
+      <c r="EG42" s="2"/>
+      <c r="EH42" s="2"/>
+      <c r="EI42" s="2"/>
+      <c r="EJ42" s="2"/>
+      <c r="EK42" s="2"/>
+      <c r="EL42" s="2"/>
+      <c r="EM42" s="2"/>
+      <c r="EN42" s="2"/>
+      <c r="EO42" s="2"/>
+      <c r="EP42" s="2"/>
+      <c r="EQ42" s="2"/>
+      <c r="ER42" s="2"/>
+      <c r="ES42" s="2"/>
+      <c r="ET42" s="2"/>
+      <c r="EU42" s="2"/>
+      <c r="EV42" s="2"/>
+      <c r="EW42" s="2"/>
+      <c r="EX42" s="2"/>
+      <c r="EY42" s="2"/>
+      <c r="EZ42" s="2"/>
+      <c r="FA42" s="2"/>
+      <c r="FB42" s="2"/>
+      <c r="FC42" s="2"/>
+      <c r="FD42" s="2"/>
+      <c r="FE42" s="2"/>
+      <c r="FF42" s="2"/>
+      <c r="FG42" s="2"/>
+      <c r="FH42" s="2"/>
+      <c r="FI42" s="2"/>
+      <c r="FJ42" s="2"/>
+      <c r="FK42" s="2"/>
+      <c r="FL42" s="2"/>
+      <c r="FM42" s="2"/>
+      <c r="FN42" s="2"/>
+      <c r="FO42" s="2"/>
+      <c r="FP42" s="2"/>
+      <c r="FQ42" s="2"/>
+      <c r="FR42" s="2"/>
+      <c r="FS42" s="2"/>
+      <c r="FT42" s="2"/>
+      <c r="FU42" s="2"/>
+      <c r="FV42" s="2"/>
+      <c r="FW42" s="2"/>
+      <c r="FX42" s="2"/>
+      <c r="FY42" s="2"/>
+      <c r="FZ42" s="2"/>
+    </row>
+    <row r="43" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="18"/>
       <c r="F43" s="18"/>
@@ -2533,121 +2758,99 @@
       <c r="L43" s="18"/>
       <c r="M43" s="27"/>
       <c r="O43" s="18"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="34"/>
       <c r="T43" s="18"/>
-      <c r="U43" s="33">
-        <v>37336</v>
-      </c>
-      <c r="V43" s="20">
-        <v>37354</v>
-      </c>
-      <c r="W43" s="14">
-        <v>39763</v>
-      </c>
-      <c r="X43" s="18"/>
-      <c r="Z43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="X43" s="34"/>
+      <c r="Z43" s="34"/>
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
       <c r="AH43" s="27"/>
-    </row>
-    <row r="44" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
-        <v>18</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="27"/>
-      <c r="O44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="33">
-        <v>27680</v>
-      </c>
-      <c r="V44" s="19">
-        <v>27682</v>
-      </c>
-      <c r="W44" s="33">
-        <v>45252</v>
-      </c>
-      <c r="X44" s="19">
-        <v>38593</v>
-      </c>
-      <c r="Z44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="27"/>
-    </row>
-    <row r="45" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
-        <v>19</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="27"/>
-      <c r="O45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="27"/>
-    </row>
-    <row r="46" spans="2:182" x14ac:dyDescent="0.3">
+      <c r="AK43" s="18"/>
+    </row>
+    <row r="44" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Z44" s="22"/>
+    </row>
+    <row r="45" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="22"/>
+      <c r="U45" s="33">
+        <v>33095</v>
+      </c>
+      <c r="V45" s="21">
+        <v>35905</v>
+      </c>
+      <c r="W45" s="1">
+        <v>39245</v>
+      </c>
+      <c r="X45" s="22"/>
+      <c r="Z45" s="22"/>
+    </row>
+    <row r="46" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="22"/>
       <c r="X46" s="22"/>
       <c r="Z46" s="22"/>
-      <c r="AE46" s="33">
-        <v>47223</v>
-      </c>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="20">
-        <v>40735</v>
-      </c>
-    </row>
-    <row r="47" spans="2:182" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Z47" s="22"/>
-    </row>
-    <row r="48" spans="2:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>17</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="27"/>
+      <c r="O47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="33">
+        <v>37336</v>
+      </c>
+      <c r="V47" s="20">
+        <v>37354</v>
+      </c>
+      <c r="W47" s="14">
+        <v>39763</v>
+      </c>
+      <c r="X47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="27"/>
+      <c r="AK47" s="18"/>
+    </row>
+    <row r="48" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
-        <v>20</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D48" s="18"/>
       <c r="F48" s="18"/>
@@ -2656,127 +2859,137 @@
       <c r="L48" s="18"/>
       <c r="M48" s="27"/>
       <c r="O48" s="18"/>
-      <c r="R48" s="34"/>
+      <c r="R48" s="18"/>
       <c r="T48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="X48" s="34"/>
-      <c r="Z48" s="34"/>
+      <c r="U48" s="33">
+        <v>27680</v>
+      </c>
+      <c r="V48" s="19">
+        <v>27682</v>
+      </c>
+      <c r="W48" s="33">
+        <v>45252</v>
+      </c>
+      <c r="X48" s="19">
+        <v>38593</v>
+      </c>
+      <c r="Z48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
       <c r="AD48" s="18"/>
       <c r="AF48" s="18"/>
       <c r="AG48" s="18"/>
       <c r="AH48" s="27"/>
-    </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C49" s="9" t="s">
+      <c r="AK48" s="18"/>
+    </row>
+    <row r="49" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>19</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="27"/>
+      <c r="O49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="27"/>
+      <c r="AK49" s="18"/>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="22"/>
-      <c r="AE49" s="33">
-        <v>47224</v>
-      </c>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36">
-        <v>40736</v>
-      </c>
-    </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C50" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="22"/>
-    </row>
-    <row r="51" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="4">
-        <v>21</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="27"/>
-      <c r="O51" s="18"/>
-      <c r="R51" s="34"/>
-      <c r="T51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="X51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="27"/>
-    </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="9" t="s">
+      <c r="X50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AE50" s="33">
+        <v>47223</v>
+      </c>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="20">
+        <v>40735</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Z51" s="22"/>
+    </row>
+    <row r="52" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="27"/>
+      <c r="O52" s="18"/>
+      <c r="R52" s="34"/>
+      <c r="T52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="X52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="27"/>
+      <c r="AK52" s="18"/>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C53" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="22"/>
-      <c r="AE52" s="33">
-        <v>47225</v>
-      </c>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="36">
-        <v>40737</v>
-      </c>
-    </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="22"/>
-    </row>
-    <row r="54" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
-        <v>22</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="27"/>
-      <c r="O54" s="18"/>
-      <c r="R54" s="34"/>
-      <c r="T54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="33">
-        <v>47549</v>
-      </c>
-      <c r="Z54" s="21">
-        <v>47616</v>
-      </c>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="19">
-        <v>47614</v>
-      </c>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="27"/>
-    </row>
-    <row r="55" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AE53" s="33">
+        <v>47224</v>
+      </c>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="33">
+        <v>40736</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C54" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="22"/>
+    </row>
+    <row r="55" spans="2:37" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4">
-        <v>23</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D55" s="18"/>
       <c r="F55" s="18"/>
@@ -2796,172 +3009,264 @@
       <c r="AF55" s="18"/>
       <c r="AG55" s="18"/>
       <c r="AH55" s="27"/>
-    </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AK55" s="18"/>
+    </row>
+    <row r="56" spans="2:37" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI56" s="33">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="22"/>
+      <c r="AE56" s="33">
+        <v>47225</v>
+      </c>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="40">
+        <v>40737</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="22"/>
+    </row>
+    <row r="58" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="27"/>
+      <c r="O58" s="18"/>
+      <c r="R58" s="34"/>
+      <c r="T58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="33">
+        <v>47549</v>
+      </c>
+      <c r="Z58" s="21">
+        <v>47616</v>
+      </c>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="19">
+        <v>47614</v>
+      </c>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="27"/>
+      <c r="AK58" s="18"/>
+    </row>
+    <row r="59" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>23</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="27"/>
+      <c r="O59" s="18"/>
+      <c r="R59" s="34"/>
+      <c r="T59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="X59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="27"/>
+      <c r="AK59" s="18"/>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI60" s="33">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="9" t="s">
+    <row r="62" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AI58" s="33">
+      <c r="AI62" s="33">
         <v>35912</v>
       </c>
-      <c r="AJ58" s="2">
+      <c r="AJ62" s="1">
         <v>47227</v>
       </c>
-    </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="9" t="s">
+      <c r="AK62" s="19">
+        <v>28697</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AI59" s="33">
+      <c r="AI63" s="33">
         <v>47020</v>
       </c>
     </row>
-    <row r="60" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="4">
+    <row r="64" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
         <v>24</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="27"/>
-      <c r="O60" s="18"/>
-      <c r="R60" s="34"/>
-      <c r="T60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="X60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="33">
+      <c r="D64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="27"/>
+      <c r="O64" s="18"/>
+      <c r="R64" s="34"/>
+      <c r="T64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="X64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="33">
         <v>27421</v>
       </c>
-      <c r="AB60" s="21">
+      <c r="AB64" s="21">
         <v>27686</v>
       </c>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="30">
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="18"/>
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="30">
         <v>33494</v>
       </c>
-    </row>
-    <row r="61" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="4">
+      <c r="AK64" s="18"/>
+    </row>
+    <row r="65" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
         <v>25</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="27"/>
-      <c r="O61" s="18"/>
-      <c r="R61" s="34"/>
-      <c r="T61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="X61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="27"/>
-    </row>
-    <row r="62" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
+      <c r="D65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="27"/>
+      <c r="O65" s="18"/>
+      <c r="R65" s="34"/>
+      <c r="T65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="X65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AB65" s="18"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="27"/>
+      <c r="AK65" s="18"/>
+    </row>
+    <row r="66" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
         <v>26</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="27"/>
-      <c r="O62" s="18"/>
-      <c r="R62" s="34"/>
-      <c r="T62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="X62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="27"/>
-    </row>
-    <row r="63" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4">
+      <c r="D66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="27"/>
+      <c r="O66" s="18"/>
+      <c r="R66" s="34"/>
+      <c r="T66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="X66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="27"/>
+      <c r="AK66" s="18"/>
+    </row>
+    <row r="67" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
         <v>27</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="27"/>
-      <c r="O63" s="18"/>
-      <c r="R63" s="34"/>
-      <c r="T63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="X63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AF63" s="18"/>
-      <c r="AG63" s="18"/>
-      <c r="AH63" s="27"/>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="27"/>
+      <c r="O67" s="18"/>
+      <c r="R67" s="34"/>
+      <c r="T67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="X67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="27"/>
+      <c r="AK67" s="18"/>
+    </row>
+    <row r="68" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -3034,44 +3339,47 @@
     <hyperlink ref="P13" r:id="rId57" display="https://inf-ege.sdamgia.ru/problem?id=45240" xr:uid="{92F647A7-0DF5-47E7-9E83-912A3DA15D51}"/>
     <hyperlink ref="S33" r:id="rId58" display="https://inf-ege.sdamgia.ru/problem?id=16043" xr:uid="{4120A1AA-782A-4D40-8ED0-DE2BBA673803}"/>
     <hyperlink ref="T33" r:id="rId59" display="https://inf-ege.sdamgia.ru/problem?id=17334" xr:uid="{7CD4C02A-CB1F-42C2-93CF-87BBDECE9A5B}"/>
-    <hyperlink ref="S35" r:id="rId60" display="https://inf-ege.sdamgia.ru/problem?id=9804" xr:uid="{C6E83B66-A82D-4B16-B914-12C54C7B8046}"/>
-    <hyperlink ref="T35" r:id="rId61" display="https://inf-ege.sdamgia.ru/problem?id=34522" xr:uid="{5739326B-C174-4291-A8CB-AAB9695AC002}"/>
-    <hyperlink ref="S37" r:id="rId62" display="https://inf-ege.sdamgia.ru/problem?id=14704" xr:uid="{66B36681-4BE1-4F8F-92DC-930D520D91C6}"/>
-    <hyperlink ref="U41" r:id="rId63" display="https://inf-ege.sdamgia.ru/problem?id=33095" xr:uid="{18A90CA1-546F-49B3-A0B4-94F7AB8A1D9B}"/>
-    <hyperlink ref="V41" r:id="rId64" display="https://inf-ege.sdamgia.ru/problem?id=35905" xr:uid="{FB2F6DAC-FBC9-4535-9B05-C5118AFD1C3E}"/>
-    <hyperlink ref="U44" r:id="rId65" display="https://inf-ege.sdamgia.ru/problem?id=27680" xr:uid="{8E4183D2-D77E-4E8D-9B98-DE3AC5141FD5}"/>
-    <hyperlink ref="V44" r:id="rId66" display="https://inf-ege.sdamgia.ru/problem?id=27682" xr:uid="{40E8D22C-FCCE-4EB6-B23F-9501FC918048}"/>
-    <hyperlink ref="U43" r:id="rId67" display="https://inf-ege.sdamgia.ru/problem?id=37336" xr:uid="{9AEEFC1C-0DA5-47DA-ABDE-8E69A24B9FEF}"/>
-    <hyperlink ref="V43" r:id="rId68" display="https://inf-ege.sdamgia.ru/problem?id=37354" xr:uid="{EE95B1A0-D408-44C8-9F08-0E2F52E2DFEB}"/>
-    <hyperlink ref="W43" r:id="rId69" display="https://inf-ege.sdamgia.ru/problem?id=39763" xr:uid="{22241770-5857-4988-94AA-C25A3946399F}"/>
-    <hyperlink ref="W44" r:id="rId70" display="https://inf-ege.sdamgia.ru/problem?id=45252" xr:uid="{8EB7D275-1094-418B-8924-A28886F5AE33}"/>
-    <hyperlink ref="X44" r:id="rId71" display="https://inf-ege.sdamgia.ru/problem?id=38593" xr:uid="{EF49907C-0A23-4C5F-AD19-FEFAFD4D4E40}"/>
-    <hyperlink ref="W41" r:id="rId72" display="https://inf-ege.sdamgia.ru/problem?id=39245" xr:uid="{8082BA3D-0E9B-4D94-AB48-092C1C39FF55}"/>
-    <hyperlink ref="Y37" r:id="rId73" display="https://inf-ege.sdamgia.ru/problem?id=37150" xr:uid="{24770F57-EEC5-4560-A336-BF5DAD7AFACE}"/>
-    <hyperlink ref="Y54" r:id="rId74" display="https://inf-ege.sdamgia.ru/problem?id=47549" xr:uid="{2A3830EC-40CE-465B-8FA0-67193D6906D4}"/>
-    <hyperlink ref="Z54" r:id="rId75" display="https://inf-ege.sdamgia.ru/problem?id=47616" xr:uid="{A5D9189E-735C-4BC5-9DF1-9082528438EB}"/>
+    <hyperlink ref="S39" r:id="rId60" display="https://inf-ege.sdamgia.ru/problem?id=9804" xr:uid="{C6E83B66-A82D-4B16-B914-12C54C7B8046}"/>
+    <hyperlink ref="T39" r:id="rId61" display="https://inf-ege.sdamgia.ru/problem?id=34522" xr:uid="{5739326B-C174-4291-A8CB-AAB9695AC002}"/>
+    <hyperlink ref="S41" r:id="rId62" display="https://inf-ege.sdamgia.ru/problem?id=14704" xr:uid="{66B36681-4BE1-4F8F-92DC-930D520D91C6}"/>
+    <hyperlink ref="U45" r:id="rId63" display="https://inf-ege.sdamgia.ru/problem?id=33095" xr:uid="{18A90CA1-546F-49B3-A0B4-94F7AB8A1D9B}"/>
+    <hyperlink ref="V45" r:id="rId64" display="https://inf-ege.sdamgia.ru/problem?id=35905" xr:uid="{FB2F6DAC-FBC9-4535-9B05-C5118AFD1C3E}"/>
+    <hyperlink ref="U48" r:id="rId65" display="https://inf-ege.sdamgia.ru/problem?id=27680" xr:uid="{8E4183D2-D77E-4E8D-9B98-DE3AC5141FD5}"/>
+    <hyperlink ref="V48" r:id="rId66" display="https://inf-ege.sdamgia.ru/problem?id=27682" xr:uid="{40E8D22C-FCCE-4EB6-B23F-9501FC918048}"/>
+    <hyperlink ref="U47" r:id="rId67" display="https://inf-ege.sdamgia.ru/problem?id=37336" xr:uid="{9AEEFC1C-0DA5-47DA-ABDE-8E69A24B9FEF}"/>
+    <hyperlink ref="V47" r:id="rId68" display="https://inf-ege.sdamgia.ru/problem?id=37354" xr:uid="{EE95B1A0-D408-44C8-9F08-0E2F52E2DFEB}"/>
+    <hyperlink ref="W47" r:id="rId69" display="https://inf-ege.sdamgia.ru/problem?id=39763" xr:uid="{22241770-5857-4988-94AA-C25A3946399F}"/>
+    <hyperlink ref="W48" r:id="rId70" display="https://inf-ege.sdamgia.ru/problem?id=45252" xr:uid="{8EB7D275-1094-418B-8924-A28886F5AE33}"/>
+    <hyperlink ref="X48" r:id="rId71" display="https://inf-ege.sdamgia.ru/problem?id=38593" xr:uid="{EF49907C-0A23-4C5F-AD19-FEFAFD4D4E40}"/>
+    <hyperlink ref="W45" r:id="rId72" display="https://inf-ege.sdamgia.ru/problem?id=39245" xr:uid="{8082BA3D-0E9B-4D94-AB48-092C1C39FF55}"/>
+    <hyperlink ref="Y41" r:id="rId73" display="https://inf-ege.sdamgia.ru/problem?id=37150" xr:uid="{24770F57-EEC5-4560-A336-BF5DAD7AFACE}"/>
+    <hyperlink ref="Y58" r:id="rId74" display="https://inf-ege.sdamgia.ru/problem?id=47549" xr:uid="{2A3830EC-40CE-465B-8FA0-67193D6906D4}"/>
+    <hyperlink ref="Z58" r:id="rId75" display="https://inf-ege.sdamgia.ru/problem?id=47616" xr:uid="{A5D9189E-735C-4BC5-9DF1-9082528438EB}"/>
     <hyperlink ref="Y20" r:id="rId76" display="https://inf-ege.sdamgia.ru/problem?id=46966" xr:uid="{09C231B6-062B-4670-A2A6-AC5D55C41ABB}"/>
-    <hyperlink ref="AB60" r:id="rId77" display="https://inf-ege.sdamgia.ru/problem?id=27686" xr:uid="{344F748B-9A0F-4E74-B619-BB2FB37B2E7C}"/>
-    <hyperlink ref="AA60" r:id="rId78" display="https://inf-ege.sdamgia.ru/problem?id=27421" xr:uid="{D07C35AF-F82A-4564-8F1F-D511EC4202A5}"/>
+    <hyperlink ref="AB64" r:id="rId77" display="https://inf-ege.sdamgia.ru/problem?id=27686" xr:uid="{344F748B-9A0F-4E74-B619-BB2FB37B2E7C}"/>
+    <hyperlink ref="AA64" r:id="rId78" display="https://inf-ege.sdamgia.ru/problem?id=27421" xr:uid="{D07C35AF-F82A-4564-8F1F-D511EC4202A5}"/>
     <hyperlink ref="AA13" r:id="rId79" display="https://inf-ege.sdamgia.ru/problem?id=47246" xr:uid="{5391451B-8A06-4553-A308-74A23DD8AF52}"/>
     <hyperlink ref="AC13" r:id="rId80" display="https://inf-ege.sdamgia.ru/problem?id=47404" xr:uid="{E3DD0ADA-FD0D-43D7-B353-B38C605F82C6}"/>
     <hyperlink ref="AC20" r:id="rId81" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{4E58EFF6-B7D9-4891-B6ED-57D2E0559445}"/>
     <hyperlink ref="AC33" r:id="rId82" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{9D387AED-5925-47B2-9734-FC1E136736A8}"/>
-    <hyperlink ref="AD54" r:id="rId83" display="https://inf-ege.sdamgia.ru/problem?id=47614" xr:uid="{FCD2BC7E-4A42-49AC-BB09-4FAA1B153DD4}"/>
-    <hyperlink ref="AE46" r:id="rId84" display="https://inf-ege.sdamgia.ru/problem?id=47223" xr:uid="{919D90EF-BD4E-4C80-8264-8C5EB6108368}"/>
-    <hyperlink ref="AE49" r:id="rId85" display="https://inf-ege.sdamgia.ru/problem?id=47224" xr:uid="{CF65E69C-61CA-4298-A1F8-1657FAFBA1AE}"/>
-    <hyperlink ref="AE52" r:id="rId86" display="https://inf-ege.sdamgia.ru/problem?id=47225" xr:uid="{661BAB13-3AB1-4A90-AC50-CED2234C625D}"/>
-    <hyperlink ref="AG46" r:id="rId87" display="https://inf-ege.sdamgia.ru/problem?id=40735" xr:uid="{05752EF1-5155-4632-86A3-772803541DF5}"/>
-    <hyperlink ref="AG49" r:id="rId88" display="https://inf-ege.sdamgia.ru/problem?id=40736" xr:uid="{0DFC92A6-372B-4F1C-BC3D-B141D75034B9}"/>
-    <hyperlink ref="AG52" r:id="rId89" display="https://inf-ege.sdamgia.ru/problem?id=40737" xr:uid="{0DEE22FA-B5B1-4464-9E75-8EE30ACF4CC2}"/>
-    <hyperlink ref="AH60" r:id="rId90" display="https://inf-ege.sdamgia.ru/problem?id=33494" xr:uid="{AA6E2A8D-6B03-4576-A849-36F02364D92E}"/>
-    <hyperlink ref="AI59" r:id="rId91" display="https://inf-ege.sdamgia.ru/problem?id=47020" xr:uid="{C5F0EDEE-4D6F-4BE0-96A0-A7BD1541FEF1}"/>
-    <hyperlink ref="AI56" r:id="rId92" display="https://inf-ege.sdamgia.ru/problem?id=45257" xr:uid="{016B32A8-02A4-45EC-B01E-ADEFBD37E4C8}"/>
-    <hyperlink ref="AI58" r:id="rId93" display="https://inf-ege.sdamgia.ru/problem?id=35912" xr:uid="{CFD776C7-3758-4A32-8786-7915D04668A4}"/>
-    <hyperlink ref="AJ58" r:id="rId94" display="https://inf-ege.sdamgia.ru/problem?id=47227" xr:uid="{06936BDF-3323-45C4-ABD8-C7D09819823B}"/>
+    <hyperlink ref="AD58" r:id="rId83" display="https://inf-ege.sdamgia.ru/problem?id=47614" xr:uid="{FCD2BC7E-4A42-49AC-BB09-4FAA1B153DD4}"/>
+    <hyperlink ref="AE50" r:id="rId84" display="https://inf-ege.sdamgia.ru/problem?id=47223" xr:uid="{919D90EF-BD4E-4C80-8264-8C5EB6108368}"/>
+    <hyperlink ref="AE53" r:id="rId85" display="https://inf-ege.sdamgia.ru/problem?id=47224" xr:uid="{CF65E69C-61CA-4298-A1F8-1657FAFBA1AE}"/>
+    <hyperlink ref="AE56" r:id="rId86" display="https://inf-ege.sdamgia.ru/problem?id=47225" xr:uid="{661BAB13-3AB1-4A90-AC50-CED2234C625D}"/>
+    <hyperlink ref="AG50" r:id="rId87" display="https://inf-ege.sdamgia.ru/problem?id=40735" xr:uid="{05752EF1-5155-4632-86A3-772803541DF5}"/>
+    <hyperlink ref="AG53" r:id="rId88" display="https://inf-ege.sdamgia.ru/problem?id=40736" xr:uid="{0DFC92A6-372B-4F1C-BC3D-B141D75034B9}"/>
+    <hyperlink ref="AG56" r:id="rId89" display="https://inf-ege.sdamgia.ru/problem?id=40737" xr:uid="{0DEE22FA-B5B1-4464-9E75-8EE30ACF4CC2}"/>
+    <hyperlink ref="AH64" r:id="rId90" display="https://inf-ege.sdamgia.ru/problem?id=33494" xr:uid="{AA6E2A8D-6B03-4576-A849-36F02364D92E}"/>
+    <hyperlink ref="AI63" r:id="rId91" display="https://inf-ege.sdamgia.ru/problem?id=47020" xr:uid="{C5F0EDEE-4D6F-4BE0-96A0-A7BD1541FEF1}"/>
+    <hyperlink ref="AI60" r:id="rId92" display="https://inf-ege.sdamgia.ru/problem?id=45257" xr:uid="{016B32A8-02A4-45EC-B01E-ADEFBD37E4C8}"/>
+    <hyperlink ref="AI62" r:id="rId93" display="https://inf-ege.sdamgia.ru/problem?id=35912" xr:uid="{CFD776C7-3758-4A32-8786-7915D04668A4}"/>
+    <hyperlink ref="AJ62" r:id="rId94" display="https://inf-ege.sdamgia.ru/problem?id=47227" xr:uid="{06936BDF-3323-45C4-ABD8-C7D09819823B}"/>
+    <hyperlink ref="AK62" r:id="rId95" display="https://inf-ege.sdamgia.ru/problem?id=28697" xr:uid="{E625C5FE-3965-481A-AE02-E9EEBB4046C6}"/>
+    <hyperlink ref="AL35" r:id="rId96" display="https://inf-ege.sdamgia.ru/problem?id=48394" xr:uid="{4F061001-C523-49DA-9196-93382B3E2832}"/>
+    <hyperlink ref="AL34" r:id="rId97" display="https://inf-ege.sdamgia.ru/problem?id=48384" xr:uid="{2F12AE30-3EF4-4EAB-8050-4348259D7868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31935771-BDA3-4B66-993C-2041BC5F06BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A0A7A1-C688-488C-8320-CAF561FF7286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,10 +638,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="6"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,7 +655,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -949,10 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FZ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AL34" sqref="AL34"/>
+      <selection pane="topRight" activeCell="AU56" sqref="AU56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,88 +990,120 @@
     <col min="34" max="34" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" style="22" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
+    <col min="38" max="38" width="10.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="22"/>
+    <col min="42" max="42" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:47" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="42">
+      <c r="E1" s="43">
         <v>44791</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43">
         <v>44796</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43">
         <v>44798</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="41">
+      <c r="N1" s="42">
         <v>44819</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43">
         <v>44825</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44">
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45">
         <v>44826</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43">
         <v>44832</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43">
         <v>44833</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="44">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="45">
         <v>44838</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45">
         <v>44840</v>
       </c>
-      <c r="AB1" s="42"/>
+      <c r="AB1" s="43"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="41">
+      <c r="AE1" s="42">
         <v>44854</v>
       </c>
-      <c r="AF1" s="42"/>
+      <c r="AF1" s="43"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
       <c r="AH1" s="26">
         <v>44861</v>
       </c>
-      <c r="AI1" s="41">
+      <c r="AI1" s="42">
         <v>44868</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="45">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="17">
         <v>44869</v>
       </c>
-    </row>
-    <row r="2" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM1" s="42">
+        <v>44875</v>
+      </c>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="17">
+        <v>44876</v>
+      </c>
+      <c r="AP1" s="26">
+        <v>44881</v>
+      </c>
+      <c r="AQ1" s="26">
+        <v>44897</v>
+      </c>
+      <c r="AR1" s="26">
+        <v>44898</v>
+      </c>
+      <c r="AS1" s="17">
+        <v>44903</v>
+      </c>
+      <c r="AT1" s="17">
+        <v>44904</v>
+      </c>
+      <c r="AU1" s="41">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="2" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1097,8 +1129,16 @@
       <c r="AG2" s="18"/>
       <c r="AH2" s="27"/>
       <c r="AK2" s="18"/>
-    </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AL2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1111,7 +1151,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1126,8 +1166,11 @@
       <c r="R4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Z4" s="22"/>
-    </row>
-    <row r="5" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP4" s="32">
+        <v>47205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1162,8 +1205,18 @@
       <c r="AG5" s="18"/>
       <c r="AH5" s="27"/>
       <c r="AK5" s="18"/>
-    </row>
-    <row r="6" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="31">
+        <v>47206</v>
+      </c>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+    </row>
+    <row r="6" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1196,8 +1249,18 @@
       <c r="AG6" s="18"/>
       <c r="AH6" s="27"/>
       <c r="AK6" s="18"/>
-    </row>
-    <row r="7" spans="2:38" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="32">
+        <v>47207</v>
+      </c>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+    </row>
+    <row r="7" spans="2:47" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1223,8 +1286,16 @@
       <c r="AG7" s="18"/>
       <c r="AH7" s="27"/>
       <c r="AK7" s="18"/>
-    </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AL7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1237,7 +1308,7 @@
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1264,8 +1335,11 @@
       <c r="R9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Z9" s="22"/>
-    </row>
-    <row r="10" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP9" s="32">
+        <v>47208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1292,8 +1366,16 @@
       <c r="AG10" s="18"/>
       <c r="AH10" s="27"/>
       <c r="AK10" s="18"/>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AL10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1307,15 +1389,18 @@
       <c r="N11" s="1">
         <v>29653</v>
       </c>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AP11" s="29">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1361,8 +1446,19 @@
       <c r="AG13" s="18"/>
       <c r="AH13" s="27"/>
       <c r="AK13" s="18"/>
-    </row>
-    <row r="14" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="33">
+        <v>47210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1388,13 +1484,21 @@
       <c r="AG14" s="18"/>
       <c r="AH14" s="27"/>
       <c r="AK14" s="18"/>
-    </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AL14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1402,8 +1506,11 @@
       <c r="R16" s="22"/>
       <c r="X16" s="22"/>
       <c r="Z16" s="22"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AP16" s="32">
+        <v>47211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1528,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1448,8 +1555,16 @@
       <c r="AG18" s="18"/>
       <c r="AH18" s="27"/>
       <c r="AK18" s="18"/>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1573,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1487,8 +1602,11 @@
       <c r="AC20" s="21">
         <v>47212</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AP20" s="29">
+        <v>47212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1636,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1555,8 +1673,18 @@
       <c r="AG22" s="18"/>
       <c r="AH22" s="27"/>
       <c r="AK22" s="18"/>
-    </row>
-    <row r="23" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="30">
+        <v>47213</v>
+      </c>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+    </row>
+    <row r="23" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1586,8 +1714,18 @@
       <c r="AG23" s="18"/>
       <c r="AH23" s="27"/>
       <c r="AK23" s="18"/>
-    </row>
-    <row r="24" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="32">
+        <v>47214</v>
+      </c>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+    </row>
+    <row r="24" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1614,8 +1752,16 @@
       <c r="AG24" s="18"/>
       <c r="AH24" s="27"/>
       <c r="AK24" s="18"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1630,8 +1776,9 @@
       <c r="R25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Z25" s="22"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AP25" s="22"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1646,8 +1793,12 @@
       <c r="R26" s="22"/>
       <c r="X26" s="22"/>
       <c r="Z26" s="22"/>
-    </row>
-    <row r="27" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="31">
+        <v>47215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1682,8 +1833,17 @@
       <c r="AG27" s="18"/>
       <c r="AH27" s="27"/>
       <c r="AK27" s="18"/>
-    </row>
-    <row r="28" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AR27" s="29">
+        <v>47216</v>
+      </c>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+    </row>
+    <row r="28" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1710,8 +1870,15 @@
       <c r="AG28" s="18"/>
       <c r="AH28" s="27"/>
       <c r="AK28" s="18"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1721,7 +1888,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1734,7 +1901,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1747,7 +1914,7 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1762,6 +1929,9 @@
       <c r="R32" s="22"/>
       <c r="X32" s="22"/>
       <c r="Z32" s="22"/>
+      <c r="AR32" s="32">
+        <v>47217</v>
+      </c>
     </row>
     <row r="33" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
@@ -1796,6 +1966,13 @@
       <c r="AG33" s="18"/>
       <c r="AH33" s="27"/>
       <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="18"/>
+      <c r="AT33" s="18"/>
     </row>
     <row r="34" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -1832,17 +2009,17 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="22"/>
-      <c r="AL34" s="1">
+      <c r="AL34" s="19">
         <v>48384</v>
       </c>
       <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
@@ -1889,17 +2066,19 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="22"/>
-      <c r="AL35" s="33">
+      <c r="AL35" s="20">
         <v>48394</v>
       </c>
       <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="32">
+        <v>47218</v>
+      </c>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
@@ -1946,15 +2125,15 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="22"/>
-      <c r="AL36" s="3"/>
+      <c r="AL36" s="22"/>
       <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
@@ -2001,15 +2180,15 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="22"/>
-      <c r="AL37" s="3"/>
+      <c r="AL37" s="22"/>
       <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
@@ -2047,6 +2226,13 @@
       <c r="AG38" s="18"/>
       <c r="AH38" s="27"/>
       <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="18"/>
     </row>
     <row r="39" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
@@ -2079,15 +2265,14 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="36"/>
-      <c r="AL39" s="2"/>
+      <c r="AL39" s="36"/>
       <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
@@ -2251,15 +2436,14 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="36"/>
-      <c r="AL40" s="2"/>
+      <c r="AL40" s="36"/>
       <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="39"/>
+      <c r="AR40" s="39"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
@@ -2426,15 +2610,14 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="36"/>
-      <c r="AL41" s="2"/>
+      <c r="AL41" s="36"/>
       <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
@@ -2598,15 +2781,15 @@
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="36"/>
-      <c r="AL42" s="2"/>
+      <c r="AL42" s="36"/>
       <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="39"/>
+      <c r="AS42" s="31">
+        <v>47219</v>
+      </c>
+      <c r="AT42" s="36"/>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
@@ -2770,6 +2953,14 @@
       <c r="AG43" s="18"/>
       <c r="AH43" s="27"/>
       <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
     </row>
     <row r="44" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
@@ -2780,6 +2971,9 @@
       <c r="R44" s="22"/>
       <c r="X44" s="22"/>
       <c r="Z44" s="22"/>
+      <c r="AS44" s="1">
+        <v>47220</v>
+      </c>
     </row>
     <row r="45" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
@@ -2844,6 +3038,16 @@
       <c r="AG47" s="18"/>
       <c r="AH47" s="27"/>
       <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="27"/>
+      <c r="AQ47" s="27"/>
+      <c r="AR47" s="27"/>
+      <c r="AS47" s="18"/>
+      <c r="AT47" s="21">
+        <v>47221</v>
+      </c>
     </row>
     <row r="48" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -2881,8 +3085,18 @@
       <c r="AG48" s="18"/>
       <c r="AH48" s="27"/>
       <c r="AK48" s="18"/>
-    </row>
-    <row r="49" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="27"/>
+      <c r="AQ48" s="27"/>
+      <c r="AR48" s="27"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="25">
+        <v>47222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>19</v>
       </c>
@@ -2908,8 +3122,16 @@
       <c r="AG49" s="18"/>
       <c r="AH49" s="27"/>
       <c r="AK49" s="18"/>
-    </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="18"/>
+    </row>
+    <row r="50" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="9" t="s">
         <v>44</v>
@@ -2925,8 +3147,11 @@
       <c r="AG50" s="20">
         <v>40735</v>
       </c>
-    </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AU50" s="2">
+        <v>47016</v>
+      </c>
+    </row>
+    <row r="51" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
         <v>45</v>
@@ -2936,7 +3161,7 @@
       <c r="X51" s="22"/>
       <c r="Z51" s="22"/>
     </row>
-    <row r="52" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>20</v>
       </c>
@@ -2962,8 +3187,16 @@
       <c r="AG52" s="18"/>
       <c r="AH52" s="27"/>
       <c r="AK52" s="18"/>
-    </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="27"/>
+      <c r="AQ52" s="27"/>
+      <c r="AR52" s="27"/>
+      <c r="AS52" s="18"/>
+      <c r="AT52" s="18"/>
+    </row>
+    <row r="53" spans="2:47" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
@@ -2976,15 +3209,18 @@
       <c r="AG53" s="33">
         <v>40736</v>
       </c>
-    </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AU53" s="2">
+        <v>47017</v>
+      </c>
+    </row>
+    <row r="54" spans="2:47" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="22"/>
     </row>
-    <row r="55" spans="2:37" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:47" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4">
         <v>21</v>
       </c>
@@ -3010,8 +3246,16 @@
       <c r="AG55" s="18"/>
       <c r="AH55" s="27"/>
       <c r="AK55" s="18"/>
-    </row>
-    <row r="56" spans="2:37" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="27"/>
+      <c r="AQ55" s="27"/>
+      <c r="AR55" s="27"/>
+      <c r="AS55" s="18"/>
+      <c r="AT55" s="18"/>
+    </row>
+    <row r="56" spans="2:47" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>44</v>
@@ -3025,8 +3269,11 @@
       <c r="AG56" s="40">
         <v>40737</v>
       </c>
-    </row>
-    <row r="57" spans="2:37" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AU56" s="2">
+        <v>47018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:47" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>45</v>
@@ -3034,7 +3281,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>22</v>
       </c>
@@ -3067,8 +3314,16 @@
       <c r="AG58" s="18"/>
       <c r="AH58" s="27"/>
       <c r="AK58" s="18"/>
-    </row>
-    <row r="59" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="27"/>
+      <c r="AQ58" s="27"/>
+      <c r="AR58" s="27"/>
+      <c r="AS58" s="18"/>
+      <c r="AT58" s="18"/>
+    </row>
+    <row r="59" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>23</v>
       </c>
@@ -3094,8 +3349,16 @@
       <c r="AG59" s="18"/>
       <c r="AH59" s="27"/>
       <c r="AK59" s="18"/>
-    </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="27"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="18"/>
+      <c r="AT59" s="18"/>
+    </row>
+    <row r="60" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="9" t="s">
         <v>50</v>
@@ -3104,13 +3367,13 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="9" t="s">
         <v>52</v>
@@ -3125,7 +3388,7 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="9" t="s">
         <v>53</v>
@@ -3134,7 +3397,7 @@
         <v>47020</v>
       </c>
     </row>
-    <row r="64" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>24</v>
       </c>
@@ -3167,8 +3430,19 @@
         <v>33494</v>
       </c>
       <c r="AK64" s="18"/>
-    </row>
-    <row r="65" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="14">
+        <v>47228</v>
+      </c>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="27"/>
+      <c r="AQ64" s="27"/>
+      <c r="AR64" s="27"/>
+      <c r="AS64" s="18"/>
+      <c r="AT64" s="18"/>
+    </row>
+    <row r="65" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>25</v>
       </c>
@@ -3194,8 +3468,21 @@
       <c r="AG65" s="18"/>
       <c r="AH65" s="27"/>
       <c r="AK65" s="18"/>
-    </row>
-    <row r="66" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="14">
+        <v>28124</v>
+      </c>
+      <c r="AN65" s="20">
+        <v>47022</v>
+      </c>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="27"/>
+      <c r="AQ65" s="27"/>
+      <c r="AR65" s="27"/>
+      <c r="AS65" s="18"/>
+      <c r="AT65" s="18"/>
+    </row>
+    <row r="66" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>26</v>
       </c>
@@ -3221,8 +3508,18 @@
       <c r="AG66" s="18"/>
       <c r="AH66" s="27"/>
       <c r="AK66" s="18"/>
-    </row>
-    <row r="67" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL66" s="18"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="36">
+        <v>47230</v>
+      </c>
+      <c r="AP66" s="27"/>
+      <c r="AQ66" s="27"/>
+      <c r="AR66" s="27"/>
+      <c r="AS66" s="18"/>
+      <c r="AT66" s="18"/>
+    </row>
+    <row r="67" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>27</v>
       </c>
@@ -3248,24 +3545,33 @@
       <c r="AG67" s="18"/>
       <c r="AH67" s="27"/>
       <c r="AK67" s="18"/>
-    </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AL67" s="18"/>
+      <c r="AN67" s="18"/>
+      <c r="AO67" s="18"/>
+      <c r="AP67" s="27"/>
+      <c r="AQ67" s="27"/>
+      <c r="AR67" s="27"/>
+      <c r="AS67" s="18"/>
+      <c r="AT67" s="18"/>
+    </row>
+    <row r="68" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:F1"/>
@@ -3377,9 +3683,34 @@
     <hyperlink ref="AK62" r:id="rId95" display="https://inf-ege.sdamgia.ru/problem?id=28697" xr:uid="{E625C5FE-3965-481A-AE02-E9EEBB4046C6}"/>
     <hyperlink ref="AL35" r:id="rId96" display="https://inf-ege.sdamgia.ru/problem?id=48394" xr:uid="{4F061001-C523-49DA-9196-93382B3E2832}"/>
     <hyperlink ref="AL34" r:id="rId97" display="https://inf-ege.sdamgia.ru/problem?id=48384" xr:uid="{2F12AE30-3EF4-4EAB-8050-4348259D7868}"/>
+    <hyperlink ref="AM64" r:id="rId98" display="https://inf-ege.sdamgia.ru/problem?id=47228" xr:uid="{8F080FFB-09FD-4E4A-8A5C-5D8AA85FB81B}"/>
+    <hyperlink ref="AM65" r:id="rId99" display="https://inf-ege.sdamgia.ru/problem?id=28124" xr:uid="{D3D36983-33AF-42EC-9D87-8B631FD6D76E}"/>
+    <hyperlink ref="AN65" r:id="rId100" display="https://inf-ege.sdamgia.ru/problem?id=47022" xr:uid="{80A3474D-D86B-4A1C-B7D8-2F7ECB90B2DA}"/>
+    <hyperlink ref="AO66" r:id="rId101" display="https://inf-ege.sdamgia.ru/problem?id=47230" xr:uid="{C313480B-5CEA-45B5-8A9D-45F1D799E6ED}"/>
+    <hyperlink ref="AP4" r:id="rId102" display="https://inf-ege.sdamgia.ru/problem?id=47205" xr:uid="{7EA55648-47FA-4A43-8C17-C362D79B4737}"/>
+    <hyperlink ref="AP5" r:id="rId103" display="https://inf-ege.sdamgia.ru/problem?id=47206" xr:uid="{D8C539B1-DD5D-44EA-90EC-281F050D78C8}"/>
+    <hyperlink ref="AP6" r:id="rId104" display="https://inf-ege.sdamgia.ru/problem?id=47207" xr:uid="{EF00E46D-2B99-4637-AB2A-C6CE336A0A55}"/>
+    <hyperlink ref="AP9" r:id="rId105" display="https://inf-ege.sdamgia.ru/problem?id=47208" xr:uid="{B5CDB61E-68A1-4DE4-8A6D-54F1464FCABC}"/>
+    <hyperlink ref="AP11" r:id="rId106" display="https://inf-ege.sdamgia.ru/problem?id=47209" xr:uid="{9FE8C624-2691-4F00-8F9C-37BDDA5ACB36}"/>
+    <hyperlink ref="AP16" r:id="rId107" display="https://inf-ege.sdamgia.ru/problem?id=47211" xr:uid="{13140801-278C-428F-857F-4A0CA1F984ED}"/>
+    <hyperlink ref="AP20" r:id="rId108" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{8AF71B45-84AF-460C-A6A5-CCECE60CF8DB}"/>
+    <hyperlink ref="AQ22" r:id="rId109" display="https://inf-ege.sdamgia.ru/problem?id=47213" xr:uid="{B4E303A1-EB5A-4D09-8452-EFA525955365}"/>
+    <hyperlink ref="AQ23" r:id="rId110" display="https://inf-ege.sdamgia.ru/problem?id=47214" xr:uid="{7373EAD2-F7C5-483C-8B3E-22704F96B183}"/>
+    <hyperlink ref="AQ26" r:id="rId111" display="https://inf-ege.sdamgia.ru/problem?id=47215" xr:uid="{B1F96754-BC05-4DA8-B13A-04D348B7E05A}"/>
+    <hyperlink ref="AR27" r:id="rId112" display="https://inf-ege.sdamgia.ru/problem?id=47216" xr:uid="{C2DB0579-F412-4211-B1E3-B2F2BBD6E32D}"/>
+    <hyperlink ref="AR32" r:id="rId113" display="https://inf-ege.sdamgia.ru/problem?id=47217" xr:uid="{27BEFDC2-8CFD-4C56-B0E9-F3D1524315FE}"/>
+    <hyperlink ref="AR35" r:id="rId114" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{7AB1B296-673D-4C84-B445-DEEADC6254BE}"/>
+    <hyperlink ref="AS42" r:id="rId115" display="https://inf-ege.sdamgia.ru/problem?id=47219" xr:uid="{B5BFA623-08F7-4888-8129-365A2F51589D}"/>
+    <hyperlink ref="AS44" r:id="rId116" display="https://inf-ege.sdamgia.ru/problem?id=47220" xr:uid="{8CA7A2FD-1E9D-4C67-8FD4-ADC10FCF41B5}"/>
+    <hyperlink ref="AT47" r:id="rId117" display="https://inf-ege.sdamgia.ru/problem?id=47221" xr:uid="{14AF291A-64CB-464A-A32E-CC46B1CFA3A0}"/>
+    <hyperlink ref="AT48" r:id="rId118" display="https://inf-ege.sdamgia.ru/problem?id=47222" xr:uid="{CECE3B59-E126-4DCF-AB93-682F7B9FAFC4}"/>
+    <hyperlink ref="AU13" r:id="rId119" display="https://inf-ege.sdamgia.ru/problem?id=47210" xr:uid="{FE523EF3-13D4-414F-82A0-780B83C8B6CF}"/>
+    <hyperlink ref="AU50" r:id="rId120" display="https://inf-ege.sdamgia.ru/problem?id=47016" xr:uid="{180D7899-40AC-43D9-BEA9-2CE1F67D329C}"/>
+    <hyperlink ref="AU53" r:id="rId121" display="https://inf-ege.sdamgia.ru/problem?id=47017" xr:uid="{9BA9BB8A-7004-4C16-BA87-B8D6713B446B}"/>
+    <hyperlink ref="AU56" r:id="rId122" display="https://inf-ege.sdamgia.ru/problem?id=47018" xr:uid="{F9A89BF4-93B3-4181-93D2-7648AE257AAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
 

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A0A7A1-C688-488C-8320-CAF561FF7286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD5C1E-C1DC-4065-8952-FD69B32A1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -949,10 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FZ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AU56" sqref="AU56"/>
+      <selection pane="topRight" activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD5C1E-C1DC-4065-8952-FD69B32A1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D2B13-AFA8-4D6D-80DD-10A2D62764A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Анализ информационных моделей</t>
   </si>
@@ -221,12 +221,18 @@
   <si>
     <t>Прямое сложение в СС</t>
   </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>970 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,17 +303,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,13 +337,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -563,32 +555,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -641,8 +617,16 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,10 +640,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -682,6 +665,2079 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>87594</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4FD18B-4E85-459D-A844-89221D49CE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10450794" cy="774604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C3955-E4D9-41FE-87AC-53AC23F25DE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="59400" y="209880"/>
+            <a:ext cx="25560" cy="6840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C3955-E4D9-41FE-87AC-53AC23F25DE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="50760" y="200880"/>
+              <a:ext cx="43200" cy="24480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496131</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38460</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F680D8F-604E-4692-B150-85733B44B81F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="45000" y="205200"/>
+            <a:ext cx="2275920" cy="23760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F680D8F-604E-4692-B150-85733B44B81F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="36000" y="196560"/>
+              <a:ext cx="2293560" cy="41400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499371</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40579C45-137D-4614-9293-C125F339B5B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2324160" y="211320"/>
+            <a:ext cx="717480" cy="23400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40579C45-137D-4614-9293-C125F339B5B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2315520" y="202320"/>
+              <a:ext cx="735120" cy="41040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37267</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64987</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE74DCE-931C-4A93-8EB3-C90740B276BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2470320" y="214920"/>
+            <a:ext cx="27720" cy="195480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE74DCE-931C-4A93-8EB3-C90740B276BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2461320" y="205920"/>
+              <a:ext cx="45360" cy="213120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546408</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>402905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B20B43D-4782-4B3E-9E93-4183C4E24B42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6629040" y="557640"/>
+            <a:ext cx="464760" cy="33480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B20B43D-4782-4B3E-9E93-4183C4E24B42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6620040" y="548640"/>
+              <a:ext cx="482400" cy="51120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>375326</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA41F07-6B0D-49F1-920D-39D14D2AF5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517316" y="1610895"/>
+          <a:ext cx="9806747" cy="1577067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281996</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17460</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E07ACC-82AD-4797-8DF3-8C3E2B231047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8797680" y="570240"/>
+            <a:ext cx="229320" cy="18720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E07ACC-82AD-4797-8DF3-8C3E2B231047}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8788680" y="561240"/>
+              <a:ext cx="246960" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>555596</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138133</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3D996B-E0BF-4F0C-B5A1-0B6DAA479DD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9071280" y="590760"/>
+            <a:ext cx="190800" cy="2520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3D996B-E0BF-4F0C-B5A1-0B6DAA479DD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9062280" y="581760"/>
+              <a:ext cx="208440" cy="20160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130666</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130349</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33895</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Ink 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53F5B91-88B9-41F0-A876-9761E58B4B8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8646350" y="595080"/>
+            <a:ext cx="1216210" cy="200815"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Ink 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53F5B91-88B9-41F0-A876-9761E58B4B8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8637709" y="586427"/>
+              <a:ext cx="1233852" cy="218481"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509228</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569053</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0449D8C2-8E9D-4C6F-AF29-565618081DD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9633175" y="686520"/>
+            <a:ext cx="59825" cy="83455"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0449D8C2-8E9D-4C6F-AF29-565618081DD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9624629" y="677887"/>
+              <a:ext cx="76576" cy="101081"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>512482</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>145795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>70834</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155095</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425314B9-1CE1-4F9B-BED1-8BE21986941A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7811640" y="2241295"/>
+            <a:ext cx="166615" cy="199800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="66" name="Ink 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425314B9-1CE1-4F9B-BED1-8BE21986941A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7802465" y="2232655"/>
+              <a:ext cx="184598" cy="217440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441512</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606687</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76920</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACC1F4E-0D17-4E1E-817A-2B0037618438}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5915880" y="2493655"/>
+            <a:ext cx="165175" cy="250265"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACC1F4E-0D17-4E1E-817A-2B0037618438}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5906724" y="2485111"/>
+              <a:ext cx="183121" cy="267709"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>86638</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>237838</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75C5DB-5056-463F-94A7-2C4C2B01955A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11035375" y="2555280"/>
+            <a:ext cx="151200" cy="257695"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75C5DB-5056-463F-94A7-2C4C2B01955A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11026375" y="2546642"/>
+              <a:ext cx="168840" cy="275331"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47758</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FEA5B7-75AB-4EF8-9203-18087B9333CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4150080" y="2585880"/>
+            <a:ext cx="155520" cy="233640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FEA5B7-75AB-4EF8-9203-18087B9333CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4141080" y="2577240"/>
+              <a:ext cx="173160" cy="251280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>502251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600531</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="76" name="Ink 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C84816B-4DD4-412D-96B1-25D0A090F96B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2327040" y="2272680"/>
+            <a:ext cx="98280" cy="220680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="76" name="Ink 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C84816B-4DD4-412D-96B1-25D0A090F96B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2309400" y="2255040"/>
+              <a:ext cx="133920" cy="256320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>111103</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="91" name="Ink 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8D0023-F6E6-4F05-989C-96BA4AA78D98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4921070" y="3443400"/>
+            <a:ext cx="1272665" cy="345600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="91" name="Ink 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8D0023-F6E6-4F05-989C-96BA4AA78D98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4903429" y="3425567"/>
+              <a:ext cx="1308307" cy="380909"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285509</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10135</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="99" name="Ink 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D34B81-59CC-4D98-B999-09B9EBB32DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10017720" y="2876400"/>
+            <a:ext cx="226015" cy="181735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="99" name="Ink 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D34B81-59CC-4D98-B999-09B9EBB32DFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9999464" y="2858080"/>
+              <a:ext cx="262163" cy="218009"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>223388</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>189775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="103" name="Ink 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7D64D5-B17D-46D4-9168-9AE6DA138889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9086760" y="3209335"/>
+            <a:ext cx="260575" cy="28440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="103" name="Ink 102">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7D64D5-B17D-46D4-9168-9AE6DA138889}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9069124" y="3191695"/>
+              <a:ext cx="296206" cy="64080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133488</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19135</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941C4FA9-DBB7-4481-B812-AE9D7F7EC695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6096895" y="3899455"/>
+            <a:ext cx="119225" cy="310680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941C4FA9-DBB7-4481-B812-AE9D7F7EC695}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6079713" y="3881815"/>
+              <a:ext cx="153941" cy="346320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525053</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>382183</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178255</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="108" name="Ink 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530983C9-BF1C-4398-9966-6F6E35C4F9A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4782895" y="3976135"/>
+            <a:ext cx="1681920" cy="393120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="108" name="Ink 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530983C9-BF1C-4398-9966-6F6E35C4F9A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4764895" y="3958135"/>
+              <a:ext cx="1717560" cy="428760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567015</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>110515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607407</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="114" name="Ink 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58180AF9-5BC9-43C9-89E7-B99C21B42F93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5433120" y="4492015"/>
+            <a:ext cx="648655" cy="342360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="114" name="Ink 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58180AF9-5BC9-43C9-89E7-B99C21B42F93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5415031" y="4474015"/>
+              <a:ext cx="684470" cy="378000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:45:01.964"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 14 308 0 0,'-12'-4'11431'0'0,"16"4"-10958"0"0,44 6 4772 0 0,-31-4-5717 0 0,-35-3-2814 0 0,-16-14-8408 0 0,29 13 10409 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:50:39.962"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 63 568 0 0,'2'-5'676'0'0,"-1"1"-1"0"0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0-7-1 0 0,0-5 7394 0 0,-19 59-2645 0 0,10-19-4675 0 0,0 0 0 0 0,2 1 1 0 0,1 0-1 0 0,-3 36 0 0 0,0-5-177 0 0,-30 199-1204 0 0,37-253 487 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,10-9-4789 0 0,9-19-2265 0 0,-14 16 4944 0 0,-1-1 301 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="437.52">91 287 164 0 0,'0'-3'623'0'0,"-3"-4"792"0"0,1-1 1 0 0,-1 1 0 0 0,-1 0 0 0 0,-4-8-1 0 0,8 14-1308 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,13-8 1104 0 0,19 0-255 0 0,-23 9-689 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,15 6 0 0 0,7 5 267 0 0,35 18 1 0 0,-54-25-432 0 0,-1 1 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,13 15 0 0 0,-22-21-26 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-4 4 0 0 0,-1 1 80 0 0,-1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-14-1 0 0 0,12 0-180 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 0 0 0,1 1-1 0 0,-1-1 1 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-12-12 0 0 0,7-2-1493 0 0,15 19 1099 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-3 0 0 0,1 1-487 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,6-3 1 0 0,9-4-1196 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1650.2">204 52 600 0 0,'-9'-1'836'0'0,"1"0"1"0"0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-15-7 0 0 0,-21-7 3572 0 0,29 10-1399 0 0,20 4-852 0 0,30 3-64 0 0,-26 0-1963 0 0,125 1 2355 0 0,0 0-1809 0 0,-133-2-674 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,-9 15 227 0 0,1-1 50 0 0,3-4-93 0 0,3-6-101 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 8 0 0 0,1-13-61 0 0,1 0 289 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:50:49.139"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">300 85 916 0 0,'-1'-1'204'0'0,"0"1"1"0"0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,-17 26 1829 0 0,10-14-1103 0 0,-20 28 943 0 0,-30 61 0 0 0,38-63-1360 0 0,-9 21-147 0 0,2 2 1 0 0,-30 107-1 0 0,34-80-1018 0 0,32-100-3400 0 0,5-11 1574 0 0,13-53-3776 0 0,-18 50 4810 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="405.01">305 34 604 0 0,'9'-19'1552'0'0,"-1"5"2726"0"0,-8 14-4129 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 3 1 0 0,14 156 4439 0 0,29 196-1947 0 0,-33-279-3405 0 0,-18-78-5980 0 0,-3-13 1692 0 0,12 14 4379 0 0,-6-6-1370 0 0,-1 0 349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="901.69">50 442 216 0 0,'8'-1'10783'0'0,"31"-3"-8356"0"0,192-13-775 0 0,-190 16-2154 0 0,7-1-2634 0 0,-18 2-4949 0 0,-27 0 6090 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:50:52.754"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 42 968 0 0,'-1'0'227'0'0,"1"0"-1"0"0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 29 2015 0 0,0-30-1875 0 0,10 106 4197 0 0,6 101-2506 0 0,-17-190-2112 0 0,0 31 186 0 0,-6 47 1 0 0,4-82-317 0 0,0 1 0 0 0,-1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1-1 0 0 0,-12 24 0 0 0,10-28-1750 0 0,6-15-2180 0 0,7-17-1884 0 0,0 9 3997 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="515.15">155 48 372 0 0,'0'-1'347'0'0,"0"-3"148"0"0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1-4-1 0 0,-2 6-387 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 0 0 0,2 0 186 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 1-1 0 0,0-1 1 0 0,10 5 0 0 0,-7-3 0 0 0,0 2 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,12 14 0 0 0,-8-7-21 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,9 21 1 0 0,-14-26-168 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 13-1 0 0,-1-20-35 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-6 2-1 0 0,-1 1-8 0 0,-1-2 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-14 1-1 0 0,-83-7-332 0 0,68 2-198 0 0,21 2-178 0 0,-42-1-2746 0 0,56 2 1823 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-10 3-1 0 0,9-1-647 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:50:59.052"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18 12 748 0 0,'1'-11'5089'0'0,"1"19"-141"0"0,0 24-1191 0 0,5 105 1 0 0,19 70-1968 0 0,-9-75-1208 0 0,-11-96-503 0 0,2 21-27 0 0,-3-85-2579 0 0,-7 9 794 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-12-27 0 0 0,-26-41 1303 0 0,42 84 731 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-5 0 0 0,0 7-178 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,145 5 3576 0 0,0 0-3539 0 0,-146-6-307 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2 0 0 0,-2-6-560 0 0,0 0 1 0 0,-1 1 0 0 0,-5-12-1 0 0,-1-5 447 0 0,5 7 567 0 0,2 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,2-1-1 0 0,0 1 0 0 0,4-20 1 0 0,-2 16 2140 0 0,-2 19-320 0 0,-3 12-614 0 0,0 9-454 0 0,0 1 1 0 0,2-1 0 0 0,0 0-1 0 0,4 28 1 0 0,17 77 1007 0 0,-7-55-1510 0 0,34 155-263 0 0,-45-212-423 0 0,5 11-4478 0 0,-7-21 3546 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,4 5-4246 0 0,-5-5 4247 0 0,1 0-1 0 0,1 0 1 0 0,4 3-1967 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:51:13.098"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">96 82 400 0 0,'-1'-1'224'0'0,"0"0"0"0"0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-6 2724 0 0,-5 17-1641 0 0,-4 7-682 0 0,1 1 1 0 0,0 1-1 0 0,2-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-3 25 0 0 0,5-9-73 0 0,0-1 0 0 0,4 60 0 0 0,0-78-516 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 0 0 0,-1 0 0 0 0,16 19 0 0 0,-22-31-19 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2 0 0 0 0,-1 0 6 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,3-5 0 0 0,4-6-10 0 0,-1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-2-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1-19 0 0 0,-2 1-16 0 0,-1 0-1 0 0,-1 1 0 0 0,-2-1 1 0 0,-9-42-1 0 0,4 40 3 0 0,-1-1-1 0 0,-16-41 1 0 0,24 75 11 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,-4-3 0 0 0,5 4-3 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-3 2 1 0 0,-2 2-43 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-5 7 0 0 0,-4 10-1189 0 0,2 1-1 0 0,0 0 1 0 0,-11 40-1 0 0,-13 80-7088 0 0,25-94 6000 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:51:30.579"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">81 184 872 0 0,'-11'-60'5136'0'0,"3"33"4095"0"0,11 256-3937 0 0,8 115-5585 0 0,-8-252 162 0 0,-2-65-390 0 0,2 73-2306 0 0,2-35-2826 0 0,-1-50 1759 0 0,14-21-3310 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.58">23 59 20 0 0,'-4'-6'1091'0'0,"-10"-17"722"0"0,13 22-1664 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1-66 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,2 1 1 0 0,27 1 501 0 0,-25-2-404 0 0,16 3 170 0 0,0 1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 2-1 0 0,-1 0 1 0 0,21 12-1 0 0,-9-3-277 0 0,-1 2 0 0 0,-1 2 0 0 0,38 34 0 0 0,-58-48-66 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,6 11 0 0 0,-12-18 3 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-4 3 0 0 0,-4 2 22 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-17 2 1 0 0,-77 8-45 0 0,81-11-4 0 0,-2 0-226 0 0,-36 3-1285 0 0,57-6 370 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-11-4 0 0 0,11 2-892 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1952.14">942 485 648 0 0,'-3'0'275'0'0,"-1"0"1"0"0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 5-1 0 0,0 1-30 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,2-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,4 8 0 0 0,-1-5-180 0 0,1 1 0 0 0,1-1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-2 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,0-1 0 0 0,11 8 0 0 0,-14-12-62 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,10-2-1 0 0,-6-1-12 0 0,1 0-1 0 0,-1 0 1 0 0,0-2-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,13-13 1 0 0,-21 18 11 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-5 0 0 0,-2-2 4 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-20-6 0 0 0,18 7-9 0 0,0 0-1 0 0,-1 1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 2 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,-26 9-1 0 0,34-9-128 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 9 0 0 0,6-10-293 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,6 6 0 0 0,7 9-1299 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2769.54">1857 593 72 0 0,'1'0'77'0'0,"-1"0"1"0"0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 154 0 0,0 0-154 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-15 3 1095 0 0,-16 15-91 0 0,28-16-896 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-4 8 0 0 0,6-11-136 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,3 1 0 0 0,1 1-26 0 0,1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,12-5 1 0 0,-15 5 24 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-2-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-7 0 0 0,-1 5-20 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-7-7 0 0 0,-7-5-5 0 0,-33-26 0 0 0,47 41-20 0 0,-292-216-136 0 0,292 215 133 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-4-6 0 0 0,8 10-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,20-3 13 0 0,-1 1 0 0 0,1 1-1 0 0,0 1 1 0 0,44 5 0 0 0,-32-2 5 0 0,131 15-591 0 0,-111-8-2374 0 0,0 3-3780 0 0,-43-10 5098 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3390.78">2419 515 356 0 0,'0'0'158'0'0,"-1"-1"0"0"0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-14 19 1384 0 0,11-12-1241 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 9 1 0 0,4-13-244 0 0,-1 1-1 0 0,1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,3 3 1 0 0,3 3-14 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,21 12 0 0 0,-15-11-30 0 0,1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,25 4-1 0 0,-31-7-14 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1-1 0 0 0,-2 0 0 0 0,21-6 0 0 0,-26 6 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,2-4 1 0 0,-3 5 1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-6-7 1 0 0,-2 0-21 0 0,0 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,-17 4 0 0 0,29-5-217 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 5 0 0 0,3 4-1226 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3910.8">3330 494 268 0 0,'-3'0'3733'0'0,"2"7"-1251"0"0,2 23 41 0 0,9 35-715 0 0,5 8-691 0 0,21 85-1976 0 0,-31-141-2774 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4247.96">3087 554 508 0 0,'-9'-10'1233'0'0,"7"9"-974"0"0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2-3 1 0 0,3 4-186 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,9-4 368 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,17-1 0 0 0,70 7 742 0 0,-86-5-1145 0 0,128 20-1724 0 0,-47 2-5774 0 0,-74-17 5833 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:52:31.747"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">295 17 1200 0 0,'-5'-17'12144'0'0,"4"28"-9484"0"0,-1 43 3199 0 0,-1 2-3955 0 0,5 25-1036 0 0,-2 49-753 0 0,0-125-203 0 0,-7 90-2466 0 0,-4-32-7908 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.97">31 55 644 0 0,'-31'-30'16936'0'0,"38"26"-14887"0"0,7 0-634 0 0,27-1 314 0 0,78 2 0 0 0,43 12-2672 0 0,-100-4-461 0 0,-56-5 1171 0 0,68 6-5297 0 0,35 4-7032 0 0,-85-7 9880 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:52:33.347"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 37 516 0 0,'-11'-25'21668'0'0,"11"25"-21427"0"0,24-10 3375 0 0,-6 9-4996 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="405.81">412 78 564 0 0,'15'-24'16165'0'0,"-5"8"-9908"0"0,4 2-4637 0 0,-9 10-1718 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="793.16">724 75 844 0 0,'-2'-51'27184'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:52:44.626"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">227 120 716 0 0,'70'-83'4273'0'0,"-64"76"-3266"0"0,-1 0 0 0 0,1 1-1 0 0,1 0 1 0 0,11-4 2990 0 0,-18 10-3943 0 0,-1 12 1280 0 0,-5 10-392 0 0,-23 37 5 0 0,-37 54 0 0 0,29-53-681 0 0,-124 182 248 0 0,123-198-505 0 0,38-44-10 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,17-1-10 0 0,18-3 3 0 0,19-5-783 0 0,2 0-3514 0 0,-4-5-4882 0 0,-47 12 7685 0 0,-1 0 152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.39">276 461 728 0 0,'0'-3'1178'0'0,"6"-21"9367"0"0,-15 39-8466 0 0,-2 3-928 0 0,1 1 0 0 0,-13 31 0 0 0,14-24-1285 0 0,-10 44 0 0 0,4 30-4197 0 0,13-3-4407 0 0,4-63 6040 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:51:38.969"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">445 91 480 0 0,'-8'-2'4626'0'0,"49"-9"-2303"0"0,-29 7-2083 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,20 2 0 0 0,-30-2-185 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,2 3-1 0 0,-3-3-13 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-2 3 0 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1-1 0 0,-15 13 1 0 0,-39 25 48 0 0,48-37-87 0 0,8-4-3 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 3 0 0 0,11-7-3 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,6 2 1 0 0,1-2 20 0 0,0 1-11 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,14 10 0 0 0,-23-13 1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 4-1 0 0,1 0 64 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,-6 9 0 0 0,4-8 22 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-15 3 0 0 0,8-3-8 0 0,1 0 0 0 0,0-2 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-2 0 0 0,-27-3 0 0 0,37 3-58 0 0,-1 0-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,-4-2-1 0 0,9 3-14 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1-1 130 0 0,-1 2-382 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1384.99">1485 58 364 0 0,'-1'0'217'0'0,"0"0"0"0"0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-3-2 1735 0 0,4 2-1735 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1-106 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,3-1 0 0 0,11-2 127 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,18 2 0 0 0,-29-1-112 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,4 7-1 0 0,-5-6-51 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 7 0 0 0,-1-4 7 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-8 8 0 0 0,-2 3 255 0 0,-2-2 0 0 0,0 1 0 0 0,-1-2 1 0 0,-23 17-1 0 0,35-29-238 0 0,-4 3 35 0 0,1 0-1 0 0,0 1 0 0 0,-8 9 0 0 0,14-15-123 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 2 0 0 0,1-1 22 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 1 0 0 0,37 5 66 0 0,-32-5-87 0 0,211 22-327 0 0,-218-21-409 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2720.52">2944 53 56 0 0,'-8'-6'1832'0'0,"0"-3"1821"0"0,7 8-3574 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,8-4 96 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 2 1 0 0,1-1-1 0 0,0 1 0 0 0,15 1 0 0 0,-7-1 60 0 0,0 1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,23 8 0 0 0,-38-11-173 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 3-1 0 0,-1-2 24 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-3 3 0 0 0,1 0 21 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-6 6-1 0 0,-4 1-12 0 0,-85 72 358 0 0,76-62-348 0 0,6-6-57 0 0,1 0 0 0 0,1 0 0 0 0,-17 24 0 0 0,32-38-43 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 3 0 0 0,1-6 6 0 0,1 0-1 0 0,42 2 56 0 0,55 9 0 0 0,-24-2-67 0 0,-26-2 29 0 0,-28-4-28 0 0,30 2-1 0 0,-49-5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4467.19">2182 52 424 0 0,'-7'-3'6262'0'0,"20"-5"-5746"0"0,1 2 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,30-1 0 0 0,-42 3-433 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-3-28 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 1 0 0 0,0 1 0 0 0,-36 67 908 0 0,-47 68 1 0 0,77-128-925 0 0,0 0 0 0 0,1 1-1 0 0,1-1 1 0 0,0 2 0 0 0,-5 14-1 0 0,4-10-40 0 0,7-17 4 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,23 3 130 0 0,3-2-122 0 0,0 0-1 0 0,0 2 1 0 0,-1 1 0 0 0,31 9 0 0 0,-21-5-5 0 0,-35-8 0 0 0,8 6-28 0 0,-4-3-116 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70458.58">8 582 140 0 0,'-8'-12'7691'0'0,"12"15"-7130"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 7 1 0 0,1 1-77 0 0,-2 0 1 0 0,6 17-1 0 0,4 36 661 0 0,-12-48-1023 0 0,1 0 0 0 0,6 19 0 0 0,-7-27-99 0 0,-1-2-2 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,5 8-1 0 0,-6-11-13 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 1 0 0 0,62 12 69 0 0,140 10 1 0 0,-91-13-40 0 0,102-4-734 0 0,-83-5 346 0 0,-67 1 383 0 0,496 5-1487 0 0,-392-18 1362 0 0,143-2 88 0 0,-279 13 31 0 0,1 2 0 0 0,-1 1 0 0 0,0 2 0 0 0,0 2 0 0 0,-1 1 0 0 0,0 2 0 0 0,55 24 0 0 0,-88-32-10 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,6 6-1 0 0,-9-7 4 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 5 0 0 0,0 8 118 0 0,1-19-169 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,3-3 0 0 0,4-5-94 0 0,1-1 80 0 0,1-1-1 0 0,0 2 1 0 0,0 0-1 0 0,1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 2 1 0 0,1-1-1 0 0,-1 2 1 0 0,1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,22 0 1 0 0,385 21 160 0 0,-166-3-141 0 0,-140-10 4 0 0,565 1 201 0 0,-654-8-42 0 0,0-1-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1-2 0 0 0,0 0 0 0 0,30-14-1 0 0,-45 15-58 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,9-18 0 0 0,-16 28-72 0 0,7-15 96 0 0,0-1 1 0 0,6-23-1 0 0,-13 37-102 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-2-6 0 0 0,2 7-130 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-2 1 1 0 0,-8 0-1747 0 0,0 1-1 0 0,-1 0 0 0 0,-19 7 1 0 0,9-1-810 0 0,3 2 332 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:45:06.096"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 1 116 0 0,'-6'2'3945'0'0,"-7"3"3536"0"0,6 1-6520 0 0,7-6-909 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 66 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,27-7 217 0 0,-14 4-1 0 0,27-3-101 0 0,0 1 1 0 0,0 3-1 0 0,0 1 0 0 0,78 7 1 0 0,-24 1-240 0 0,31 4-40 0 0,-49-2 85 0 0,123-4-1 0 0,-131-5-15 0 0,161 1 21 0 0,56 0-163 0 0,-95 2 86 0 0,-155-2 60 0 0,276 6 61 0 0,-76-2-122 0 0,-163-5 10 0 0,342-8 519 0 0,-85 4-467 0 0,50 2-120 0 0,-70 0 211 0 0,255 4-222 0 0,36 29 214 0 0,-350-22-226 0 0,-248-8 116 0 0,-1 1 2 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,2-1 0 0 0,-5 2-1 0 0,30-7 11 0 0,-22 3-10 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 2 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,16 2 1 0 0,18-2 9 0 0,219-9 16 0 0,-153 7-48 0 0,440 8 2 0 0,-526-3 88 0 0,-11-1-25 0 0,-11-2-54 0 0,-19 6-13636 0 0,7-6 10173 0 0,-1-3 733 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:52:53.551"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#33CCFF"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 397 872 0 0,'0'0'122'0'0,"-1"0"0"0"0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,2 1 1 0 0,24-19-363 0 0,-22 16 733 0 0,6-4-174 0 0,29-19 916 0 0,41-36 0 0 0,-68 51-1198 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-2 0 0 0,-1 1 0 0 0,10-18 0 0 0,-10 10 15 0 0,0 0 0 0 0,-1 0 0 0 0,7-38 0 0 0,-12 52 27 0 0,1-9 362 0 0,-8 33 147 0 0,-18 57 255 0 0,-10 42-448 0 0,-17 137 609 0 0,10-69-983 0 0,35-168-1433 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1180.25">652 151 368 0 0,'-24'-4'5911'0'0,"35"-8"-5107"0"0,-3 3-703 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1 1 1 0 0,17-4 0 0 0,-24 6 22 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,7 2-1 0 0,-11-2-63 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 2-1 0 0,-1 3 26 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,-9 10 1 0 0,0-1 5 0 0,-1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1-2 0 0 0,-21 13 0 0 0,23-17-63 0 0,10-6-29 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-5 5 1 0 0,50-18-423 0 0,-28 8 401 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,27 7 0 0 0,-37-8 24 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-2 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-2 7 1 0 0,1-2 18 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-8 8 0 0 0,1-2 58 0 0,-2 0 0 0 0,0-2-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-2 0 0 0,-30 13 0 0 0,35-18-47 0 0,-1 1-1 0 0,0-1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-2 1 0 0,-1 0 0 0 0,-23-5 0 0 0,-9-4-2199 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1915.22">14 920 636 0 0,'-14'0'5572'0'0,"29"-2"-2073"0"0,15-1-3033 0 0,39-6-27 0 0,91 0-1 0 0,72 13-558 0 0,-142-1-41 0 0,562 17-660 0 0,-219 1-1796 0 0,-404-19 2052 0 0,-16 0-333 0 0,0-1-1 0 0,0-1 1 0 0,1 0 0 0 0,15-3-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:45:09.756"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 51 168 0 0,'4'5'10659'0'0,"16"-1"-9718"0"0,13-1 27 0 0,0-2-1 0 0,40-2 0 0 0,-9-1-436 0 0,52 0 351 0 0,93 2-876 0 0,-173 1-11 0 0,49-6 0 0 0,-37 1 31 0 0,13 1-9 0 0,15-1-3 0 0,97-17-1 0 0,-130 15-17 0 0,-1 2 0 0 0,62 1-1 0 0,28-1-50 0 0,-37-2 66 0 0,112 9-1 0 0,-48 1 20 0 0,-79 3 10 0 0,-49-3-37 0 0,32-1 0 0 0,-59-2 575 0 0,-22 3-15486 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:45:18.041"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26 18 152 0 0,'-1'0'267'0'0,"-8"0"539"0"0,-2-4 413 0 0,7-2 70 0 0,3-2 3337 0 0,6 28-1408 0 0,21 139 1258 0 0,9 82-404 0 0,-34-236-4023 0 0,3 28 652 0 0,1 38-1 0 0,-7-61-2231 0 0,-3-7-3002 0 0,4-3 4121 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:45:25.071"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">45 0 540 0 0,'0'0'4370'0'0,"-6"3"136"0"0,-19 8-815 0 0,25-11-3485 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 2 0 0 0,15 4 1144 0 0,16-2-1685 0 0,-15-3 826 0 0,341 11 87 0 0,79 4-444 0 0,-368-10-156 0 0,79 2 8 0 0,-118-7 125 0 0,-18 0-116 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,10-1 1 0 0,-5 0-6 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,18 3 0 0 0,23 0-49 0 0,-82 9-16179 0 0,19-10 13306 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:49:30.436"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 0 288 0 0,'-5'3'6655'0'0,"-11"7"-3488"0"0,37-9-1725 0 0,31 6-1 0 0,-32-4-1206 0 0,34 2 1 0 0,104-2 238 0 0,-11 5-445 0 0,-73-4-51 0 0,28 1-29 0 0,-102-5 65 0 0,8 2 367 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:49:44.450"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 656 0 0,'1'5'8040'0'0,"105"-5"-5632"0"0,-105 0-2379 0 0,28-3 294 0 0,150 6 43 0 0,-104-2 38 0 0,7-2-16 0 0,-81 1-374 0 0,28-2 160 0 0,-8 1 100 0 0,-16 1 355 0 0,-10 3-1157 0 0,5-3 500 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:49:32.550"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1817 41 108 0 0,'-5'2'11911'0'0,"6"0"-11836"0"0,3-1 740 0 0,27 2-217 0 0,56 0-40 0 0,-43 0-84 0 0,47-4 0 0 0,104-6 422 0 0,-33-1-827 0 0,-101 5-82 0 0,-57 3-171 0 0,4-1 470 0 0,-32 4-13655 0 0,12-2 11199 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="595.77">2136 268 824 0 0,'24'-21'3918'0'0,"-19"18"-1513"0"0,-16 14-219 0 0,-3 5-1685 0 0,1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-9 28 0 0 0,8-2-594 0 0,12-39-886 0 0,7-8-265 0 0,6-5-801 0 0,-5 1 1297 0 0,-1-1 1 0 0,1-1-1 0 0,-2 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,6-15 1 0 0,-4 8-156 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="934">2177 272 280 0 0,'15'-34'2002'0'0,"-13"28"-1419"0"0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,6-8 0 0 0,-13 53 4610 0 0,0-12-4650 0 0,1 0 0 0 0,1 1 0 0 0,2 56 1 0 0,1-55-466 0 0,2-21-165 0 0,1 9 330 0 0,-3-18-319 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-9-12-8277 0 0,7 7 6572 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1273.52">2105 385 948 0 0,'0'0'216'0'0,"1"-1"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,2 1-1 0 0,33 1 2620 0 0,-28-2-2452 0 0,32 5 7 0 0,-6 0-2367 0 0,-11-4-3730 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2102.23">680 126 240 0 0,'-3'2'367'0'0,"0"-1"0"0"0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 4 0 0 0,-21 38-249 0 0,15-23 489 0 0,-12 24 203 0 0,-22 64 1 0 0,28-69-880 0 0,8-13-953 0 0,8-27 991 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-341 0 0,-1 0 341 0 0,0 0-1 0 0,0 0 1 0 0,6-14-409 0 0,18-45-52 0 0,39-86 124 0 0,-56 130 574 0 0,1 1-1 0 0,12-16 0 0 0,-18 27-69 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,5 0 0 0 0,-7 1-35 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,10 32 1410 0 0,-4 11-731 0 0,-2 0 0 0 0,-1 0 0 0 0,-4 64-1 0 0,-1-52-766 0 0,0-48-859 0 0,-11-29-10556 0 0,10 14 10994 0 0,-1-4-1104 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.17">600 346 472 0 0,'-5'-2'2665'0'0,"8"1"-779"0"0,14 0 424 0 0,26 3 95 0 0,13 7-1394 0 0,2-1-2995 0 0,-21-6-4644 0 0,-33-2 4851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2995.83">1 7 840 0 0,'3'-1'7010'0'0,"13"-4"-5978"0"0,31 5 103 0 0,195 6 761 0 0,-233-5-2038 0 0,25 1-831 0 0,-28-1-1778 0 0,-19 0-2825 0 0,0-1 3805 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3428.93">22 175 848 0 0,'-1'1'114'0'0,"1"-1"-1"0"0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 2 1 0 0,-2 20 377 0 0,1-12 81 0 0,-2 27-240 0 0,2 40 1 0 0,1-62-1528 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3773.3">32 270 860 0 0,'9'-14'1237'0'0,"-7"11"-947"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,5-4 0 0 0,-6 5-214 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 1 1 0 0,3 0 120 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 2-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,7 7-1 0 0,-10-9-103 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-2 0 1 0 0,-1 3 129 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-10 3 0 0 0,9-3-522 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-12-1 1 0 0,17 1-5 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1 0 0 0,0-4-1809 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4115.69">43 138 628 0 0,'0'0'60'0'0,"0"-1"0"0"0,-1 1 179 0 0,1 0-180 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 179 0 0,-1 1-180 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,13-3 1430 0 0,14 0 34 0 0,-13 3-1003 0 0,104 4 616 0 0,-101-2-3221 0 0,0 0 1 0 0,24 8 0 0 0,-30-6 182 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25208.18">1250 229 148 0 0,'-1'0'143'0'0,"1"-1"1"0"0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-3 3-58 0 0,-3 5 390 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 11 0 0 0,0 13 311 0 0,-2 37 0 0 0,3-30-355 0 0,-1 36-1196 0 0,17-90-3467 0 0,-9 6 2982 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-13 0 0 0,-1 4-103 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25537.93">1210 250 648 0 0,'0'-3'132'0'0,"0"0"1"0"0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,3-2 1 0 0,-2 2 7 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 2-1 0 0,7-2 1 0 0,-3 1 111 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,10 5 0 0 0,-13-5-102 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,4 8-1 0 0,-7-10-99 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,-10 4 95 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-27 3 0 0 0,22-4-966 0 0,-1 2 1 0 0,-21 5-1 0 0,49-8-5666 0 0,0-1 4282 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27480.21">2619 35 240 0 0,'-8'1'5394'0'0,"-5"3"692"0"0,8-3-6105 0 0,137-3 895 0 0,-53 0-859 0 0,-27 2 138 0 0,174 9 608 0 0,-199-8-592 0 0,14 0 137 0 0,16 1-125 0 0,-22 5-168 0 0,-31-6 53 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,6-1 0 0 0,-7 0 79 0 0,-1 1-74 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,1 0 1 0 0,-2 0-62 0 0,-1 0-8 0 0,2 0-3 0 0,-2 0 14 0 0,3 0-12 0 0,3 0 62 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,6-1 0 0 0,-3-1 230 0 0,-32 6-14988 0 0,14-5 12525 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-02-01T16:50:06.919"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 34 612 0 0,'1'36'2805'0'0,"1"-23"-2263"0"0,1-1 1 0 0,-2 1-1 0 0,1 13 0 0 0,-8 17-119 0 0,0-28-359 0 0,1-9 76 0 0,9-20-67 0 0,0-3-99 0 0,3-6 84 0 0,-1 3 97 0 0,-6 20-115 0 0,28 4 612 0 0,11-5-345 0 0,7-1-260 0 0,-45 2-62 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,2-8-270 0 0,-1 3 215 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-8 0 0 0,0 2 59 0 0,-1 2-19 0 0,2-2 204 0 0,6 24 138 0 0,-2 20 467 0 0,-4-13-264 0 0,2 5 703 0 0,-1 47 1 0 0,-2-55-886 0 0,0-5 538 0 0,0 11-2675 0 0,5-34-5752 0 0,-5 7 5764 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="791.25">1 29 180 0 0,'-1'-7'1093'0'0,"1"-8"742"0"0,0 15-1710 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0-34 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 2-1 0 0,1 45 1375 0 0,-2-34-1160 0 0,7 80 911 0 0,-6-94-1254 0 0,0 0-381 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,7-15-10703 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,18 +3003,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FZ72"/>
+  <dimension ref="A1:FY72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="AI48" sqref="AI48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BQ20" sqref="BQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="22" bestFit="1" customWidth="1"/>
@@ -993,94 +3050,112 @@
     <col min="38" max="38" width="10.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6" style="22" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="22"/>
+    <col min="41" max="41" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="3"/>
+    <col min="47" max="47" width="10.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5" style="22" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:66" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="49">
         <v>44791</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49">
         <v>44796</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49">
         <v>44798</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="42">
+      <c r="N1" s="48">
         <v>44819</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49">
         <v>44825</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51">
         <v>44826</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49">
         <v>44832</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49">
         <v>44833</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="45">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="51">
         <v>44838</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45">
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="51">
         <v>44840</v>
       </c>
-      <c r="AB1" s="43"/>
+      <c r="AB1" s="49"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="42">
+      <c r="AE1" s="48">
         <v>44854</v>
       </c>
-      <c r="AF1" s="43"/>
+      <c r="AF1" s="49"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
       <c r="AH1" s="26">
         <v>44861</v>
       </c>
-      <c r="AI1" s="42">
+      <c r="AI1" s="48">
         <v>44868</v>
       </c>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
       <c r="AL1" s="17">
         <v>44869</v>
       </c>
-      <c r="AM1" s="42">
+      <c r="AM1" s="48">
         <v>44875</v>
       </c>
-      <c r="AN1" s="43"/>
+      <c r="AN1" s="49"/>
       <c r="AO1" s="17">
         <v>44876</v>
       </c>
@@ -1099,11 +3174,64 @@
       <c r="AT1" s="17">
         <v>44904</v>
       </c>
-      <c r="AU1" s="41">
+      <c r="AU1" s="26">
         <v>44909</v>
       </c>
-    </row>
-    <row r="2" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AV1" s="26">
+        <v>44917</v>
+      </c>
+      <c r="AW1" s="26">
+        <v>44937</v>
+      </c>
+      <c r="AX1" s="26">
+        <v>44938</v>
+      </c>
+      <c r="AY1" s="26">
+        <v>44944</v>
+      </c>
+      <c r="AZ1" s="48">
+        <v>44958</v>
+      </c>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="17">
+        <v>44959</v>
+      </c>
+      <c r="BC1" s="26">
+        <v>44965</v>
+      </c>
+      <c r="BD1" s="48">
+        <v>44966</v>
+      </c>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="38">
+        <v>44972</v>
+      </c>
+      <c r="BG1" s="26">
+        <v>44973</v>
+      </c>
+      <c r="BH1" s="17">
+        <v>44979</v>
+      </c>
+      <c r="BI1" s="26">
+        <v>44980</v>
+      </c>
+      <c r="BJ1" s="26">
+        <v>44986</v>
+      </c>
+      <c r="BK1" s="17">
+        <v>44987</v>
+      </c>
+      <c r="BL1" s="26">
+        <v>45000</v>
+      </c>
+      <c r="BM1" s="26">
+        <v>45001</v>
+      </c>
+      <c r="BN1" s="46">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="2" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1137,8 +3265,25 @@
       <c r="AR2" s="27"/>
       <c r="AS2" s="18"/>
       <c r="AT2" s="18"/>
-    </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="27"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27"/>
+    </row>
+    <row r="3" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1151,7 +3296,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -1169,8 +3314,12 @@
       <c r="AP4" s="32">
         <v>47205</v>
       </c>
-    </row>
-    <row r="5" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW4" s="32"/>
+      <c r="BL4" s="32">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="5" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1215,8 +3364,27 @@
       <c r="AR5" s="27"/>
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
-    </row>
-    <row r="6" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="27"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="27"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="41">
+        <v>6598</v>
+      </c>
+      <c r="BM5" s="27"/>
+    </row>
+    <row r="6" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1259,8 +3427,27 @@
       <c r="AR6" s="27"/>
       <c r="AS6" s="18"/>
       <c r="AT6" s="18"/>
-    </row>
-    <row r="7" spans="2:47" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="27"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="27"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="42">
+        <v>6600</v>
+      </c>
+      <c r="BM6" s="27"/>
+    </row>
+    <row r="7" spans="2:66" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1294,8 +3481,25 @@
       <c r="AR7" s="27"/>
       <c r="AS7" s="18"/>
       <c r="AT7" s="18"/>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="27"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="27"/>
+      <c r="BJ7" s="27"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="27"/>
+      <c r="BM7" s="27"/>
+    </row>
+    <row r="8" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1307,8 +3511,11 @@
       <c r="R8" s="22"/>
       <c r="X8" s="22"/>
       <c r="Z8" s="22"/>
-    </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="BL8" s="32">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="9" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -1338,8 +3545,15 @@
       <c r="AP9" s="32">
         <v>47208</v>
       </c>
-    </row>
-    <row r="10" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW9" s="29"/>
+      <c r="AZ9" s="14">
+        <v>1237</v>
+      </c>
+      <c r="BA9" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1374,8 +3588,25 @@
       <c r="AR10" s="27"/>
       <c r="AS10" s="18"/>
       <c r="AT10" s="18"/>
-    </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="27"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="27"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="27"/>
+      <c r="BJ10" s="27"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="27"/>
+      <c r="BM10" s="27"/>
+    </row>
+    <row r="11" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1392,15 +3623,28 @@
       <c r="AP11" s="29">
         <v>47209</v>
       </c>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AV11" s="31">
+        <v>33507</v>
+      </c>
+      <c r="AW11" s="32"/>
+      <c r="AZ11" s="33">
+        <v>35894</v>
+      </c>
+      <c r="BB11" s="20">
+        <v>47002</v>
+      </c>
+      <c r="BL11" s="29">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="12" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -1454,11 +3698,32 @@
       <c r="AR13" s="27"/>
       <c r="AS13" s="18"/>
       <c r="AT13" s="18"/>
-      <c r="AU13" s="33">
+      <c r="AU13" s="30">
         <v>47210</v>
       </c>
-    </row>
-    <row r="14" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="25">
+        <v>47405</v>
+      </c>
+      <c r="BC13" s="27"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="29">
+        <v>47403</v>
+      </c>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="18"/>
+      <c r="BM13" s="40">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="14" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -1492,13 +3757,29 @@
       <c r="AR14" s="27"/>
       <c r="AS14" s="18"/>
       <c r="AT14" s="18"/>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="27"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="27"/>
+      <c r="BJ14" s="27"/>
+      <c r="BK14" s="18"/>
+      <c r="BM14" s="27"/>
+    </row>
+    <row r="15" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1509,8 +3790,12 @@
       <c r="AP16" s="32">
         <v>47211</v>
       </c>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AW16" s="32"/>
+      <c r="BM16" s="32">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="17" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1528,7 +3813,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -1563,8 +3848,24 @@
       <c r="AR18" s="27"/>
       <c r="AS18" s="18"/>
       <c r="AT18" s="18"/>
-    </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="27"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="27"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="18"/>
+      <c r="BM18" s="27"/>
+    </row>
+    <row r="19" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +3874,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1605,8 +3906,18 @@
       <c r="AP20" s="29">
         <v>47212</v>
       </c>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AV20" s="32">
+        <v>33753</v>
+      </c>
+      <c r="AW20" s="29"/>
+      <c r="BB20" s="19">
+        <v>47005</v>
+      </c>
+      <c r="BM20" s="29">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="21" spans="2:66" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +3947,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -1683,8 +3994,28 @@
       <c r="AR22" s="27"/>
       <c r="AS22" s="18"/>
       <c r="AT22" s="18"/>
-    </row>
-    <row r="23" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="27"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="29">
+        <v>35467</v>
+      </c>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="27"/>
+      <c r="BJ22" s="27"/>
+      <c r="BK22" s="18"/>
+      <c r="BM22" s="41">
+        <v>6602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -1724,8 +4055,28 @@
       <c r="AR23" s="27"/>
       <c r="AS23" s="18"/>
       <c r="AT23" s="18"/>
-    </row>
-    <row r="24" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="27"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="27"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="27"/>
+      <c r="BM23" s="27"/>
+      <c r="BN23" s="47">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="24" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -1760,8 +4111,25 @@
       <c r="AR24" s="27"/>
       <c r="AS24" s="18"/>
       <c r="AT24" s="18"/>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="27"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="27"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="27"/>
+      <c r="BJ24" s="27"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="27"/>
+      <c r="BM24" s="27"/>
+    </row>
+    <row r="25" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -1778,7 +4146,7 @@
       <c r="Z25" s="22"/>
       <c r="AP25" s="22"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -1797,8 +4165,12 @@
       <c r="AQ26" s="31">
         <v>47215</v>
       </c>
-    </row>
-    <row r="27" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AX26" s="32"/>
+      <c r="BN26">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="27" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -1842,8 +4214,31 @@
       </c>
       <c r="AS27" s="18"/>
       <c r="AT27" s="18"/>
-    </row>
-    <row r="28" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="27"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="29">
+        <v>40987</v>
+      </c>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="25">
+        <v>46970</v>
+      </c>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="27"/>
+      <c r="BK27" s="25">
+        <v>36867</v>
+      </c>
+      <c r="BL27" s="27"/>
+      <c r="BM27" s="27"/>
+    </row>
+    <row r="28" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -1877,8 +4272,25 @@
       <c r="AR28" s="27"/>
       <c r="AS28" s="18"/>
       <c r="AT28" s="18"/>
-    </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="27"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="18"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="27"/>
+      <c r="BK28" s="18"/>
+      <c r="BL28" s="27"/>
+      <c r="BM28" s="27"/>
+    </row>
+    <row r="29" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -1888,7 +4300,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -1901,7 +4313,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -1913,8 +4325,9 @@
       <c r="R31" s="22"/>
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
-    </row>
-    <row r="32" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AX31" s="32"/>
+    </row>
+    <row r="32" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -1933,7 +4346,7 @@
         <v>47217</v>
       </c>
     </row>
-    <row r="33" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>14</v>
       </c>
@@ -1973,8 +4386,25 @@
       <c r="AR33" s="27"/>
       <c r="AS33" s="18"/>
       <c r="AT33" s="18"/>
-    </row>
-    <row r="34" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="BA33" s="18"/>
+      <c r="BB33" s="18"/>
+      <c r="BC33" s="27"/>
+      <c r="BE33" s="18"/>
+      <c r="BF33" s="18"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="18"/>
+      <c r="BI33" s="27"/>
+      <c r="BJ33" s="27"/>
+      <c r="BK33" s="18"/>
+      <c r="BL33" s="27"/>
+      <c r="BM33" s="27"/>
+    </row>
+    <row r="34" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="9" t="s">
@@ -2020,18 +4450,68 @@
       <c r="AR34" s="28"/>
       <c r="AS34" s="22"/>
       <c r="AT34" s="22"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28"/>
       <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
+      <c r="BA34" s="22"/>
+      <c r="BB34" s="22"/>
+      <c r="BC34" s="28"/>
       <c r="BD34" s="3"/>
-    </row>
-    <row r="35" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BE34" s="22"/>
+      <c r="BF34" s="22"/>
+      <c r="BG34" s="28"/>
+      <c r="BH34" s="22"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28"/>
+      <c r="BK34" s="22"/>
+      <c r="BL34" s="28"/>
+      <c r="BM34" s="28"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="3"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="3"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="3"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="3"/>
+      <c r="CT34" s="3"/>
+      <c r="CU34" s="3"/>
+      <c r="CV34" s="3"/>
+      <c r="CW34" s="3"/>
+      <c r="CX34" s="3"/>
+      <c r="CY34" s="3"/>
+      <c r="CZ34" s="3"/>
+      <c r="DA34" s="3"/>
+      <c r="DB34" s="3"/>
+    </row>
+    <row r="35" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="9" t="s">
@@ -2079,18 +4559,68 @@
       </c>
       <c r="AS35" s="22"/>
       <c r="AT35" s="22"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="28"/>
       <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
+      <c r="BC35" s="28"/>
       <c r="BD35" s="3"/>
-    </row>
-    <row r="36" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="28"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="28"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="28"/>
+      <c r="BM35" s="28"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="3"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="3"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="3"/>
+    </row>
+    <row r="36" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="9" t="s">
@@ -2134,18 +4664,70 @@
       <c r="AR36" s="28"/>
       <c r="AS36" s="22"/>
       <c r="AT36" s="22"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
+      <c r="AU36" s="28"/>
+      <c r="AV36" s="28"/>
       <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
+      <c r="AX36" s="28"/>
+      <c r="AY36" s="29"/>
       <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="32">
+        <v>48382</v>
+      </c>
       <c r="BD36" s="3"/>
-    </row>
-    <row r="37" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
+      <c r="BG36" s="28"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="28"/>
+      <c r="BJ36" s="28"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="28"/>
+      <c r="BM36" s="28"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="3"/>
+      <c r="CF36" s="3"/>
+      <c r="CG36" s="3"/>
+      <c r="CH36" s="3"/>
+      <c r="CI36" s="3"/>
+      <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="3"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="3"/>
+      <c r="DB36" s="3"/>
+    </row>
+    <row r="37" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="9" t="s">
@@ -2189,18 +4771,68 @@
       <c r="AR37" s="28"/>
       <c r="AS37" s="22"/>
       <c r="AT37" s="22"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="28"/>
       <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
+      <c r="AX37" s="28"/>
+      <c r="AY37" s="28"/>
       <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
-      <c r="BC37" s="3"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="28"/>
       <c r="BD37" s="3"/>
-    </row>
-    <row r="38" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="28"/>
+      <c r="BM37" s="28"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="3"/>
+      <c r="BS37" s="3"/>
+      <c r="BT37" s="3"/>
+      <c r="BU37" s="3"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="3"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+      <c r="CH37" s="3"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="3"/>
+      <c r="CM37" s="3"/>
+      <c r="CN37" s="3"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="3"/>
+      <c r="CS37" s="3"/>
+      <c r="CT37" s="3"/>
+      <c r="CU37" s="3"/>
+      <c r="CV37" s="3"/>
+      <c r="CW37" s="3"/>
+      <c r="CX37" s="3"/>
+      <c r="CY37" s="3"/>
+      <c r="CZ37" s="3"/>
+      <c r="DA37" s="3"/>
+      <c r="DB37" s="3"/>
+    </row>
+    <row r="38" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>15</v>
       </c>
@@ -2233,8 +4865,24 @@
       <c r="AR38" s="27"/>
       <c r="AS38" s="18"/>
       <c r="AT38" s="18"/>
-    </row>
-    <row r="39" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="27"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="27"/>
+      <c r="BH38" s="18"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="18"/>
+      <c r="BL38" s="27"/>
+      <c r="BM38" s="27"/>
+    </row>
+    <row r="39" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="9" t="s">
         <v>33</v>
@@ -2273,25 +4921,24 @@
       <c r="AR39" s="39"/>
       <c r="AS39" s="36"/>
       <c r="AT39" s="36"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
       <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
       <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
+      <c r="BA39" s="36"/>
+      <c r="BC39" s="39"/>
       <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="2"/>
+      <c r="BE39" s="36"/>
+      <c r="BF39" s="36"/>
+      <c r="BG39" s="39"/>
+      <c r="BH39" s="36"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="39"/>
+      <c r="BK39" s="36"/>
+      <c r="BL39" s="39"/>
+      <c r="BM39" s="39"/>
       <c r="BN39" s="2"/>
       <c r="BO39" s="2"/>
       <c r="BP39" s="2"/>
@@ -2408,9 +5055,8 @@
       <c r="FW39" s="2"/>
       <c r="FX39" s="2"/>
       <c r="FY39" s="2"/>
-      <c r="FZ39" s="2"/>
-    </row>
-    <row r="40" spans="1:182" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
         <v>34</v>
@@ -2444,25 +5090,24 @@
       <c r="AR40" s="39"/>
       <c r="AS40" s="36"/>
       <c r="AT40" s="36"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
+      <c r="AU40" s="39"/>
+      <c r="AV40" s="39"/>
       <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
+      <c r="AX40" s="39"/>
+      <c r="AY40" s="39"/>
       <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
+      <c r="BA40" s="36"/>
+      <c r="BC40" s="39"/>
       <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
-      <c r="BM40" s="2"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="39"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="39"/>
+      <c r="BJ40" s="39"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="39"/>
+      <c r="BM40" s="39"/>
       <c r="BN40" s="2"/>
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
@@ -2579,9 +5224,8 @@
       <c r="FW40" s="2"/>
       <c r="FX40" s="2"/>
       <c r="FY40" s="2"/>
-      <c r="FZ40" s="2"/>
-    </row>
-    <row r="41" spans="1:182" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="9" t="s">
         <v>35</v>
@@ -2618,25 +5262,28 @@
       <c r="AR41" s="39"/>
       <c r="AS41" s="36"/>
       <c r="AT41" s="36"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
       <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
       <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
+      <c r="BA41" s="36"/>
+      <c r="BC41" s="29">
+        <v>4279</v>
+      </c>
       <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
-      <c r="BM41" s="2"/>
+      <c r="BE41" s="36"/>
+      <c r="BF41" s="36"/>
+      <c r="BG41" s="32">
+        <v>18087</v>
+      </c>
+      <c r="BH41" s="36"/>
+      <c r="BI41" s="39"/>
+      <c r="BJ41" s="39"/>
+      <c r="BK41" s="36"/>
+      <c r="BL41" s="39"/>
+      <c r="BM41" s="39"/>
       <c r="BN41" s="2"/>
       <c r="BO41" s="2"/>
       <c r="BP41" s="2"/>
@@ -2753,9 +5400,8 @@
       <c r="FW41" s="2"/>
       <c r="FX41" s="2"/>
       <c r="FY41" s="2"/>
-      <c r="FZ41" s="2"/>
-    </row>
-    <row r="42" spans="1:182" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
         <v>36</v>
@@ -2790,25 +5436,25 @@
         <v>47219</v>
       </c>
       <c r="AT42" s="36"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
+      <c r="AU42" s="39"/>
+      <c r="AV42" s="39"/>
       <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
+      <c r="AX42" s="39"/>
+      <c r="AY42" s="29"/>
       <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="39"/>
       <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42" s="2"/>
-      <c r="BM42" s="2"/>
+      <c r="BE42" s="36"/>
+      <c r="BF42" s="36"/>
+      <c r="BG42" s="39"/>
+      <c r="BH42" s="36"/>
+      <c r="BI42" s="39"/>
+      <c r="BJ42" s="39"/>
+      <c r="BK42" s="36"/>
+      <c r="BL42" s="39"/>
+      <c r="BM42" s="39"/>
       <c r="BN42" s="2"/>
       <c r="BO42" s="2"/>
       <c r="BP42" s="2"/>
@@ -2925,9 +5571,8 @@
       <c r="FW42" s="2"/>
       <c r="FX42" s="2"/>
       <c r="FY42" s="2"/>
-      <c r="FZ42" s="2"/>
-    </row>
-    <row r="43" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>16</v>
       </c>
@@ -2961,8 +5606,24 @@
       <c r="AR43" s="27"/>
       <c r="AS43" s="18"/>
       <c r="AT43" s="18"/>
-    </row>
-    <row r="44" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="BA43" s="18"/>
+      <c r="BB43" s="18"/>
+      <c r="BC43" s="27"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="27"/>
+      <c r="BJ43" s="27"/>
+      <c r="BK43" s="18"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+    </row>
+    <row r="44" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="9" t="s">
         <v>38</v>
@@ -2974,8 +5635,12 @@
       <c r="AS44" s="1">
         <v>47220</v>
       </c>
-    </row>
-    <row r="45" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="AW44" s="3"/>
+      <c r="AY44" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="9" t="s">
         <v>39</v>
@@ -2993,8 +5658,9 @@
       </c>
       <c r="X45" s="22"/>
       <c r="Z45" s="22"/>
-    </row>
-    <row r="46" spans="1:182" x14ac:dyDescent="0.3">
+      <c r="AW45" s="3"/>
+    </row>
+    <row r="46" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -3003,8 +5669,9 @@
       <c r="R46" s="22"/>
       <c r="X46" s="22"/>
       <c r="Z46" s="22"/>
-    </row>
-    <row r="47" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AW46" s="3"/>
+    </row>
+    <row r="47" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>17</v>
       </c>
@@ -3048,8 +5715,24 @@
       <c r="AT47" s="21">
         <v>47221</v>
       </c>
-    </row>
-    <row r="48" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27"/>
+      <c r="AX47" s="27"/>
+      <c r="AY47" s="40"/>
+      <c r="BA47" s="18"/>
+      <c r="BB47" s="18"/>
+      <c r="BC47" s="27"/>
+      <c r="BE47" s="18"/>
+      <c r="BF47" s="18"/>
+      <c r="BG47" s="27"/>
+      <c r="BH47" s="18"/>
+      <c r="BI47" s="27"/>
+      <c r="BJ47" s="27"/>
+      <c r="BK47" s="18"/>
+      <c r="BL47" s="27"/>
+      <c r="BM47" s="27"/>
+    </row>
+    <row r="48" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>18</v>
       </c>
@@ -3095,8 +5778,24 @@
       <c r="AT48" s="25">
         <v>47222</v>
       </c>
-    </row>
-    <row r="49" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU48" s="27"/>
+      <c r="AV48" s="27"/>
+      <c r="AX48" s="27"/>
+      <c r="AY48" s="40"/>
+      <c r="BA48" s="18"/>
+      <c r="BB48" s="18"/>
+      <c r="BC48" s="27"/>
+      <c r="BE48" s="18"/>
+      <c r="BF48" s="18"/>
+      <c r="BG48" s="27"/>
+      <c r="BH48" s="18"/>
+      <c r="BI48" s="27"/>
+      <c r="BJ48" s="27"/>
+      <c r="BK48" s="18"/>
+      <c r="BL48" s="27"/>
+      <c r="BM48" s="27"/>
+    </row>
+    <row r="49" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>19</v>
       </c>
@@ -3130,8 +5829,25 @@
       <c r="AR49" s="27"/>
       <c r="AS49" s="18"/>
       <c r="AT49" s="18"/>
-    </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="27"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="BA49" s="18"/>
+      <c r="BB49" s="18"/>
+      <c r="BC49" s="27"/>
+      <c r="BE49" s="18"/>
+      <c r="BF49" s="18"/>
+      <c r="BG49" s="27"/>
+      <c r="BH49" s="18"/>
+      <c r="BI49" s="27"/>
+      <c r="BJ49" s="27"/>
+      <c r="BK49" s="18"/>
+      <c r="BL49" s="27"/>
+      <c r="BM49" s="27"/>
+    </row>
+    <row r="50" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="9" t="s">
         <v>44</v>
@@ -3147,11 +5863,15 @@
       <c r="AG50" s="20">
         <v>40735</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AU50" s="39">
         <v>47016</v>
       </c>
-    </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AV50" s="32">
+        <v>28239</v>
+      </c>
+      <c r="AY50" s="32"/>
+    </row>
+    <row r="51" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
         <v>45</v>
@@ -3160,8 +5880,11 @@
       <c r="R51" s="22"/>
       <c r="X51" s="22"/>
       <c r="Z51" s="22"/>
-    </row>
-    <row r="52" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH51" s="20">
+        <v>33191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>20</v>
       </c>
@@ -3195,8 +5918,25 @@
       <c r="AR52" s="27"/>
       <c r="AS52" s="18"/>
       <c r="AT52" s="18"/>
-    </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU52" s="27"/>
+      <c r="AV52" s="27"/>
+      <c r="AW52" s="27"/>
+      <c r="AX52" s="27"/>
+      <c r="AY52" s="27"/>
+      <c r="BA52" s="18"/>
+      <c r="BB52" s="18"/>
+      <c r="BC52" s="27"/>
+      <c r="BE52" s="18"/>
+      <c r="BF52" s="18"/>
+      <c r="BG52" s="27"/>
+      <c r="BH52" s="18"/>
+      <c r="BI52" s="27"/>
+      <c r="BJ52" s="27"/>
+      <c r="BK52" s="18"/>
+      <c r="BL52" s="27"/>
+      <c r="BM52" s="27"/>
+    </row>
+    <row r="53" spans="2:65" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
@@ -3209,18 +5949,25 @@
       <c r="AG53" s="33">
         <v>40736</v>
       </c>
-      <c r="AU53" s="2">
+      <c r="AU53" s="39">
         <v>47017</v>
       </c>
-    </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AV53" s="32">
+        <v>28240</v>
+      </c>
+      <c r="AY53" s="32"/>
+    </row>
+    <row r="54" spans="2:65" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="22"/>
-    </row>
-    <row r="55" spans="2:47" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BH54" s="20">
+        <v>33192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>21</v>
       </c>
@@ -3254,8 +6001,25 @@
       <c r="AR55" s="27"/>
       <c r="AS55" s="18"/>
       <c r="AT55" s="18"/>
-    </row>
-    <row r="56" spans="2:47" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU55" s="27"/>
+      <c r="AV55" s="27"/>
+      <c r="AW55" s="27"/>
+      <c r="AX55" s="27"/>
+      <c r="AY55" s="27"/>
+      <c r="BA55" s="18"/>
+      <c r="BB55" s="18"/>
+      <c r="BC55" s="27"/>
+      <c r="BE55" s="18"/>
+      <c r="BF55" s="18"/>
+      <c r="BG55" s="27"/>
+      <c r="BH55" s="18"/>
+      <c r="BI55" s="27"/>
+      <c r="BJ55" s="27"/>
+      <c r="BK55" s="18"/>
+      <c r="BL55" s="27"/>
+      <c r="BM55" s="27"/>
+    </row>
+    <row r="56" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>44</v>
@@ -3266,22 +6030,29 @@
         <v>47225</v>
       </c>
       <c r="AF56" s="36"/>
-      <c r="AG56" s="40">
+      <c r="AG56" s="33">
         <v>40737</v>
       </c>
-      <c r="AU56" s="2">
+      <c r="AU56" s="39">
         <v>47018</v>
       </c>
-    </row>
-    <row r="57" spans="2:47" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AV56" s="32">
+        <v>28241</v>
+      </c>
+      <c r="AY56" s="32"/>
+    </row>
+    <row r="57" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="22"/>
-    </row>
-    <row r="58" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BH57" s="20">
+        <v>33193</v>
+      </c>
+    </row>
+    <row r="58" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>22</v>
       </c>
@@ -3322,8 +6093,25 @@
       <c r="AR58" s="27"/>
       <c r="AS58" s="18"/>
       <c r="AT58" s="18"/>
-    </row>
-    <row r="59" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU58" s="27"/>
+      <c r="AV58" s="27"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="27"/>
+      <c r="AY58" s="42"/>
+      <c r="BA58" s="18"/>
+      <c r="BB58" s="18"/>
+      <c r="BC58" s="27"/>
+      <c r="BE58" s="18"/>
+      <c r="BF58" s="18"/>
+      <c r="BG58" s="27"/>
+      <c r="BH58" s="18"/>
+      <c r="BI58" s="27"/>
+      <c r="BJ58" s="27"/>
+      <c r="BK58" s="18"/>
+      <c r="BL58" s="27"/>
+      <c r="BM58" s="27"/>
+    </row>
+    <row r="59" spans="2:65" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>23</v>
       </c>
@@ -3357,8 +6145,25 @@
       <c r="AR59" s="27"/>
       <c r="AS59" s="18"/>
       <c r="AT59" s="18"/>
-    </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="BA59" s="18"/>
+      <c r="BB59" s="18"/>
+      <c r="BC59" s="27"/>
+      <c r="BE59" s="18"/>
+      <c r="BF59" s="18"/>
+      <c r="BG59" s="27"/>
+      <c r="BH59" s="18"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="27"/>
+      <c r="BK59" s="18"/>
+      <c r="BL59" s="27"/>
+      <c r="BM59" s="27"/>
+    </row>
+    <row r="60" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="9" t="s">
         <v>50</v>
@@ -3366,14 +6171,15 @@
       <c r="AI60" s="33">
         <v>45257</v>
       </c>
-    </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="AY60" s="32"/>
+    </row>
+    <row r="61" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="9" t="s">
         <v>52</v>
@@ -3388,7 +6194,7 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="9" t="s">
         <v>53</v>
@@ -3397,7 +6203,7 @@
         <v>47020</v>
       </c>
     </row>
-    <row r="64" spans="2:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>24</v>
       </c>
@@ -3441,8 +6247,39 @@
       <c r="AR64" s="27"/>
       <c r="AS64" s="18"/>
       <c r="AT64" s="18"/>
-    </row>
-    <row r="65" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU64" s="27"/>
+      <c r="AV64" s="27"/>
+      <c r="AW64" s="27"/>
+      <c r="AX64" s="27"/>
+      <c r="AY64" s="27"/>
+      <c r="AZ64" s="44">
+        <v>4643</v>
+      </c>
+      <c r="BA64" s="18"/>
+      <c r="BB64" s="18"/>
+      <c r="BC64" s="27"/>
+      <c r="BD64" s="15">
+        <v>45258</v>
+      </c>
+      <c r="BE64" s="20">
+        <v>27699</v>
+      </c>
+      <c r="BF64" s="25">
+        <v>40740</v>
+      </c>
+      <c r="BG64" s="33">
+        <v>37159</v>
+      </c>
+      <c r="BH64" s="19">
+        <v>47021</v>
+      </c>
+      <c r="BI64" s="27"/>
+      <c r="BJ64" s="27"/>
+      <c r="BK64" s="18"/>
+      <c r="BL64" s="27"/>
+      <c r="BM64" s="27"/>
+    </row>
+    <row r="65" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>25</v>
       </c>
@@ -3481,8 +6318,34 @@
       <c r="AR65" s="27"/>
       <c r="AS65" s="18"/>
       <c r="AT65" s="18"/>
-    </row>
-    <row r="66" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU65" s="27"/>
+      <c r="AV65" s="27"/>
+      <c r="AW65" s="27"/>
+      <c r="AX65" s="27"/>
+      <c r="AY65" s="27"/>
+      <c r="AZ65" s="44">
+        <v>4311</v>
+      </c>
+      <c r="BA65" s="18"/>
+      <c r="BB65" s="18"/>
+      <c r="BC65" s="27"/>
+      <c r="BE65" s="18"/>
+      <c r="BF65" s="20">
+        <v>47229</v>
+      </c>
+      <c r="BG65" s="31">
+        <v>45259</v>
+      </c>
+      <c r="BH65" s="18"/>
+      <c r="BI65" s="45">
+        <v>40741</v>
+      </c>
+      <c r="BJ65" s="27"/>
+      <c r="BK65" s="18"/>
+      <c r="BL65" s="27"/>
+      <c r="BM65" s="27"/>
+    </row>
+    <row r="66" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>26</v>
       </c>
@@ -3510,16 +6373,35 @@
       <c r="AK66" s="18"/>
       <c r="AL66" s="18"/>
       <c r="AN66" s="18"/>
-      <c r="AO66" s="36">
-        <v>47230</v>
-      </c>
+      <c r="AO66" s="18"/>
       <c r="AP66" s="27"/>
       <c r="AQ66" s="27"/>
       <c r="AR66" s="27"/>
       <c r="AS66" s="18"/>
       <c r="AT66" s="18"/>
-    </row>
-    <row r="67" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU66" s="27"/>
+      <c r="AV66" s="27"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="27"/>
+      <c r="AY66" s="27"/>
+      <c r="BA66" s="18"/>
+      <c r="BB66" s="18"/>
+      <c r="BC66" s="27"/>
+      <c r="BE66" s="18"/>
+      <c r="BF66" s="18"/>
+      <c r="BG66" s="30">
+        <v>47230</v>
+      </c>
+      <c r="BH66" s="18"/>
+      <c r="BI66" s="27"/>
+      <c r="BJ66" s="33">
+        <v>46984</v>
+      </c>
+      <c r="BK66" s="18"/>
+      <c r="BL66" s="27"/>
+      <c r="BM66" s="27"/>
+    </row>
+    <row r="67" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>27</v>
       </c>
@@ -3553,37 +6435,56 @@
       <c r="AR67" s="27"/>
       <c r="AS67" s="18"/>
       <c r="AT67" s="18"/>
-    </row>
-    <row r="68" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AU67" s="27"/>
+      <c r="AV67" s="27"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="27"/>
+      <c r="AY67" s="27"/>
+      <c r="BA67" s="18"/>
+      <c r="BB67" s="18"/>
+      <c r="BC67" s="27"/>
+      <c r="BE67" s="18"/>
+      <c r="BF67" s="18"/>
+      <c r="BG67" s="27"/>
+      <c r="BH67" s="18"/>
+      <c r="BI67" s="27"/>
+      <c r="BJ67" s="27"/>
+      <c r="BK67" s="18"/>
+      <c r="BL67" s="27"/>
+      <c r="BM67" s="27"/>
+    </row>
+    <row r="68" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AE1:AF1"/>
+  <mergeCells count="15">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AE1:AF1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=10279" xr:uid="{14373AB1-311C-432C-9786-979AC0659BEF}"/>
@@ -3686,31 +6587,59 @@
     <hyperlink ref="AM64" r:id="rId98" display="https://inf-ege.sdamgia.ru/problem?id=47228" xr:uid="{8F080FFB-09FD-4E4A-8A5C-5D8AA85FB81B}"/>
     <hyperlink ref="AM65" r:id="rId99" display="https://inf-ege.sdamgia.ru/problem?id=28124" xr:uid="{D3D36983-33AF-42EC-9D87-8B631FD6D76E}"/>
     <hyperlink ref="AN65" r:id="rId100" display="https://inf-ege.sdamgia.ru/problem?id=47022" xr:uid="{80A3474D-D86B-4A1C-B7D8-2F7ECB90B2DA}"/>
-    <hyperlink ref="AO66" r:id="rId101" display="https://inf-ege.sdamgia.ru/problem?id=47230" xr:uid="{C313480B-5CEA-45B5-8A9D-45F1D799E6ED}"/>
-    <hyperlink ref="AP4" r:id="rId102" display="https://inf-ege.sdamgia.ru/problem?id=47205" xr:uid="{7EA55648-47FA-4A43-8C17-C362D79B4737}"/>
-    <hyperlink ref="AP5" r:id="rId103" display="https://inf-ege.sdamgia.ru/problem?id=47206" xr:uid="{D8C539B1-DD5D-44EA-90EC-281F050D78C8}"/>
-    <hyperlink ref="AP6" r:id="rId104" display="https://inf-ege.sdamgia.ru/problem?id=47207" xr:uid="{EF00E46D-2B99-4637-AB2A-C6CE336A0A55}"/>
-    <hyperlink ref="AP9" r:id="rId105" display="https://inf-ege.sdamgia.ru/problem?id=47208" xr:uid="{B5CDB61E-68A1-4DE4-8A6D-54F1464FCABC}"/>
-    <hyperlink ref="AP11" r:id="rId106" display="https://inf-ege.sdamgia.ru/problem?id=47209" xr:uid="{9FE8C624-2691-4F00-8F9C-37BDDA5ACB36}"/>
-    <hyperlink ref="AP16" r:id="rId107" display="https://inf-ege.sdamgia.ru/problem?id=47211" xr:uid="{13140801-278C-428F-857F-4A0CA1F984ED}"/>
-    <hyperlink ref="AP20" r:id="rId108" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{8AF71B45-84AF-460C-A6A5-CCECE60CF8DB}"/>
-    <hyperlink ref="AQ22" r:id="rId109" display="https://inf-ege.sdamgia.ru/problem?id=47213" xr:uid="{B4E303A1-EB5A-4D09-8452-EFA525955365}"/>
-    <hyperlink ref="AQ23" r:id="rId110" display="https://inf-ege.sdamgia.ru/problem?id=47214" xr:uid="{7373EAD2-F7C5-483C-8B3E-22704F96B183}"/>
-    <hyperlink ref="AQ26" r:id="rId111" display="https://inf-ege.sdamgia.ru/problem?id=47215" xr:uid="{B1F96754-BC05-4DA8-B13A-04D348B7E05A}"/>
-    <hyperlink ref="AR27" r:id="rId112" display="https://inf-ege.sdamgia.ru/problem?id=47216" xr:uid="{C2DB0579-F412-4211-B1E3-B2F2BBD6E32D}"/>
-    <hyperlink ref="AR32" r:id="rId113" display="https://inf-ege.sdamgia.ru/problem?id=47217" xr:uid="{27BEFDC2-8CFD-4C56-B0E9-F3D1524315FE}"/>
-    <hyperlink ref="AR35" r:id="rId114" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{7AB1B296-673D-4C84-B445-DEEADC6254BE}"/>
-    <hyperlink ref="AS42" r:id="rId115" display="https://inf-ege.sdamgia.ru/problem?id=47219" xr:uid="{B5BFA623-08F7-4888-8129-365A2F51589D}"/>
-    <hyperlink ref="AS44" r:id="rId116" display="https://inf-ege.sdamgia.ru/problem?id=47220" xr:uid="{8CA7A2FD-1E9D-4C67-8FD4-ADC10FCF41B5}"/>
-    <hyperlink ref="AT47" r:id="rId117" display="https://inf-ege.sdamgia.ru/problem?id=47221" xr:uid="{14AF291A-64CB-464A-A32E-CC46B1CFA3A0}"/>
-    <hyperlink ref="AT48" r:id="rId118" display="https://inf-ege.sdamgia.ru/problem?id=47222" xr:uid="{CECE3B59-E126-4DCF-AB93-682F7B9FAFC4}"/>
-    <hyperlink ref="AU13" r:id="rId119" display="https://inf-ege.sdamgia.ru/problem?id=47210" xr:uid="{FE523EF3-13D4-414F-82A0-780B83C8B6CF}"/>
-    <hyperlink ref="AU50" r:id="rId120" display="https://inf-ege.sdamgia.ru/problem?id=47016" xr:uid="{180D7899-40AC-43D9-BEA9-2CE1F67D329C}"/>
-    <hyperlink ref="AU53" r:id="rId121" display="https://inf-ege.sdamgia.ru/problem?id=47017" xr:uid="{9BA9BB8A-7004-4C16-BA87-B8D6713B446B}"/>
-    <hyperlink ref="AU56" r:id="rId122" display="https://inf-ege.sdamgia.ru/problem?id=47018" xr:uid="{F9A89BF4-93B3-4181-93D2-7648AE257AAD}"/>
+    <hyperlink ref="AP4" r:id="rId101" display="https://inf-ege.sdamgia.ru/problem?id=47205" xr:uid="{7EA55648-47FA-4A43-8C17-C362D79B4737}"/>
+    <hyperlink ref="AP5" r:id="rId102" display="https://inf-ege.sdamgia.ru/problem?id=47206" xr:uid="{D8C539B1-DD5D-44EA-90EC-281F050D78C8}"/>
+    <hyperlink ref="AP6" r:id="rId103" display="https://inf-ege.sdamgia.ru/problem?id=47207" xr:uid="{EF00E46D-2B99-4637-AB2A-C6CE336A0A55}"/>
+    <hyperlink ref="AP9" r:id="rId104" display="https://inf-ege.sdamgia.ru/problem?id=47208" xr:uid="{B5CDB61E-68A1-4DE4-8A6D-54F1464FCABC}"/>
+    <hyperlink ref="AP11" r:id="rId105" display="https://inf-ege.sdamgia.ru/problem?id=47209" xr:uid="{9FE8C624-2691-4F00-8F9C-37BDDA5ACB36}"/>
+    <hyperlink ref="AP16" r:id="rId106" display="https://inf-ege.sdamgia.ru/problem?id=47211" xr:uid="{13140801-278C-428F-857F-4A0CA1F984ED}"/>
+    <hyperlink ref="AP20" r:id="rId107" display="https://inf-ege.sdamgia.ru/problem?id=47212" xr:uid="{8AF71B45-84AF-460C-A6A5-CCECE60CF8DB}"/>
+    <hyperlink ref="AQ22" r:id="rId108" display="https://inf-ege.sdamgia.ru/problem?id=47213" xr:uid="{B4E303A1-EB5A-4D09-8452-EFA525955365}"/>
+    <hyperlink ref="AQ23" r:id="rId109" display="https://inf-ege.sdamgia.ru/problem?id=47214" xr:uid="{7373EAD2-F7C5-483C-8B3E-22704F96B183}"/>
+    <hyperlink ref="AQ26" r:id="rId110" display="https://inf-ege.sdamgia.ru/problem?id=47215" xr:uid="{B1F96754-BC05-4DA8-B13A-04D348B7E05A}"/>
+    <hyperlink ref="AR27" r:id="rId111" display="https://inf-ege.sdamgia.ru/problem?id=47216" xr:uid="{C2DB0579-F412-4211-B1E3-B2F2BBD6E32D}"/>
+    <hyperlink ref="AR32" r:id="rId112" display="https://inf-ege.sdamgia.ru/problem?id=47217" xr:uid="{27BEFDC2-8CFD-4C56-B0E9-F3D1524315FE}"/>
+    <hyperlink ref="AR35" r:id="rId113" display="https://inf-ege.sdamgia.ru/problem?id=47218" xr:uid="{7AB1B296-673D-4C84-B445-DEEADC6254BE}"/>
+    <hyperlink ref="AS42" r:id="rId114" display="https://inf-ege.sdamgia.ru/problem?id=47219" xr:uid="{B5BFA623-08F7-4888-8129-365A2F51589D}"/>
+    <hyperlink ref="AS44" r:id="rId115" display="https://inf-ege.sdamgia.ru/problem?id=47220" xr:uid="{8CA7A2FD-1E9D-4C67-8FD4-ADC10FCF41B5}"/>
+    <hyperlink ref="AT47" r:id="rId116" display="https://inf-ege.sdamgia.ru/problem?id=47221" xr:uid="{14AF291A-64CB-464A-A32E-CC46B1CFA3A0}"/>
+    <hyperlink ref="AT48" r:id="rId117" display="https://inf-ege.sdamgia.ru/problem?id=47222" xr:uid="{CECE3B59-E126-4DCF-AB93-682F7B9FAFC4}"/>
+    <hyperlink ref="AU13" r:id="rId118" display="https://inf-ege.sdamgia.ru/problem?id=47210" xr:uid="{FE523EF3-13D4-414F-82A0-780B83C8B6CF}"/>
+    <hyperlink ref="AU50" r:id="rId119" display="https://inf-ege.sdamgia.ru/problem?id=47016" xr:uid="{180D7899-40AC-43D9-BEA9-2CE1F67D329C}"/>
+    <hyperlink ref="AU53" r:id="rId120" display="https://inf-ege.sdamgia.ru/problem?id=47017" xr:uid="{9BA9BB8A-7004-4C16-BA87-B8D6713B446B}"/>
+    <hyperlink ref="AU56" r:id="rId121" display="https://inf-ege.sdamgia.ru/problem?id=47018" xr:uid="{F9A89BF4-93B3-4181-93D2-7648AE257AAD}"/>
+    <hyperlink ref="AV50" r:id="rId122" display="https://inf-ege.sdamgia.ru/problem?id=28239" xr:uid="{9DF3E5F0-F935-4F6D-BA05-78A3E0943826}"/>
+    <hyperlink ref="AV53" r:id="rId123" display="https://inf-ege.sdamgia.ru/problem?id=28240" xr:uid="{7CD735FC-92A0-4686-9D92-5828A049B722}"/>
+    <hyperlink ref="AV56" r:id="rId124" display="https://inf-ege.sdamgia.ru/problem?id=28241" xr:uid="{693829A6-8A16-42C3-B7D6-2C690D99921D}"/>
+    <hyperlink ref="AV20" r:id="rId125" display="https://inf-ege.sdamgia.ru/problem?id=33753" xr:uid="{E9C8E3FF-F050-4F7F-8579-988A78629F97}"/>
+    <hyperlink ref="AV11" r:id="rId126" display="https://inf-ege.sdamgia.ru/problem?id=33507" xr:uid="{B8346B37-81F7-434A-9B7E-370AB5D3516B}"/>
+    <hyperlink ref="AZ11" r:id="rId127" display="https://inf-ege.sdamgia.ru/problem?id=35894" xr:uid="{0D7C5227-8F2A-4A08-BB61-8F89471EE2F8}"/>
+    <hyperlink ref="BB11" r:id="rId128" display="https://inf-ege.sdamgia.ru/problem?id=47002" xr:uid="{2FA2A286-56AC-42F2-BD04-2EE6A422C10B}"/>
+    <hyperlink ref="BB13" r:id="rId129" display="https://inf-ege.sdamgia.ru/problem?id=47405" xr:uid="{51A97EB9-4729-4071-9FDA-9097BA72B4A3}"/>
+    <hyperlink ref="BB20" r:id="rId130" display="https://inf-ege.sdamgia.ru/problem?id=47005" xr:uid="{FD96C04C-8014-4442-A83E-6199FDF48F95}"/>
+    <hyperlink ref="BC22" r:id="rId131" display="https://inf-ege.sdamgia.ru/problem?id=35467" xr:uid="{1A407241-23FE-4C3A-92EB-823AEE623B06}"/>
+    <hyperlink ref="BC27" r:id="rId132" display="https://inf-ege.sdamgia.ru/problem?id=40987" xr:uid="{F12409F4-D7F9-4303-9308-A87F22C85F36}"/>
+    <hyperlink ref="BC36" r:id="rId133" display="https://inf-ege.sdamgia.ru/problem?id=48382" xr:uid="{56111A0B-D858-419E-B9D4-87CA4053A54B}"/>
+    <hyperlink ref="BD64" r:id="rId134" display="https://inf-ege.sdamgia.ru/problem?id=45258" xr:uid="{B8D47F49-E4B6-4B4C-94BE-F987C52BEB89}"/>
+    <hyperlink ref="BE64" r:id="rId135" display="https://inf-ege.sdamgia.ru/problem?id=27699" xr:uid="{A01586EE-E68C-4163-9CF2-932067B754AC}"/>
+    <hyperlink ref="BF65" r:id="rId136" display="https://inf-ege.sdamgia.ru/problem?id=47229" xr:uid="{938C5421-58E4-4B7F-8B06-BF97F5CE84E6}"/>
+    <hyperlink ref="BF64" r:id="rId137" display="https://inf-ege.sdamgia.ru/problem?id=40740" xr:uid="{2FC58B55-A99C-442B-9DB3-FE2BD0FD226F}"/>
+    <hyperlink ref="BG64" r:id="rId138" display="https://inf-ege.sdamgia.ru/problem?id=37159" xr:uid="{0CFE3F5D-8ECF-406E-A077-6D17499FC3E0}"/>
+    <hyperlink ref="BG41" r:id="rId139" display="https://inf-ege.sdamgia.ru/problem?id=18087" xr:uid="{95BAFB29-4DEF-48EA-96AD-0F64F152E61C}"/>
+    <hyperlink ref="BG66" r:id="rId140" display="https://inf-ege.sdamgia.ru/problem?id=47230" xr:uid="{A7535563-9224-4E96-A5E0-4FC1156CC173}"/>
+    <hyperlink ref="BG65" r:id="rId141" display="https://inf-ege.sdamgia.ru/problem?id=45259" xr:uid="{CDCF6619-F237-4089-8F43-BF6D6FE776A1}"/>
+    <hyperlink ref="BH57" r:id="rId142" display="https://inf-ege.sdamgia.ru/problem?id=33193" xr:uid="{9FE57C6A-41B6-4CE2-B7BB-FE9A14F4EC63}"/>
+    <hyperlink ref="BH54" r:id="rId143" display="https://inf-ege.sdamgia.ru/problem?id=33192" xr:uid="{A9A2FF46-3428-4A93-8DAD-9502AD649429}"/>
+    <hyperlink ref="BH51" r:id="rId144" display="https://inf-ege.sdamgia.ru/problem?id=33191" xr:uid="{01E93112-99E9-4BEA-BE07-9AF00F195701}"/>
+    <hyperlink ref="BH64" r:id="rId145" display="https://inf-ege.sdamgia.ru/problem?id=47021" xr:uid="{86E0C118-82F4-49A1-A3A5-87F98C5B8F53}"/>
+    <hyperlink ref="BH27" r:id="rId146" display="https://inf-ege.sdamgia.ru/problem?id=46970" xr:uid="{DE6CBA3B-DCB5-474E-A658-C05A9E8ECED5}"/>
+    <hyperlink ref="BI65" r:id="rId147" display="https://inf-ege.sdamgia.ru/problem?id=40741" xr:uid="{1625BE17-C8D6-4201-A425-0CAFAEEB1F4B}"/>
+    <hyperlink ref="BI13" r:id="rId148" display="https://inf-ege.sdamgia.ru/problem?id=47403" xr:uid="{E20CF46A-4A39-4196-962F-82BC80D1C818}"/>
+    <hyperlink ref="BJ66" r:id="rId149" display="https://inf-ege.sdamgia.ru/problem?id=46984" xr:uid="{572763F6-B109-41A7-ACC7-225383A737D8}"/>
+    <hyperlink ref="BK27" r:id="rId150" display="https://inf-ege.sdamgia.ru/problem?id=36867" xr:uid="{3F60AD8E-7A87-47AB-B556-475F9E108F7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId123"/>
+  <pageSetup orientation="portrait" r:id="rId151"/>
 </worksheet>
 </file>
 
@@ -3997,12 +6926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153CCBF5-AE5F-4D93-B87A-1B4577FF30BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:A29"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D2B13-AFA8-4D6D-80DD-10A2D62764A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E9146-35FB-4FA7-8B6E-F975A6256730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="22850" yWindow="0" windowWidth="26250" windowHeight="15610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$15:$B$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Анализ информационных моделей</t>
   </si>
@@ -227,12 +231,33 @@
   <si>
     <t>970 </t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1. Сортируем весь массив по двум полям</t>
+  </si>
+  <si>
+    <t>2. Определяем ту часть массива, которая в сумме меньше или равно 395200</t>
+  </si>
+  <si>
+    <t>3. Делим массив на 2 части</t>
+  </si>
+  <si>
+    <t>4. Сортируем каждую часть по двум полям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Заменяем каждым </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +328,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +371,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -555,16 +594,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -626,7 +681,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="6"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,9 +697,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="6" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -3006,10 +3064,10 @@
   <dimension ref="A1:FY72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BI38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ20" sqref="BQ20"/>
+      <selection pane="bottomRight" activeCell="BV27" sqref="BV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3071,91 +3129,93 @@
     <col min="62" max="62" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="65" max="68" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:72" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="51">
         <v>44791</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51">
         <v>44796</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51">
         <v>44798</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="48">
+      <c r="N1" s="50">
         <v>44819</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51">
         <v>44825</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="53">
         <v>44826</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51">
         <v>44832</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51">
         <v>44833</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53">
         <v>44838</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="51">
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53">
         <v>44840</v>
       </c>
-      <c r="AB1" s="49"/>
+      <c r="AB1" s="51"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="48">
+      <c r="AE1" s="50">
         <v>44854</v>
       </c>
-      <c r="AF1" s="49"/>
+      <c r="AF1" s="51"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
       <c r="AH1" s="26">
         <v>44861</v>
       </c>
-      <c r="AI1" s="48">
+      <c r="AI1" s="50">
         <v>44868</v>
       </c>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
       <c r="AL1" s="17">
         <v>44869</v>
       </c>
-      <c r="AM1" s="48">
+      <c r="AM1" s="50">
         <v>44875</v>
       </c>
-      <c r="AN1" s="49"/>
+      <c r="AN1" s="51"/>
       <c r="AO1" s="17">
         <v>44876</v>
       </c>
@@ -3189,20 +3249,20 @@
       <c r="AY1" s="26">
         <v>44944</v>
       </c>
-      <c r="AZ1" s="48">
+      <c r="AZ1" s="50">
         <v>44958</v>
       </c>
-      <c r="BA1" s="49"/>
+      <c r="BA1" s="51"/>
       <c r="BB1" s="17">
         <v>44959</v>
       </c>
       <c r="BC1" s="26">
         <v>44965</v>
       </c>
-      <c r="BD1" s="48">
+      <c r="BD1" s="50">
         <v>44966</v>
       </c>
-      <c r="BE1" s="49"/>
+      <c r="BE1" s="51"/>
       <c r="BF1" s="38">
         <v>44972</v>
       </c>
@@ -3227,11 +3287,29 @@
       <c r="BM1" s="26">
         <v>45001</v>
       </c>
-      <c r="BN1" s="46">
+      <c r="BN1" s="26">
         <v>45007</v>
       </c>
-    </row>
-    <row r="2" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BO1" s="26">
+        <v>45008</v>
+      </c>
+      <c r="BP1" s="26">
+        <v>45014</v>
+      </c>
+      <c r="BQ1" s="17">
+        <v>45015</v>
+      </c>
+      <c r="BR1" s="26">
+        <v>45022</v>
+      </c>
+      <c r="BS1" s="46">
+        <v>45028</v>
+      </c>
+      <c r="BT1" s="46">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="2" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -3282,8 +3360,13 @@
       <c r="BK2" s="18"/>
       <c r="BL2" s="27"/>
       <c r="BM2" s="27"/>
-    </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN2" s="27"/>
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="27"/>
+    </row>
+    <row r="3" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -3296,7 +3379,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -3319,7 +3402,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="5" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -3383,8 +3466,14 @@
         <v>6598</v>
       </c>
       <c r="BM5" s="27"/>
-    </row>
-    <row r="6" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="27"/>
+      <c r="BS5" s="48"/>
+    </row>
+    <row r="6" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -3446,8 +3535,14 @@
         <v>6600</v>
       </c>
       <c r="BM6" s="27"/>
-    </row>
-    <row r="7" spans="2:66" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BN6" s="27"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="27"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="48"/>
+    </row>
+    <row r="7" spans="2:72" s="4" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -3498,8 +3593,13 @@
       <c r="BK7" s="18"/>
       <c r="BL7" s="27"/>
       <c r="BM7" s="27"/>
-    </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN7" s="27"/>
+      <c r="BO7" s="27"/>
+      <c r="BP7" s="27"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="27"/>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -3515,7 +3615,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -3553,7 +3653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:72" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -3605,8 +3705,13 @@
       <c r="BK10" s="18"/>
       <c r="BL10" s="27"/>
       <c r="BM10" s="27"/>
-    </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN10" s="27"/>
+      <c r="BO10" s="27"/>
+      <c r="BP10" s="27"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="27"/>
+    </row>
+    <row r="11" spans="2:72" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -3636,15 +3741,16 @@
       <c r="BL11" s="29">
         <v>6588</v>
       </c>
-    </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BS11" s="48"/>
+    </row>
+    <row r="12" spans="2:72" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -3722,8 +3828,13 @@
       <c r="BM13" s="40">
         <v>6589</v>
       </c>
-    </row>
-    <row r="14" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN13" s="27"/>
+      <c r="BO13" s="27"/>
+      <c r="BP13" s="27"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="27"/>
+    </row>
+    <row r="14" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -3773,13 +3884,18 @@
       <c r="BJ14" s="27"/>
       <c r="BK14" s="18"/>
       <c r="BM14" s="27"/>
-    </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN14" s="27"/>
+      <c r="BO14" s="27"/>
+      <c r="BP14" s="27"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="27"/>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -3795,7 +3911,7 @@
         <v>6590</v>
       </c>
     </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -3813,7 +3929,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -3864,8 +3980,13 @@
       <c r="BJ18" s="27"/>
       <c r="BK18" s="18"/>
       <c r="BM18" s="27"/>
-    </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN18" s="27"/>
+      <c r="BO18" s="27"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="27"/>
+    </row>
+    <row r="19" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3995,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -3916,8 +4037,9 @@
       <c r="BM20" s="29">
         <v>6591</v>
       </c>
-    </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BS20" s="48"/>
+    </row>
+    <row r="21" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -3947,7 +4069,7 @@
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -4014,8 +4136,14 @@
       <c r="BM22" s="41">
         <v>6602</v>
       </c>
-    </row>
-    <row r="23" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN22" s="27"/>
+      <c r="BO22" s="27"/>
+      <c r="BP22" s="27"/>
+      <c r="BQ22" s="18"/>
+      <c r="BR22" s="27"/>
+      <c r="BS22" s="48"/>
+    </row>
+    <row r="23" spans="2:71" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -4072,11 +4200,15 @@
       <c r="BK23" s="18"/>
       <c r="BL23" s="27"/>
       <c r="BM23" s="27"/>
-      <c r="BN23" s="47">
+      <c r="BN23" s="40">
         <v>6606</v>
       </c>
-    </row>
-    <row r="24" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BO23" s="27"/>
+      <c r="BP23" s="27"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="27"/>
+    </row>
+    <row r="24" spans="2:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -4128,8 +4260,13 @@
       <c r="BK24" s="18"/>
       <c r="BL24" s="27"/>
       <c r="BM24" s="27"/>
-    </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN24" s="27"/>
+      <c r="BO24" s="27"/>
+      <c r="BP24" s="27"/>
+      <c r="BQ24" s="18"/>
+      <c r="BR24" s="27"/>
+    </row>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -4146,7 +4283,7 @@
       <c r="Z25" s="22"/>
       <c r="AP25" s="22"/>
     </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -4166,11 +4303,11 @@
         <v>47215</v>
       </c>
       <c r="AX26" s="32"/>
-      <c r="BN26">
+      <c r="BN26" s="32">
         <v>6592</v>
       </c>
     </row>
-    <row r="27" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -4237,8 +4374,16 @@
       </c>
       <c r="BL27" s="27"/>
       <c r="BM27" s="27"/>
-    </row>
-    <row r="28" spans="2:66" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN27" s="27">
+        <v>6604</v>
+      </c>
+      <c r="BO27" s="27"/>
+      <c r="BP27" s="27"/>
+      <c r="BQ27" s="18"/>
+      <c r="BR27" s="27"/>
+      <c r="BS27" s="48"/>
+    </row>
+    <row r="28" spans="2:71" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -4289,8 +4434,13 @@
       <c r="BK28" s="18"/>
       <c r="BL28" s="27"/>
       <c r="BM28" s="27"/>
-    </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="BN28" s="27"/>
+      <c r="BO28" s="27"/>
+      <c r="BP28" s="27"/>
+      <c r="BQ28" s="18"/>
+      <c r="BR28" s="27"/>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -4300,7 +4450,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -4313,7 +4463,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -4326,8 +4476,11 @@
       <c r="X31" s="22"/>
       <c r="Z31" s="22"/>
       <c r="AX31" s="32"/>
-    </row>
-    <row r="32" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BO31" s="32">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="32" spans="2:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -4403,6 +4556,11 @@
       <c r="BK33" s="18"/>
       <c r="BL33" s="27"/>
       <c r="BM33" s="27"/>
+      <c r="BN33" s="27"/>
+      <c r="BO33" s="27"/>
+      <c r="BP33" s="27"/>
+      <c r="BQ33" s="18"/>
+      <c r="BR33" s="27"/>
     </row>
     <row r="34" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -4469,11 +4627,11 @@
       <c r="BK34" s="22"/>
       <c r="BL34" s="28"/>
       <c r="BM34" s="28"/>
-      <c r="BN34" s="3"/>
-      <c r="BO34" s="3"/>
-      <c r="BP34" s="3"/>
-      <c r="BQ34" s="3"/>
-      <c r="BR34" s="3"/>
+      <c r="BN34" s="28"/>
+      <c r="BO34" s="28"/>
+      <c r="BP34" s="28"/>
+      <c r="BQ34" s="22"/>
+      <c r="BR34" s="28"/>
       <c r="BS34" s="3"/>
       <c r="BT34" s="3"/>
       <c r="BU34" s="3"/>
@@ -4578,11 +4736,11 @@
       <c r="BK35" s="22"/>
       <c r="BL35" s="28"/>
       <c r="BM35" s="28"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
+      <c r="BN35" s="28"/>
+      <c r="BO35" s="28"/>
+      <c r="BP35" s="28"/>
+      <c r="BQ35" s="22"/>
+      <c r="BR35" s="28"/>
       <c r="BS35" s="3"/>
       <c r="BT35" s="3"/>
       <c r="BU35" s="3"/>
@@ -4685,11 +4843,13 @@
       <c r="BK36" s="22"/>
       <c r="BL36" s="28"/>
       <c r="BM36" s="28"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
-      <c r="BP36" s="3"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
+      <c r="BN36" s="28"/>
+      <c r="BO36" s="32">
+        <v>6594</v>
+      </c>
+      <c r="BP36" s="28"/>
+      <c r="BQ36" s="22"/>
+      <c r="BR36" s="28"/>
       <c r="BS36" s="3"/>
       <c r="BT36" s="3"/>
       <c r="BU36" s="3"/>
@@ -4790,11 +4950,11 @@
       <c r="BK37" s="22"/>
       <c r="BL37" s="28"/>
       <c r="BM37" s="28"/>
-      <c r="BN37" s="3"/>
-      <c r="BO37" s="3"/>
-      <c r="BP37" s="3"/>
-      <c r="BQ37" s="3"/>
-      <c r="BR37" s="3"/>
+      <c r="BN37" s="28"/>
+      <c r="BO37" s="28"/>
+      <c r="BP37" s="28"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="28"/>
       <c r="BS37" s="3"/>
       <c r="BT37" s="3"/>
       <c r="BU37" s="3"/>
@@ -4881,6 +5041,11 @@
       <c r="BK38" s="18"/>
       <c r="BL38" s="27"/>
       <c r="BM38" s="27"/>
+      <c r="BN38" s="27"/>
+      <c r="BO38" s="27"/>
+      <c r="BP38" s="27"/>
+      <c r="BQ38" s="18"/>
+      <c r="BR38" s="27"/>
     </row>
     <row r="39" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
@@ -4939,11 +5104,11 @@
       <c r="BK39" s="36"/>
       <c r="BL39" s="39"/>
       <c r="BM39" s="39"/>
-      <c r="BN39" s="2"/>
-      <c r="BO39" s="2"/>
-      <c r="BP39" s="2"/>
-      <c r="BQ39" s="2"/>
-      <c r="BR39" s="2"/>
+      <c r="BN39" s="39"/>
+      <c r="BO39" s="39"/>
+      <c r="BP39" s="39"/>
+      <c r="BQ39" s="36"/>
+      <c r="BR39" s="39"/>
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
       <c r="BU39" s="2"/>
@@ -5108,11 +5273,11 @@
       <c r="BK40" s="36"/>
       <c r="BL40" s="39"/>
       <c r="BM40" s="39"/>
-      <c r="BN40" s="2"/>
-      <c r="BO40" s="2"/>
-      <c r="BP40" s="2"/>
-      <c r="BQ40" s="2"/>
-      <c r="BR40" s="2"/>
+      <c r="BN40" s="39"/>
+      <c r="BO40" s="47"/>
+      <c r="BP40" s="39"/>
+      <c r="BQ40" s="36"/>
+      <c r="BR40" s="39"/>
       <c r="BS40" s="2"/>
       <c r="BT40" s="2"/>
       <c r="BU40" s="2"/>
@@ -5284,11 +5449,11 @@
       <c r="BK41" s="36"/>
       <c r="BL41" s="39"/>
       <c r="BM41" s="39"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="2"/>
-      <c r="BP41" s="2"/>
-      <c r="BQ41" s="2"/>
-      <c r="BR41" s="2"/>
+      <c r="BN41" s="39"/>
+      <c r="BO41" s="39"/>
+      <c r="BP41" s="39"/>
+      <c r="BQ41" s="36"/>
+      <c r="BR41" s="39"/>
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
       <c r="BU41" s="2"/>
@@ -5455,11 +5620,13 @@
       <c r="BK42" s="36"/>
       <c r="BL42" s="39"/>
       <c r="BM42" s="39"/>
-      <c r="BN42" s="2"/>
-      <c r="BO42" s="2"/>
-      <c r="BP42" s="2"/>
-      <c r="BQ42" s="2"/>
-      <c r="BR42" s="2"/>
+      <c r="BN42" s="39"/>
+      <c r="BO42" s="32">
+        <v>6595</v>
+      </c>
+      <c r="BP42" s="39"/>
+      <c r="BQ42" s="36"/>
+      <c r="BR42" s="39"/>
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
       <c r="BU42" s="2"/>
@@ -5622,6 +5789,11 @@
       <c r="BK43" s="18"/>
       <c r="BL43" s="27"/>
       <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
+      <c r="BP43" s="27"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="27"/>
     </row>
     <row r="44" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
@@ -5659,8 +5831,11 @@
       <c r="X45" s="22"/>
       <c r="Z45" s="22"/>
       <c r="AW45" s="3"/>
-    </row>
-    <row r="46" spans="1:181" x14ac:dyDescent="0.3">
+      <c r="BO45" s="32">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:181" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -5671,7 +5846,7 @@
       <c r="Z46" s="22"/>
       <c r="AW46" s="3"/>
     </row>
-    <row r="47" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:181" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4">
         <v>17</v>
       </c>
@@ -5731,8 +5906,16 @@
       <c r="BK47" s="18"/>
       <c r="BL47" s="27"/>
       <c r="BM47" s="27"/>
-    </row>
-    <row r="48" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN47" s="27"/>
+      <c r="BO47" s="41">
+        <v>6605</v>
+      </c>
+      <c r="BP47" s="27"/>
+      <c r="BQ47" s="18"/>
+      <c r="BR47" s="27"/>
+      <c r="BS47" s="48"/>
+    </row>
+    <row r="48" spans="1:181" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4">
         <v>18</v>
       </c>
@@ -5794,8 +5977,16 @@
       <c r="BK48" s="18"/>
       <c r="BL48" s="27"/>
       <c r="BM48" s="27"/>
-    </row>
-    <row r="49" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN48" s="27"/>
+      <c r="BO48" s="41">
+        <v>6607</v>
+      </c>
+      <c r="BP48" s="27"/>
+      <c r="BQ48" s="18"/>
+      <c r="BR48" s="27"/>
+      <c r="BS48" s="48"/>
+    </row>
+    <row r="49" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4">
         <v>19</v>
       </c>
@@ -5846,8 +6037,13 @@
       <c r="BK49" s="18"/>
       <c r="BL49" s="27"/>
       <c r="BM49" s="27"/>
-    </row>
-    <row r="50" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BN49" s="27"/>
+      <c r="BO49" s="27"/>
+      <c r="BP49" s="27"/>
+      <c r="BQ49" s="18"/>
+      <c r="BR49" s="27"/>
+    </row>
+    <row r="50" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="9" t="s">
         <v>44</v>
@@ -5870,8 +6066,12 @@
         <v>28239</v>
       </c>
       <c r="AY50" s="32"/>
-    </row>
-    <row r="51" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BP50" s="29">
+        <v>6608</v>
+      </c>
+      <c r="BS50" s="48"/>
+    </row>
+    <row r="51" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
         <v>45</v>
@@ -5884,7 +6084,7 @@
         <v>33191</v>
       </c>
     </row>
-    <row r="52" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:71" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4">
         <v>20</v>
       </c>
@@ -5935,8 +6135,13 @@
       <c r="BK52" s="18"/>
       <c r="BL52" s="27"/>
       <c r="BM52" s="27"/>
-    </row>
-    <row r="53" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BN52" s="27"/>
+      <c r="BO52" s="27"/>
+      <c r="BP52" s="27"/>
+      <c r="BQ52" s="18"/>
+      <c r="BR52" s="27"/>
+    </row>
+    <row r="53" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
@@ -5956,8 +6161,12 @@
         <v>28240</v>
       </c>
       <c r="AY53" s="32"/>
-    </row>
-    <row r="54" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BP53" s="29">
+        <v>6608</v>
+      </c>
+      <c r="BS53" s="48"/>
+    </row>
+    <row r="54" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
         <v>45</v>
       </c>
@@ -5967,7 +6176,7 @@
         <v>33192</v>
       </c>
     </row>
-    <row r="55" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:71" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4">
         <v>21</v>
       </c>
@@ -6018,8 +6227,13 @@
       <c r="BK55" s="18"/>
       <c r="BL55" s="27"/>
       <c r="BM55" s="27"/>
-    </row>
-    <row r="56" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BN55" s="27"/>
+      <c r="BO55" s="27"/>
+      <c r="BP55" s="27"/>
+      <c r="BQ55" s="18"/>
+      <c r="BR55" s="27"/>
+    </row>
+    <row r="56" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>44</v>
@@ -6040,8 +6254,12 @@
         <v>28241</v>
       </c>
       <c r="AY56" s="32"/>
-    </row>
-    <row r="57" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BP56" s="32">
+        <v>6608</v>
+      </c>
+      <c r="BS56" s="48"/>
+    </row>
+    <row r="57" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>45</v>
@@ -6052,7 +6270,7 @@
         <v>33193</v>
       </c>
     </row>
-    <row r="58" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4">
         <v>22</v>
       </c>
@@ -6110,8 +6328,15 @@
       <c r="BK58" s="18"/>
       <c r="BL58" s="27"/>
       <c r="BM58" s="27"/>
-    </row>
-    <row r="59" spans="2:65" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="BN58" s="27"/>
+      <c r="BO58" s="27"/>
+      <c r="BQ58" s="20">
+        <v>6632</v>
+      </c>
+      <c r="BR58" s="27"/>
+      <c r="BS58" s="48"/>
+    </row>
+    <row r="59" spans="2:71" s="4" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>23</v>
       </c>
@@ -6162,8 +6387,13 @@
       <c r="BK59" s="18"/>
       <c r="BL59" s="27"/>
       <c r="BM59" s="27"/>
-    </row>
-    <row r="60" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BN59" s="27"/>
+      <c r="BO59" s="27"/>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="18"/>
+      <c r="BR59" s="27"/>
+    </row>
+    <row r="60" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="9" t="s">
         <v>50</v>
@@ -6173,13 +6403,17 @@
       </c>
       <c r="AY60" s="32"/>
     </row>
-    <row r="61" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BR61" s="30">
+        <v>6635</v>
+      </c>
+      <c r="BS61" s="48"/>
+    </row>
+    <row r="62" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="9" t="s">
         <v>52</v>
@@ -6194,7 +6428,7 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="63" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="9" t="s">
         <v>53</v>
@@ -6203,7 +6437,7 @@
         <v>47020</v>
       </c>
     </row>
-    <row r="64" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4">
         <v>24</v>
       </c>
@@ -6278,8 +6512,16 @@
       <c r="BK64" s="18"/>
       <c r="BL64" s="27"/>
       <c r="BM64" s="27"/>
-    </row>
-    <row r="65" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN64" s="27"/>
+      <c r="BO64" s="27"/>
+      <c r="BP64" s="27"/>
+      <c r="BQ64" s="18"/>
+      <c r="BR64" s="40">
+        <v>6636</v>
+      </c>
+      <c r="BS64" s="48"/>
+    </row>
+    <row r="65" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="4">
         <v>25</v>
       </c>
@@ -6344,8 +6586,16 @@
       <c r="BK65" s="18"/>
       <c r="BL65" s="27"/>
       <c r="BM65" s="27"/>
-    </row>
-    <row r="66" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN65" s="27"/>
+      <c r="BO65" s="27"/>
+      <c r="BP65" s="27"/>
+      <c r="BQ65" s="18"/>
+      <c r="BR65" s="41">
+        <v>6637</v>
+      </c>
+      <c r="BS65" s="48"/>
+    </row>
+    <row r="66" spans="2:72" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>26</v>
       </c>
@@ -6400,8 +6650,21 @@
       <c r="BK66" s="18"/>
       <c r="BL66" s="27"/>
       <c r="BM66" s="27"/>
-    </row>
-    <row r="67" spans="2:65" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BN66" s="27"/>
+      <c r="BO66" s="27"/>
+      <c r="BP66" s="27"/>
+      <c r="BQ66" s="18"/>
+      <c r="BR66" s="27">
+        <v>6641</v>
+      </c>
+      <c r="BS66" s="27">
+        <v>6641</v>
+      </c>
+      <c r="BT66" s="27">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="67" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>27</v>
       </c>
@@ -6452,20 +6715,25 @@
       <c r="BK67" s="18"/>
       <c r="BL67" s="27"/>
       <c r="BM67" s="27"/>
-    </row>
-    <row r="68" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="BN67" s="27"/>
+      <c r="BO67" s="27"/>
+      <c r="BP67" s="27"/>
+      <c r="BQ67" s="18"/>
+      <c r="BR67" s="27"/>
+    </row>
+    <row r="68" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:65" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:72" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
   </sheetData>
@@ -6644,6 +6912,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C08A38-D9A4-4D7E-8892-27EC364DB422}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>833</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="49">
+        <v>395200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>845</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>897</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>994</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>524</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>587</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>683</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>843</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>983</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>985</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1188</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1832</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1750</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1620</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1965</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1949</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1763</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1649</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1389</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1323</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:B27">
+    <sortCondition ref="B15:B27"/>
+    <sortCondition descending="1" ref="A15:A27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC312799-CB40-4A22-B6FC-54390C5549CA}">
   <dimension ref="B2:D33"/>
   <sheetViews>
@@ -6922,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153CCBF5-AE5F-4D93-B87A-1B4577FF30BE}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ЕГЭ Григорий Кузьмин.xlsx
+++ b/ЕГЭ Григорий Кузьмин.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E9146-35FB-4FA7-8B6E-F975A6256730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA14BF-10E6-495E-86B2-B16FEF87ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="22850" yWindow="0" windowWidth="26250" windowHeight="15610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +376,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -609,6 +615,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -619,7 +640,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
@@ -680,14 +701,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="6" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="6"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3061,13 +3091,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:FY72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BI38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV27" sqref="BV27"/>
+      <selection pane="bottomRight" activeCell="CG14" sqref="CG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3132,90 +3163,100 @@
     <col min="65" max="68" width="11" style="28" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="3"/>
+    <col min="71" max="73" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:84" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>44789</v>
       </c>
-      <c r="E1" s="51">
+      <c r="E1" s="59">
         <v>44791</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59">
         <v>44796</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59">
         <v>44798</v>
       </c>
-      <c r="K1" s="51"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="17">
         <v>44803</v>
       </c>
       <c r="M1" s="26">
         <v>44812</v>
       </c>
-      <c r="N1" s="50">
+      <c r="N1" s="60">
         <v>44819</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59">
         <v>44825</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="62">
         <v>44826</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59">
         <v>44832</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51">
+      <c r="V1" s="59"/>
+      <c r="W1" s="59">
         <v>44833</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="53">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="62">
         <v>44838</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="53">
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="62">
         <v>44840</v>
       </c>
-      <c r="AB1" s="51"/>
+      <c r="AB1" s="59"/>
       <c r="AC1" s="37">
         <v>44846</v>
       </c>
       <c r="AD1" s="38">
         <v>44847</v>
       </c>
-      <c r="AE1" s="50">
+      <c r="AE1" s="60">
         <v>44854</v>
       </c>
-      <c r="AF1" s="51"/>
+      <c r="AF1" s="59"/>
       <c r="AG1" s="17">
         <v>44860</v>
       </c>
       <c r="AH1" s="26">
         <v>44861</v>
       </c>
-      <c r="AI1" s="50">
+      <c r="AI1" s="60">
         <v>44868</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
       <c r="AL1" s="17">
         <v>44869</v>
       </c>
-      <c r="AM1" s="50">
+      <c r="AM1" s="60">
         <v>44875</v>
       </c>
-      <c r="AN1" s="51"/>
+      <c r="AN1" s="59"/>
       <c r="AO1" s="17">
         <v>44876</v>
       </c>
@@ -3249,20 +3290,20 @@
       <c r="AY1" s="26">
         <v>44944</v>
       </c>
-      <c r="AZ1" s="50">
+      <c r="AZ1" s="60">
         <v>44958</v>
       </c>
-      <c r="BA1" s="51"/>
+      <c r="BA1" s="59"/>
       <c r="BB1" s="17">
         <v>44959</v>
       </c>
       <c r="BC1" s="26">
         <v>44965</v>
       </c>
-      <c r="BD1" s="50">
+      <c r="BD1" s="60">
         <v>44966</v>
       </c>
-      <c r="BE1" s="51"/>
+      <c r="BE1" s="59"/>
       <c r="BF1" s="38">
         <v>44972</v>
       </c>
@@ -3302,14 +3343,48 @@
       <c r="BR1" s="26">
         <v>45022</v>
       </c>
-      <c r="BS1" s="46">
+      <c r="BS1" s="26">
         <v>45028</v>
       </c>
-      <c r="BT1" s="46">
+      <c r="BT1" s="26">
         <v>45029</v>
       </c>
-    </row>
-    <row r="2" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BU1" s="26">
+        <v>45035</v>
+      </c>
+      <c r="BV1" s="26">
+        <v>45042</v>
+      </c>
+      <c r="BW1" s="49">
+        <v>45043</v>
+      </c>
+      <c r="BX1" s="17">
+        <v>45050</v>
+      </c>
+      <c r="BY1" s="49">
+        <v>45056</v>
+      </c>
+      <c r="BZ1" s="49">
+        <v>45057</v>
+      </c>
+      <c r="CA1" s="59">
+        <v>45063</v>
+      </c>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="49">
+        <v>45064</v>
+      </c>
+      <c r="CD1" s="49">
+        <v>45070</v>
+      </c>
+      <c r="CE1" s="49">
+        <v>45071</v>
+      </c>
+      <c r="CF1" s="49">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="2" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -3365,8 +3440,14 @@
       <c r="BP2" s="27"/>
       <c r="BQ2" s="18"/>
       <c r="BR2" s="27"/>
-    </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="27"/>
+      <c r="BV2" s="27"/>
+      <c r="BX2" s="18"/>
+      <c r="CB2" s="18"/>
+    </row>
+    <row r="3" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -3379,7 +3460,7 @@
       <c r="X3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -3402,7 +3483,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="5" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -3471,9 +3552,21 @@
       <c r="BP5" s="27"/>
       <c r="BQ5" s="18"/>
       <c r="BR5" s="27"/>
-      <c r="BS5" s="48"/>
-    </row>
-    <row r="6" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS5" s="27"/>
+      <c r="BT5" s="27"/>
+      <c r="BU5" s="40">
+        <v>82</v>
+      </c>
+      <c r="BV5" s="27"/>
+      <c r="BX5" s="18"/>
+      <c r="CA5" s="50">
+        <v>5483</v>
+      </c>
+      <c r="CB5" s="51">
+        <v>38534</v>
+      </c>
+    </row>
+    <row r="6" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -3540,9 +3633,16 @@
       <c r="BP6" s="27"/>
       <c r="BQ6" s="18"/>
       <c r="BR6" s="27"/>
-      <c r="BS6" s="48"/>
-    </row>
-    <row r="7" spans="2:72" s="4" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="27"/>
+      <c r="BU6" s="40">
+        <v>7582</v>
+      </c>
+      <c r="BV6" s="27"/>
+      <c r="BX6" s="18"/>
+      <c r="CB6" s="18"/>
+    </row>
+    <row r="7" spans="2:84" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -3598,8 +3698,14 @@
       <c r="BP7" s="27"/>
       <c r="BQ7" s="18"/>
       <c r="BR7" s="27"/>
-    </row>
-    <row r="8" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="BS7" s="27"/>
+      <c r="BT7" s="27"/>
+      <c r="BU7" s="27"/>
+      <c r="BV7" s="27"/>
+      <c r="BX7" s="18"/>
+      <c r="CB7" s="18"/>
+    </row>
+    <row r="8" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -3615,7 +3721,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -3652,8 +3758,11 @@
       <c r="BA9" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="2:72" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CE9" s="1">
+        <v>57411</v>
+      </c>
+    </row>
+    <row r="10" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -3710,8 +3819,14 @@
       <c r="BP10" s="27"/>
       <c r="BQ10" s="18"/>
       <c r="BR10" s="27"/>
-    </row>
-    <row r="11" spans="2:72" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS10" s="27"/>
+      <c r="BT10" s="27"/>
+      <c r="BU10" s="27"/>
+      <c r="BV10" s="27"/>
+      <c r="BX10" s="18"/>
+      <c r="CB10" s="18"/>
+    </row>
+    <row r="11" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -3741,16 +3856,24 @@
       <c r="BL11" s="29">
         <v>6588</v>
       </c>
-      <c r="BS11" s="48"/>
-    </row>
-    <row r="12" spans="2:72" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BU11" s="29">
+        <v>7584</v>
+      </c>
+      <c r="BX11" s="19">
+        <v>48453</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>57412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -3833,8 +3956,14 @@
       <c r="BP13" s="27"/>
       <c r="BQ13" s="18"/>
       <c r="BR13" s="27"/>
-    </row>
-    <row r="14" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BS13" s="27"/>
+      <c r="BT13" s="27"/>
+      <c r="BU13" s="27"/>
+      <c r="BV13" s="27"/>
+      <c r="BX13" s="18"/>
+      <c r="CB13" s="18"/>
+    </row>
+    <row r="14" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -3889,13 +4018,19 @@
       <c r="BP14" s="27"/>
       <c r="BQ14" s="18"/>
       <c r="BR14" s="27"/>
-    </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="BS14" s="27"/>
+      <c r="BT14" s="27"/>
+      <c r="BU14" s="27"/>
+      <c r="BV14" s="27"/>
+      <c r="BX14" s="18"/>
+      <c r="CB14" s="18"/>
+    </row>
+    <row r="15" spans="2:84" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:84" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -3910,8 +4045,11 @@
       <c r="BM16" s="32">
         <v>6590</v>
       </c>
-    </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="CA16" s="1">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="17" spans="2:82" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
@@ -3929,7 +4067,7 @@
       <c r="X17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="2:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>8</v>
       </c>
@@ -3985,8 +4123,14 @@
       <c r="BP18" s="27"/>
       <c r="BQ18" s="18"/>
       <c r="BR18" s="27"/>
-    </row>
-    <row r="19" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS18" s="27"/>
+      <c r="BT18" s="27"/>
+      <c r="BU18" s="27"/>
+      <c r="BV18" s="27"/>
+      <c r="BX18" s="18"/>
+      <c r="CB18" s="18"/>
+    </row>
+    <row r="19" spans="2:82" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
@@ -3995,7 +4139,7 @@
       <c r="X19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:82" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -4037,9 +4181,18 @@
       <c r="BM20" s="29">
         <v>6591</v>
       </c>
-      <c r="BS20" s="48"/>
-    </row>
-    <row r="21" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BU20" s="48"/>
+      <c r="BX20" s="25">
+        <v>48456</v>
+      </c>
+      <c r="BY20" s="1">
+        <v>48429</v>
+      </c>
+      <c r="CA20" s="14">
+        <v>40983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:82" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -4068,8 +4221,11 @@
       <c r="R21" s="22"/>
       <c r="X21" s="22"/>
       <c r="Z21" s="22"/>
-    </row>
-    <row r="22" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BU21" s="32">
+        <v>7587</v>
+      </c>
+    </row>
+    <row r="22" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>9</v>
       </c>
@@ -4141,9 +4297,19 @@
       <c r="BP22" s="27"/>
       <c r="BQ22" s="18"/>
       <c r="BR22" s="27"/>
-      <c r="BS22" s="48"/>
-    </row>
-    <row r="23" spans="2:71" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BS22" s="27"/>
+      <c r="BT22" s="27"/>
+      <c r="BU22" s="42">
+        <v>7588</v>
+      </c>
+      <c r="BV22" s="27"/>
+      <c r="BX22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="53">
+        <v>57416</v>
+      </c>
+    </row>
+    <row r="23" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10</v>
       </c>
@@ -4207,8 +4373,14 @@
       <c r="BP23" s="27"/>
       <c r="BQ23" s="18"/>
       <c r="BR23" s="27"/>
-    </row>
-    <row r="24" spans="2:71" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BS23" s="27"/>
+      <c r="BT23" s="27"/>
+      <c r="BU23" s="27"/>
+      <c r="BV23" s="27"/>
+      <c r="BX23" s="18"/>
+      <c r="CB23" s="18"/>
+    </row>
+    <row r="24" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>11</v>
       </c>
@@ -4265,8 +4437,14 @@
       <c r="BP24" s="27"/>
       <c r="BQ24" s="18"/>
       <c r="BR24" s="27"/>
-    </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="BS24" s="27"/>
+      <c r="BT24" s="27"/>
+      <c r="BU24" s="27"/>
+      <c r="BV24" s="27"/>
+      <c r="BX24" s="18"/>
+      <c r="CB24" s="18"/>
+    </row>
+    <row r="25" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -4283,7 +4461,7 @@
       <c r="Z25" s="22"/>
       <c r="AP25" s="22"/>
     </row>
-    <row r="26" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>24</v>
@@ -4307,7 +4485,7 @@
         <v>6592</v>
       </c>
     </row>
-    <row r="27" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>12</v>
       </c>
@@ -4381,9 +4559,25 @@
       <c r="BP27" s="27"/>
       <c r="BQ27" s="18"/>
       <c r="BR27" s="27"/>
-      <c r="BS27" s="48"/>
-    </row>
-    <row r="28" spans="2:71" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BS27" s="27"/>
+      <c r="BT27" s="27"/>
+      <c r="BU27" s="40">
+        <v>7591</v>
+      </c>
+      <c r="BV27" s="27"/>
+      <c r="BX27" s="18"/>
+      <c r="BY27" s="50">
+        <v>57419</v>
+      </c>
+      <c r="CB27" s="18"/>
+      <c r="CC27" s="44">
+        <v>55808</v>
+      </c>
+      <c r="CD27" s="53">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="28" spans="2:82" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>13</v>
       </c>
@@ -4439,8 +4633,14 @@
       <c r="BP28" s="27"/>
       <c r="BQ28" s="18"/>
       <c r="BR28" s="27"/>
-    </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="BS28" s="27"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="BV28" s="27"/>
+      <c r="BX28" s="18"/>
+      <c r="CB28" s="18"/>
+    </row>
+    <row r="29" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -4450,7 +4650,7 @@
       <c r="X29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
         <v>28</v>
@@ -4463,7 +4663,7 @@
       <c r="X30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:82" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
@@ -4479,8 +4679,11 @@
       <c r="BO31" s="32">
         <v>6593</v>
       </c>
-    </row>
-    <row r="32" spans="2:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CC31" s="14">
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="32" spans="2:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
@@ -4561,6 +4764,12 @@
       <c r="BP33" s="27"/>
       <c r="BQ33" s="18"/>
       <c r="BR33" s="27"/>
+      <c r="BS33" s="27"/>
+      <c r="BT33" s="27"/>
+      <c r="BU33" s="27"/>
+      <c r="BV33" s="27"/>
+      <c r="BX33" s="18"/>
+      <c r="CB33" s="18"/>
     </row>
     <row r="34" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -4632,16 +4841,16 @@
       <c r="BP34" s="28"/>
       <c r="BQ34" s="22"/>
       <c r="BR34" s="28"/>
-      <c r="BS34" s="3"/>
-      <c r="BT34" s="3"/>
-      <c r="BU34" s="3"/>
-      <c r="BV34" s="3"/>
+      <c r="BS34" s="28"/>
+      <c r="BT34" s="28"/>
+      <c r="BU34" s="28"/>
+      <c r="BV34" s="28"/>
       <c r="BW34" s="3"/>
-      <c r="BX34" s="3"/>
+      <c r="BX34" s="22"/>
       <c r="BY34" s="3"/>
       <c r="BZ34" s="3"/>
       <c r="CA34" s="3"/>
-      <c r="CB34" s="3"/>
+      <c r="CB34" s="22"/>
       <c r="CC34" s="3"/>
       <c r="CD34" s="3"/>
       <c r="CE34" s="3"/>
@@ -4741,18 +4950,20 @@
       <c r="BP35" s="28"/>
       <c r="BQ35" s="22"/>
       <c r="BR35" s="28"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
+      <c r="BS35" s="28"/>
+      <c r="BT35" s="28"/>
+      <c r="BU35" s="28"/>
+      <c r="BV35" s="28"/>
       <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
+      <c r="BX35" s="22"/>
       <c r="BY35" s="3"/>
       <c r="BZ35" s="3"/>
       <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
+      <c r="CB35" s="22"/>
       <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
+      <c r="CD35" s="1">
+        <v>7593</v>
+      </c>
       <c r="CE35" s="3"/>
       <c r="CF35" s="3"/>
       <c r="CG35" s="3"/>
@@ -4850,16 +5061,16 @@
       <c r="BP36" s="28"/>
       <c r="BQ36" s="22"/>
       <c r="BR36" s="28"/>
-      <c r="BS36" s="3"/>
-      <c r="BT36" s="3"/>
-      <c r="BU36" s="3"/>
-      <c r="BV36" s="3"/>
+      <c r="BS36" s="28"/>
+      <c r="BT36" s="28"/>
+      <c r="BU36" s="28"/>
+      <c r="BV36" s="28"/>
       <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
+      <c r="BX36" s="22"/>
       <c r="BY36" s="3"/>
       <c r="BZ36" s="3"/>
       <c r="CA36" s="3"/>
-      <c r="CB36" s="3"/>
+      <c r="CB36" s="22"/>
       <c r="CC36" s="3"/>
       <c r="CD36" s="3"/>
       <c r="CE36" s="3"/>
@@ -4955,16 +5166,16 @@
       <c r="BP37" s="28"/>
       <c r="BQ37" s="22"/>
       <c r="BR37" s="28"/>
-      <c r="BS37" s="3"/>
-      <c r="BT37" s="3"/>
-      <c r="BU37" s="3"/>
-      <c r="BV37" s="3"/>
+      <c r="BS37" s="28"/>
+      <c r="BT37" s="28"/>
+      <c r="BU37" s="28"/>
+      <c r="BV37" s="28"/>
       <c r="BW37" s="3"/>
-      <c r="BX37" s="3"/>
+      <c r="BX37" s="22"/>
       <c r="BY37" s="3"/>
       <c r="BZ37" s="3"/>
       <c r="CA37" s="3"/>
-      <c r="CB37" s="3"/>
+      <c r="CB37" s="22"/>
       <c r="CC37" s="3"/>
       <c r="CD37" s="3"/>
       <c r="CE37" s="3"/>
@@ -5046,6 +5257,12 @@
       <c r="BP38" s="27"/>
       <c r="BQ38" s="18"/>
       <c r="BR38" s="27"/>
+      <c r="BS38" s="27"/>
+      <c r="BT38" s="27"/>
+      <c r="BU38" s="27"/>
+      <c r="BV38" s="27"/>
+      <c r="BX38" s="18"/>
+      <c r="CB38" s="18"/>
     </row>
     <row r="39" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
@@ -5109,16 +5326,16 @@
       <c r="BP39" s="39"/>
       <c r="BQ39" s="36"/>
       <c r="BR39" s="39"/>
-      <c r="BS39" s="2"/>
-      <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="2"/>
+      <c r="BS39" s="39"/>
+      <c r="BT39" s="39"/>
+      <c r="BU39" s="39"/>
+      <c r="BV39" s="39"/>
       <c r="BW39" s="2"/>
-      <c r="BX39" s="2"/>
+      <c r="BX39" s="36"/>
       <c r="BY39" s="2"/>
       <c r="BZ39" s="2"/>
       <c r="CA39" s="2"/>
-      <c r="CB39" s="2"/>
+      <c r="CB39" s="36"/>
       <c r="CC39" s="2"/>
       <c r="CD39" s="2"/>
       <c r="CE39" s="2"/>
@@ -5274,20 +5491,20 @@
       <c r="BL40" s="39"/>
       <c r="BM40" s="39"/>
       <c r="BN40" s="39"/>
-      <c r="BO40" s="47"/>
+      <c r="BO40" s="46"/>
       <c r="BP40" s="39"/>
       <c r="BQ40" s="36"/>
       <c r="BR40" s="39"/>
-      <c r="BS40" s="2"/>
-      <c r="BT40" s="2"/>
-      <c r="BU40" s="2"/>
-      <c r="BV40" s="2"/>
+      <c r="BS40" s="39"/>
+      <c r="BT40" s="39"/>
+      <c r="BU40" s="39"/>
+      <c r="BV40" s="39"/>
       <c r="BW40" s="2"/>
-      <c r="BX40" s="2"/>
+      <c r="BX40" s="36"/>
       <c r="BY40" s="2"/>
       <c r="BZ40" s="2"/>
       <c r="CA40" s="2"/>
-      <c r="CB40" s="2"/>
+      <c r="CB40" s="36"/>
       <c r="CC40" s="2"/>
       <c r="CD40" s="2"/>
       <c r="CE40" s="2"/>
@@ -5454,16 +5671,16 @@
       <c r="BP41" s="39"/>
       <c r="BQ41" s="36"/>
       <c r="BR41" s="39"/>
-      <c r="BS41" s="2"/>
-      <c r="BT41" s="2"/>
-      <c r="BU41" s="2"/>
-      <c r="BV41" s="2"/>
+      <c r="BS41" s="39"/>
+      <c r="BT41" s="39"/>
+      <c r="BU41" s="39"/>
+      <c r="BV41" s="39"/>
       <c r="BW41" s="2"/>
-      <c r="BX41" s="2"/>
+      <c r="BX41" s="36"/>
       <c r="BY41" s="2"/>
       <c r="BZ41" s="2"/>
       <c r="CA41" s="2"/>
-      <c r="CB41" s="2"/>
+      <c r="CB41" s="36"/>
       <c r="CC41" s="2"/>
       <c r="CD41" s="2"/>
       <c r="CE41" s="2"/>
@@ -5627,16 +5844,16 @@
       <c r="BP42" s="39"/>
       <c r="BQ42" s="36"/>
       <c r="BR42" s="39"/>
-      <c r="BS42" s="2"/>
-      <c r="BT42" s="2"/>
-      <c r="BU42" s="2"/>
-      <c r="BV42" s="2"/>
+      <c r="BS42" s="39"/>
+      <c r="BT42" s="39"/>
+      <c r="BU42" s="39"/>
+      <c r="BV42" s="39"/>
       <c r="BW42" s="2"/>
-      <c r="BX42" s="2"/>
+      <c r="BX42" s="36"/>
       <c r="BY42" s="2"/>
       <c r="BZ42" s="2"/>
       <c r="CA42" s="2"/>
-      <c r="CB42" s="2"/>
+      <c r="CB42" s="36"/>
       <c r="CC42" s="2"/>
       <c r="CD42" s="2"/>
       <c r="CE42" s="2"/>
@@ -5794,6 +6011,12 @@
       <c r="BP43" s="27"/>
       <c r="BQ43" s="18"/>
       <c r="BR43" s="27"/>
+      <c r="BS43" s="27"/>
+      <c r="BT43" s="27"/>
+      <c r="BU43" s="27"/>
+      <c r="BV43" s="27"/>
+      <c r="BX43" s="18"/>
+      <c r="CB43" s="18"/>
     </row>
     <row r="44" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
@@ -5834,8 +6057,11 @@
       <c r="BO45" s="32">
         <v>6596</v>
       </c>
-    </row>
-    <row r="46" spans="1:181" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CE45" s="15">
+        <v>47013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:181" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -5845,8 +6071,11 @@
       <c r="X46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AW46" s="3"/>
-    </row>
-    <row r="47" spans="1:181" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CE46" s="1">
+        <v>57423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>17</v>
       </c>
@@ -5913,9 +6142,27 @@
       <c r="BP47" s="27"/>
       <c r="BQ47" s="18"/>
       <c r="BR47" s="27"/>
-      <c r="BS47" s="48"/>
-    </row>
-    <row r="48" spans="1:181" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS47" s="27"/>
+      <c r="BT47" s="27"/>
+      <c r="BU47" s="27"/>
+      <c r="BV47" s="42">
+        <v>7596</v>
+      </c>
+      <c r="BX47" s="52">
+        <v>48465</v>
+      </c>
+      <c r="BY47" s="50">
+        <v>55813</v>
+      </c>
+      <c r="BZ47" s="44">
+        <v>37396</v>
+      </c>
+      <c r="CB47" s="18"/>
+      <c r="CC47" s="53">
+        <v>57424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>18</v>
       </c>
@@ -5984,9 +6231,16 @@
       <c r="BP48" s="27"/>
       <c r="BQ48" s="18"/>
       <c r="BR48" s="27"/>
-      <c r="BS48" s="48"/>
-    </row>
-    <row r="49" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS48" s="27"/>
+      <c r="BT48" s="27"/>
+      <c r="BU48" s="27"/>
+      <c r="BV48" s="40">
+        <v>7597</v>
+      </c>
+      <c r="BX48" s="18"/>
+      <c r="CB48" s="18"/>
+    </row>
+    <row r="49" spans="2:81" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>19</v>
       </c>
@@ -6042,8 +6296,14 @@
       <c r="BP49" s="27"/>
       <c r="BQ49" s="18"/>
       <c r="BR49" s="27"/>
-    </row>
-    <row r="50" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS49" s="27"/>
+      <c r="BT49" s="27"/>
+      <c r="BU49" s="27"/>
+      <c r="BV49" s="27"/>
+      <c r="BX49" s="18"/>
+      <c r="CB49" s="18"/>
+    </row>
+    <row r="50" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="9" t="s">
         <v>44</v>
@@ -6069,9 +6329,11 @@
       <c r="BP50" s="29">
         <v>6608</v>
       </c>
-      <c r="BS50" s="48"/>
-    </row>
-    <row r="51" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BW50" s="31">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="51" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
         <v>45</v>
@@ -6083,8 +6345,15 @@
       <c r="BH51" s="20">
         <v>33191</v>
       </c>
-    </row>
-    <row r="52" spans="2:71" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW51" s="28"/>
+      <c r="BZ51" s="15">
+        <v>36874</v>
+      </c>
+      <c r="CC51" s="15">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="52" spans="2:81" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>20</v>
       </c>
@@ -6140,8 +6409,14 @@
       <c r="BP52" s="27"/>
       <c r="BQ52" s="18"/>
       <c r="BR52" s="27"/>
-    </row>
-    <row r="53" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS52" s="27"/>
+      <c r="BT52" s="27"/>
+      <c r="BU52" s="27"/>
+      <c r="BW52" s="27"/>
+      <c r="BX52" s="18"/>
+      <c r="CB52" s="18"/>
+    </row>
+    <row r="53" spans="2:81" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
         <v>44</v>
       </c>
@@ -6164,9 +6439,14 @@
       <c r="BP53" s="29">
         <v>6608</v>
       </c>
-      <c r="BS53" s="48"/>
-    </row>
-    <row r="54" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BW53" s="31">
+        <v>7598</v>
+      </c>
+      <c r="BZ53" s="1">
+        <v>36875</v>
+      </c>
+    </row>
+    <row r="54" spans="2:81" x14ac:dyDescent="0.3">
       <c r="C54" s="9" t="s">
         <v>45</v>
       </c>
@@ -6175,8 +6455,12 @@
       <c r="BH54" s="20">
         <v>33192</v>
       </c>
-    </row>
-    <row r="55" spans="2:71" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW54" s="28"/>
+      <c r="CC54" s="15">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="55" spans="2:81" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>21</v>
       </c>
@@ -6232,8 +6516,14 @@
       <c r="BP55" s="27"/>
       <c r="BQ55" s="18"/>
       <c r="BR55" s="27"/>
-    </row>
-    <row r="56" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS55" s="27"/>
+      <c r="BT55" s="27"/>
+      <c r="BU55" s="27"/>
+      <c r="BW55" s="27"/>
+      <c r="BX55" s="18"/>
+      <c r="CB55" s="18"/>
+    </row>
+    <row r="56" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
         <v>44</v>
@@ -6257,9 +6547,14 @@
       <c r="BP56" s="32">
         <v>6608</v>
       </c>
-      <c r="BS56" s="48"/>
-    </row>
-    <row r="57" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW56" s="31">
+        <v>7598</v>
+      </c>
+      <c r="BZ56" s="1">
+        <v>36876</v>
+      </c>
+    </row>
+    <row r="57" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
         <v>45</v>
@@ -6269,8 +6564,12 @@
       <c r="BH57" s="20">
         <v>33193</v>
       </c>
-    </row>
-    <row r="58" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW57" s="28"/>
+      <c r="CC57" s="15">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="58" spans="2:81" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>22</v>
       </c>
@@ -6334,9 +6633,14 @@
         <v>6632</v>
       </c>
       <c r="BR58" s="27"/>
-      <c r="BS58" s="48"/>
-    </row>
-    <row r="59" spans="2:71" s="4" customFormat="1" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BS58" s="27"/>
+      <c r="BT58" s="27"/>
+      <c r="BU58" s="27"/>
+      <c r="BW58" s="27"/>
+      <c r="BX58" s="18"/>
+      <c r="CB58" s="18"/>
+    </row>
+    <row r="59" spans="2:81" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>23</v>
       </c>
@@ -6392,8 +6696,14 @@
       <c r="BP59" s="27"/>
       <c r="BQ59" s="18"/>
       <c r="BR59" s="27"/>
-    </row>
-    <row r="60" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS59" s="27"/>
+      <c r="BT59" s="27"/>
+      <c r="BU59" s="27"/>
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="18"/>
+      <c r="CB59" s="18"/>
+    </row>
+    <row r="60" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="9" t="s">
         <v>50</v>
@@ -6402,8 +6712,9 @@
         <v>45257</v>
       </c>
       <c r="AY60" s="32"/>
-    </row>
-    <row r="61" spans="2:71" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BW60" s="28"/>
+    </row>
+    <row r="61" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="9" t="s">
         <v>51</v>
@@ -6411,9 +6722,11 @@
       <c r="BR61" s="30">
         <v>6635</v>
       </c>
-      <c r="BS61" s="48"/>
-    </row>
-    <row r="62" spans="2:71" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BW61" s="32">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="62" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="9" t="s">
         <v>52</v>
@@ -6428,7 +6741,7 @@
         <v>28697</v>
       </c>
     </row>
-    <row r="63" spans="2:71" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="9" t="s">
         <v>53</v>
@@ -6437,7 +6750,7 @@
         <v>47020</v>
       </c>
     </row>
-    <row r="64" spans="2:71" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:81" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>24</v>
       </c>
@@ -6519,9 +6832,17 @@
       <c r="BR64" s="40">
         <v>6636</v>
       </c>
-      <c r="BS64" s="48"/>
-    </row>
-    <row r="65" spans="2:72" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BS64" s="27"/>
+      <c r="BT64" s="27"/>
+      <c r="BU64" s="27"/>
+      <c r="BV64" s="27"/>
+      <c r="BW64" s="50">
+        <v>7600</v>
+      </c>
+      <c r="BX64" s="18"/>
+      <c r="CB64" s="18"/>
+    </row>
+    <row r="65" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>25</v>
       </c>
@@ -6593,9 +6914,22 @@
       <c r="BR65" s="41">
         <v>6637</v>
       </c>
-      <c r="BS65" s="48"/>
-    </row>
-    <row r="66" spans="2:72" s="4" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BS65" s="27"/>
+      <c r="BT65" s="27"/>
+      <c r="BU65" s="27"/>
+      <c r="BV65" s="27"/>
+      <c r="BX65" s="51">
+        <v>7601</v>
+      </c>
+      <c r="BZ65" s="50">
+        <v>812</v>
+      </c>
+      <c r="CB65" s="18"/>
+      <c r="CE65" s="53">
+        <v>57432</v>
+      </c>
+    </row>
+    <row r="66" spans="2:84" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>26</v>
       </c>
@@ -6654,105 +6988,113 @@
       <c r="BO66" s="27"/>
       <c r="BP66" s="27"/>
       <c r="BQ66" s="18"/>
-      <c r="BR66" s="27">
+      <c r="BR66" s="27"/>
+      <c r="BS66" s="27"/>
+      <c r="BT66" s="27"/>
+      <c r="BU66" s="27"/>
+      <c r="BV66" s="27"/>
+      <c r="BX66" s="18"/>
+      <c r="CB66" s="18"/>
+      <c r="CF66" s="4">
         <v>6641</v>
       </c>
-      <c r="BS66" s="27">
-        <v>6641</v>
-      </c>
-      <c r="BT66" s="27">
-        <v>6641</v>
-      </c>
-    </row>
-    <row r="67" spans="2:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="4">
+    </row>
+    <row r="67" spans="2:84" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="54">
         <v>27</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="27"/>
-      <c r="O67" s="18"/>
-      <c r="R67" s="34"/>
-      <c r="T67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="X67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AB67" s="18"/>
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-      <c r="AF67" s="18"/>
-      <c r="AG67" s="18"/>
-      <c r="AH67" s="27"/>
-      <c r="AK67" s="18"/>
-      <c r="AL67" s="18"/>
-      <c r="AN67" s="18"/>
-      <c r="AO67" s="18"/>
-      <c r="AP67" s="27"/>
-      <c r="AQ67" s="27"/>
-      <c r="AR67" s="27"/>
-      <c r="AS67" s="18"/>
-      <c r="AT67" s="18"/>
-      <c r="AU67" s="27"/>
-      <c r="AV67" s="27"/>
-      <c r="AW67" s="27"/>
-      <c r="AX67" s="27"/>
-      <c r="AY67" s="27"/>
-      <c r="BA67" s="18"/>
-      <c r="BB67" s="18"/>
-      <c r="BC67" s="27"/>
-      <c r="BE67" s="18"/>
-      <c r="BF67" s="18"/>
-      <c r="BG67" s="27"/>
-      <c r="BH67" s="18"/>
-      <c r="BI67" s="27"/>
-      <c r="BJ67" s="27"/>
-      <c r="BK67" s="18"/>
-      <c r="BL67" s="27"/>
-      <c r="BM67" s="27"/>
-      <c r="BN67" s="27"/>
-      <c r="BO67" s="27"/>
-      <c r="BP67" s="27"/>
-      <c r="BQ67" s="18"/>
-      <c r="BR67" s="27"/>
-    </row>
-    <row r="68" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="D67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="I67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="57"/>
+      <c r="O67" s="56"/>
+      <c r="R67" s="58"/>
+      <c r="T67" s="56"/>
+      <c r="V67" s="56"/>
+      <c r="X67" s="58"/>
+      <c r="Z67" s="58"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="56"/>
+      <c r="AD67" s="56"/>
+      <c r="AF67" s="56"/>
+      <c r="AG67" s="56"/>
+      <c r="AH67" s="57"/>
+      <c r="AK67" s="56"/>
+      <c r="AL67" s="56"/>
+      <c r="AN67" s="56"/>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="57"/>
+      <c r="AR67" s="57"/>
+      <c r="AS67" s="56"/>
+      <c r="AT67" s="56"/>
+      <c r="AU67" s="57"/>
+      <c r="AV67" s="57"/>
+      <c r="AW67" s="57"/>
+      <c r="AX67" s="57"/>
+      <c r="AY67" s="57"/>
+      <c r="BA67" s="56"/>
+      <c r="BB67" s="56"/>
+      <c r="BC67" s="57"/>
+      <c r="BE67" s="56"/>
+      <c r="BF67" s="56"/>
+      <c r="BG67" s="57"/>
+      <c r="BH67" s="56"/>
+      <c r="BI67" s="57"/>
+      <c r="BJ67" s="57"/>
+      <c r="BK67" s="56"/>
+      <c r="BL67" s="57"/>
+      <c r="BM67" s="57"/>
+      <c r="BN67" s="57"/>
+      <c r="BO67" s="57"/>
+      <c r="BP67" s="57"/>
+      <c r="BQ67" s="56"/>
+      <c r="BR67" s="57"/>
+      <c r="BS67" s="57"/>
+      <c r="BT67" s="57"/>
+      <c r="BU67" s="57"/>
+      <c r="BV67" s="57"/>
+      <c r="BX67" s="56"/>
+      <c r="CB67" s="56"/>
+    </row>
+    <row r="68" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:72" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:84" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="CA1:CB1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AE1:AF1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://inf-ege.sdamgia.ru/problem?id=10279" xr:uid="{14373AB1-311C-432C-9786-979AC0659BEF}"/>
@@ -6905,14 +7247,16 @@
     <hyperlink ref="BI13" r:id="rId148" display="https://inf-ege.sdamgia.ru/problem?id=47403" xr:uid="{E20CF46A-4A39-4196-962F-82BC80D1C818}"/>
     <hyperlink ref="BJ66" r:id="rId149" display="https://inf-ege.sdamgia.ru/problem?id=46984" xr:uid="{572763F6-B109-41A7-ACC7-225383A737D8}"/>
     <hyperlink ref="BK27" r:id="rId150" display="https://inf-ege.sdamgia.ru/problem?id=36867" xr:uid="{3F60AD8E-7A87-47AB-B556-475F9E108F7F}"/>
+    <hyperlink ref="BY47" r:id="rId151" display="https://inf-ege.sdamgia.ru/problem?id=55813" xr:uid="{CC60891D-AE26-4186-8BBD-7262464DBF41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId151"/>
+  <pageSetup orientation="portrait" r:id="rId152"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C08A38-D9A4-4D7E-8892-27EC364DB422}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -6931,7 +7275,7 @@
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="47">
         <v>395200</v>
       </c>
       <c r="K1" t="s">
@@ -7169,6 +7513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC312799-CB40-4A22-B6FC-54390C5549CA}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7448,6 +7793,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153CCBF5-AE5F-4D93-B87A-1B4577FF30BE}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
